--- a/realsense/numbers/PSNR/prop-improve/by_real/detail/psnr-average_real_prop-improve-NxNy300_ptAll-nph_tileExpand.xlsx
+++ b/realsense/numbers/PSNR/prop-improve/by_real/detail/psnr-average_real_prop-improve-NxNy300_ptAll-nph_tileExpand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\渡辺　哲生\source\repos\realsense\realsense\numbers\PSNR\prop-improve\by_real\detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D01945-D8CF-40B4-86CF-6B868268F894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC50C2AB-6A0E-44C6-8789-6D6A03AB6D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{787CAC4F-C68D-4530-9FDA-15BDCA93F7E1}"/>
   </bookViews>
@@ -729,13 +729,26 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11091426071741033"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.85341907261592309"/>
+          <c:h val="0.78185987168270632"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>N=1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -833,61 +846,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>17.253294871794871</c:v>
+                  <c:v>17.530525641025644</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.761292307692308</c:v>
+                  <c:v>19.064955128205128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.242708974358973</c:v>
+                  <c:v>20.543428205128208</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.163937179487178</c:v>
+                  <c:v>21.473755769230774</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.782107692307694</c:v>
+                  <c:v>22.108524038461539</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.946578205128208</c:v>
+                  <c:v>22.269684615384616</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.158261538461534</c:v>
+                  <c:v>22.497265384615385</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.150012820512814</c:v>
+                  <c:v>22.509397115384616</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.131617948717956</c:v>
+                  <c:v>22.511546794871801</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.252411538461544</c:v>
+                  <c:v>22.621369871794869</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.448432051282055</c:v>
+                  <c:v>22.864306410256411</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.350983333333335</c:v>
+                  <c:v>22.77011538461538</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.459611538461541</c:v>
+                  <c:v>22.87051506410257</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.447361538461543</c:v>
+                  <c:v>22.854952243589747</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.577651282051281</c:v>
+                  <c:v>23.000602564102564</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.581915384615389</c:v>
+                  <c:v>23.013645192307692</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.600052564102562</c:v>
+                  <c:v>23.029513141025646</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22.510106410256419</c:v>
+                  <c:v>22.948735256410259</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.570292307692313</c:v>
+                  <c:v>23.011733974358979</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,13 +908,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3774-48D8-864E-5CC1F1FD4B91}"/>
+              <c16:uniqueId val="{00000000-38FC-476E-888E-C2DD6A092986}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>N=2</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -999,61 +1015,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>17.320535897435896</c:v>
+                  <c:v>17.548913461538461</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.335057692307689</c:v>
+                  <c:v>19.52795064102564</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.289457692307693</c:v>
+                  <c:v>21.427048717948722</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.943451282051278</c:v>
+                  <c:v>22.084338141025643</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.352580769230777</c:v>
+                  <c:v>22.502374358974354</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.45359615384616</c:v>
+                  <c:v>22.58136923076923</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.530766666666661</c:v>
+                  <c:v>22.638995512820514</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.630825641025638</c:v>
+                  <c:v>22.784014423076922</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.728329487179487</c:v>
+                  <c:v>22.868417307692312</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.879587179487178</c:v>
+                  <c:v>23.01342884615385</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.156451282051286</c:v>
+                  <c:v>23.309309935897431</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.032457692307698</c:v>
+                  <c:v>23.219173076923081</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.213283333333337</c:v>
+                  <c:v>23.363444230769232</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.0910282051282</c:v>
+                  <c:v>23.251438461538459</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.115894871794882</c:v>
+                  <c:v>23.256246474358981</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.172319230769229</c:v>
+                  <c:v>23.316579807692307</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.250729487179484</c:v>
+                  <c:v>23.399544230769227</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.270728205128215</c:v>
+                  <c:v>23.437954807692314</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.227110256410256</c:v>
+                  <c:v>23.397767948717952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1061,13 +1077,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3774-48D8-864E-5CC1F1FD4B91}"/>
+              <c16:uniqueId val="{00000001-38FC-476E-888E-C2DD6A092986}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>N=3</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1165,61 +1184,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>17.609953846153847</c:v>
+                  <c:v>17.848099038461537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.606144871794868</c:v>
+                  <c:v>19.780291346153838</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.538364102564099</c:v>
+                  <c:v>21.65615608974359</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.282489743589736</c:v>
+                  <c:v>22.416101602564098</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.824798717948713</c:v>
+                  <c:v>22.979786858974357</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.975025641025638</c:v>
+                  <c:v>23.12710032051282</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.15025</c:v>
+                  <c:v>23.307108333333332</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.198258974358971</c:v>
+                  <c:v>23.382020833333332</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.319002564102554</c:v>
+                  <c:v>23.496554487179484</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.422184615384619</c:v>
+                  <c:v>23.579739102564098</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.745747435897435</c:v>
+                  <c:v>23.929605128205129</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.569615384615393</c:v>
+                  <c:v>23.780287820512825</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.783110256410257</c:v>
+                  <c:v>23.963520512820516</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.66504358974359</c:v>
+                  <c:v>23.857502243589746</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.773437179487175</c:v>
+                  <c:v>23.97002435897436</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.811883333333334</c:v>
+                  <c:v>24.004758653846153</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.878782051282048</c:v>
+                  <c:v>24.071631089743594</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.867511538461535</c:v>
+                  <c:v>24.068852564102563</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.833134615384612</c:v>
+                  <c:v>24.053724038461542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,13 +1246,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3774-48D8-864E-5CC1F1FD4B91}"/>
+              <c16:uniqueId val="{00000002-38FC-476E-888E-C2DD6A092986}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>N=4</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1331,61 +1353,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>17.326676923076921</c:v>
+                  <c:v>17.584460256410253</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.541984615384614</c:v>
+                  <c:v>19.712854487179484</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.315237179487184</c:v>
+                  <c:v>21.439887179487179</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.493392307692314</c:v>
+                  <c:v>21.663029807692308</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.740725641025634</c:v>
+                  <c:v>21.92717243589744</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.658810256410259</c:v>
+                  <c:v>21.855371153846153</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.5603217948718</c:v>
+                  <c:v>21.769855769230773</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.710662820512823</c:v>
+                  <c:v>21.947760576923073</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.878466666666672</c:v>
+                  <c:v>22.08099038461539</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.973003846153844</c:v>
+                  <c:v>22.180394230769231</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.266983333333332</c:v>
+                  <c:v>22.459857051282057</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.151107692307693</c:v>
+                  <c:v>22.369066346153843</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.267656410256411</c:v>
+                  <c:v>22.469145833333336</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.176352564102562</c:v>
+                  <c:v>22.387532371794869</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.096076923076929</c:v>
+                  <c:v>22.302175961538463</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.189880769230765</c:v>
+                  <c:v>22.390210897435892</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.229271794871789</c:v>
+                  <c:v>22.44239391025641</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22.247726923076929</c:v>
+                  <c:v>22.465738782051286</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.289937179487175</c:v>
+                  <c:v>22.502778525641027</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1393,13 +1415,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3774-48D8-864E-5CC1F1FD4B91}"/>
+              <c16:uniqueId val="{00000003-38FC-476E-888E-C2DD6A092986}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>N=5</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1497,61 +1522,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>17.424076923076921</c:v>
+                  <c:v>17.701881089743591</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.524566666666665</c:v>
+                  <c:v>19.692624358974356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.162324358974363</c:v>
+                  <c:v>21.266367628205128</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.356592307692306</c:v>
+                  <c:v>21.50743237179487</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.681301282051276</c:v>
+                  <c:v>21.862383653846152</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.610056410256405</c:v>
+                  <c:v>21.80680224358974</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.583179487179482</c:v>
+                  <c:v>21.810556410256407</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.685924358974351</c:v>
+                  <c:v>21.924790064102567</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.886028205128202</c:v>
+                  <c:v>22.098344230769232</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.907441025641017</c:v>
+                  <c:v>22.110222115384612</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.250744871794865</c:v>
+                  <c:v>22.449733333333327</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.09656923076923</c:v>
+                  <c:v>22.307183012820513</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.213021794871793</c:v>
+                  <c:v>22.413149358974358</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.138048717948717</c:v>
+                  <c:v>22.343864102564105</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.132010256410247</c:v>
+                  <c:v>22.353172435897431</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.181011538461544</c:v>
+                  <c:v>22.390209935897445</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.230038461538459</c:v>
+                  <c:v>22.448463461538463</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22.225641025641021</c:v>
+                  <c:v>22.444259294871795</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.269610256410253</c:v>
+                  <c:v>22.488645833333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1559,7 +1584,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3774-48D8-864E-5CC1F1FD4B91}"/>
+              <c16:uniqueId val="{00000004-38FC-476E-888E-C2DD6A092986}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1595,18 +1620,83 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                  <a:t> of layers</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42227424150652498"/>
+              <c:y val="0.91274509803921566"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1617,16 +1707,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -1640,7 +1730,7 @@
         <c:axId val="653846640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="16"/>
+          <c:min val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1658,18 +1748,71 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
+                  <a:t>PSNR[dB]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1680,16 +1823,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -1702,18 +1845,34 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83958661417322833"/>
+          <c:y val="0.45038340795635839"/>
+          <c:w val="0.10404190297891087"/>
+          <c:h val="0.31546446400082345"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1722,16 +1881,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
@@ -1747,12 +1906,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1762,7 +1916,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -2336,26 +2493,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
+        <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B191ED-D1DD-5076-4405-B273E9EABC43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0AF3FEB-4235-470B-9F75-581E8BEE24D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2692,7 +2851,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2719,19 +2878,24 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>17.253294871794871</v>
+        <f>'N=1'!F2</f>
+        <v>17.530525641025644</v>
       </c>
       <c r="C2">
-        <v>17.320535897435896</v>
+        <f>'N=2'!F2</f>
+        <v>17.548913461538461</v>
       </c>
       <c r="D2">
-        <v>17.609953846153847</v>
+        <f>'N=3'!F2</f>
+        <v>17.848099038461537</v>
       </c>
       <c r="E2">
-        <v>17.326676923076921</v>
+        <f>'N=4'!F2</f>
+        <v>17.584460256410253</v>
       </c>
       <c r="F2">
-        <v>17.424076923076921</v>
+        <f>'N=5'!F2</f>
+        <v>17.701881089743591</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2739,19 +2903,24 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>18.761292307692308</v>
+        <f>'N=1'!F3</f>
+        <v>19.064955128205128</v>
       </c>
       <c r="C3">
-        <v>19.335057692307689</v>
+        <f>'N=2'!F3</f>
+        <v>19.52795064102564</v>
       </c>
       <c r="D3">
-        <v>19.606144871794868</v>
+        <f>'N=3'!F3</f>
+        <v>19.780291346153838</v>
       </c>
       <c r="E3">
-        <v>19.541984615384614</v>
+        <f>'N=4'!F3</f>
+        <v>19.712854487179484</v>
       </c>
       <c r="F3">
-        <v>19.524566666666665</v>
+        <f>'N=5'!F3</f>
+        <v>19.692624358974356</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2759,19 +2928,24 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>20.242708974358973</v>
+        <f>'N=1'!F4</f>
+        <v>20.543428205128208</v>
       </c>
       <c r="C4">
-        <v>21.289457692307693</v>
+        <f>'N=2'!F4</f>
+        <v>21.427048717948722</v>
       </c>
       <c r="D4">
-        <v>21.538364102564099</v>
+        <f>'N=3'!F4</f>
+        <v>21.65615608974359</v>
       </c>
       <c r="E4">
-        <v>21.315237179487184</v>
+        <f>'N=4'!F4</f>
+        <v>21.439887179487179</v>
       </c>
       <c r="F4">
-        <v>21.162324358974363</v>
+        <f>'N=5'!F4</f>
+        <v>21.266367628205128</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2779,19 +2953,24 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>21.163937179487178</v>
+        <f>'N=1'!F5</f>
+        <v>21.473755769230774</v>
       </c>
       <c r="C5">
-        <v>21.943451282051278</v>
+        <f>'N=2'!F5</f>
+        <v>22.084338141025643</v>
       </c>
       <c r="D5">
-        <v>22.282489743589736</v>
+        <f>'N=3'!F5</f>
+        <v>22.416101602564098</v>
       </c>
       <c r="E5">
-        <v>21.493392307692314</v>
+        <f>'N=4'!F5</f>
+        <v>21.663029807692308</v>
       </c>
       <c r="F5">
-        <v>21.356592307692306</v>
+        <f>'N=5'!F5</f>
+        <v>21.50743237179487</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2799,19 +2978,24 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>21.782107692307694</v>
+        <f>'N=1'!F6</f>
+        <v>22.108524038461539</v>
       </c>
       <c r="C6">
-        <v>22.352580769230777</v>
+        <f>'N=2'!F6</f>
+        <v>22.502374358974354</v>
       </c>
       <c r="D6">
-        <v>22.824798717948713</v>
+        <f>'N=3'!F6</f>
+        <v>22.979786858974357</v>
       </c>
       <c r="E6">
-        <v>21.740725641025634</v>
+        <f>'N=4'!F6</f>
+        <v>21.92717243589744</v>
       </c>
       <c r="F6">
-        <v>21.681301282051276</v>
+        <f>'N=5'!F6</f>
+        <v>21.862383653846152</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2819,19 +3003,24 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>21.946578205128208</v>
+        <f>'N=1'!F7</f>
+        <v>22.269684615384616</v>
       </c>
       <c r="C7">
-        <v>22.45359615384616</v>
+        <f>'N=2'!F7</f>
+        <v>22.58136923076923</v>
       </c>
       <c r="D7">
-        <v>22.975025641025638</v>
+        <f>'N=3'!F7</f>
+        <v>23.12710032051282</v>
       </c>
       <c r="E7">
-        <v>21.658810256410259</v>
+        <f>'N=4'!F7</f>
+        <v>21.855371153846153</v>
       </c>
       <c r="F7">
-        <v>21.610056410256405</v>
+        <f>'N=5'!F7</f>
+        <v>21.80680224358974</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2839,19 +3028,24 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>22.158261538461534</v>
+        <f>'N=1'!F8</f>
+        <v>22.497265384615385</v>
       </c>
       <c r="C8">
-        <v>22.530766666666661</v>
+        <f>'N=2'!F8</f>
+        <v>22.638995512820514</v>
       </c>
       <c r="D8">
-        <v>23.15025</v>
+        <f>'N=3'!F8</f>
+        <v>23.307108333333332</v>
       </c>
       <c r="E8">
-        <v>21.5603217948718</v>
+        <f>'N=4'!F8</f>
+        <v>21.769855769230773</v>
       </c>
       <c r="F8">
-        <v>21.583179487179482</v>
+        <f>'N=5'!F8</f>
+        <v>21.810556410256407</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2859,19 +3053,24 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>22.150012820512814</v>
+        <f>'N=1'!F9</f>
+        <v>22.509397115384616</v>
       </c>
       <c r="C9">
-        <v>22.630825641025638</v>
+        <f>'N=2'!F9</f>
+        <v>22.784014423076922</v>
       </c>
       <c r="D9">
-        <v>23.198258974358971</v>
+        <f>'N=3'!F9</f>
+        <v>23.382020833333332</v>
       </c>
       <c r="E9">
-        <v>21.710662820512823</v>
+        <f>'N=4'!F9</f>
+        <v>21.947760576923073</v>
       </c>
       <c r="F9">
-        <v>21.685924358974351</v>
+        <f>'N=5'!F9</f>
+        <v>21.924790064102567</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2879,19 +3078,24 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>22.131617948717956</v>
+        <f>'N=1'!F10</f>
+        <v>22.511546794871801</v>
       </c>
       <c r="C10">
-        <v>22.728329487179487</v>
+        <f>'N=2'!F10</f>
+        <v>22.868417307692312</v>
       </c>
       <c r="D10">
-        <v>23.319002564102554</v>
+        <f>'N=3'!F10</f>
+        <v>23.496554487179484</v>
       </c>
       <c r="E10">
-        <v>21.878466666666672</v>
+        <f>'N=4'!F10</f>
+        <v>22.08099038461539</v>
       </c>
       <c r="F10">
-        <v>21.886028205128202</v>
+        <f>'N=5'!F10</f>
+        <v>22.098344230769232</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2899,19 +3103,24 @@
         <v>55</v>
       </c>
       <c r="B11">
-        <v>22.252411538461544</v>
+        <f>'N=1'!F11</f>
+        <v>22.621369871794869</v>
       </c>
       <c r="C11">
-        <v>22.879587179487178</v>
+        <f>'N=2'!F11</f>
+        <v>23.01342884615385</v>
       </c>
       <c r="D11">
-        <v>23.422184615384619</v>
+        <f>'N=3'!F11</f>
+        <v>23.579739102564098</v>
       </c>
       <c r="E11">
-        <v>21.973003846153844</v>
+        <f>'N=4'!F11</f>
+        <v>22.180394230769231</v>
       </c>
       <c r="F11">
-        <v>21.907441025641017</v>
+        <f>'N=5'!F11</f>
+        <v>22.110222115384612</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2919,19 +3128,24 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>22.448432051282055</v>
+        <f>'N=1'!F12</f>
+        <v>22.864306410256411</v>
       </c>
       <c r="C12">
-        <v>23.156451282051286</v>
+        <f>'N=2'!F12</f>
+        <v>23.309309935897431</v>
       </c>
       <c r="D12">
-        <v>23.745747435897435</v>
+        <f>'N=3'!F12</f>
+        <v>23.929605128205129</v>
       </c>
       <c r="E12">
-        <v>22.266983333333332</v>
+        <f>'N=4'!F12</f>
+        <v>22.459857051282057</v>
       </c>
       <c r="F12">
-        <v>22.250744871794865</v>
+        <f>'N=5'!F12</f>
+        <v>22.449733333333327</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2939,19 +3153,24 @@
         <v>65</v>
       </c>
       <c r="B13">
-        <v>22.350983333333335</v>
+        <f>'N=1'!F13</f>
+        <v>22.77011538461538</v>
       </c>
       <c r="C13">
-        <v>23.032457692307698</v>
+        <f>'N=2'!F13</f>
+        <v>23.219173076923081</v>
       </c>
       <c r="D13">
-        <v>23.569615384615393</v>
+        <f>'N=3'!F13</f>
+        <v>23.780287820512825</v>
       </c>
       <c r="E13">
-        <v>22.151107692307693</v>
+        <f>'N=4'!F13</f>
+        <v>22.369066346153843</v>
       </c>
       <c r="F13">
-        <v>22.09656923076923</v>
+        <f>'N=5'!F13</f>
+        <v>22.307183012820513</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2959,19 +3178,24 @@
         <v>70</v>
       </c>
       <c r="B14">
-        <v>22.459611538461541</v>
+        <f>'N=1'!F14</f>
+        <v>22.87051506410257</v>
       </c>
       <c r="C14">
-        <v>23.213283333333337</v>
+        <f>'N=2'!F14</f>
+        <v>23.363444230769232</v>
       </c>
       <c r="D14">
-        <v>23.783110256410257</v>
+        <f>'N=3'!F14</f>
+        <v>23.963520512820516</v>
       </c>
       <c r="E14">
-        <v>22.267656410256411</v>
+        <f>'N=4'!F14</f>
+        <v>22.469145833333336</v>
       </c>
       <c r="F14">
-        <v>22.213021794871793</v>
+        <f>'N=5'!F14</f>
+        <v>22.413149358974358</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2979,19 +3203,24 @@
         <v>75</v>
       </c>
       <c r="B15">
-        <v>22.447361538461543</v>
+        <f>'N=1'!F15</f>
+        <v>22.854952243589747</v>
       </c>
       <c r="C15">
-        <v>23.0910282051282</v>
+        <f>'N=2'!F15</f>
+        <v>23.251438461538459</v>
       </c>
       <c r="D15">
-        <v>23.66504358974359</v>
+        <f>'N=3'!F15</f>
+        <v>23.857502243589746</v>
       </c>
       <c r="E15">
-        <v>22.176352564102562</v>
+        <f>'N=4'!F15</f>
+        <v>22.387532371794869</v>
       </c>
       <c r="F15">
-        <v>22.138048717948717</v>
+        <f>'N=5'!F15</f>
+        <v>22.343864102564105</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2999,19 +3228,24 @@
         <v>80</v>
       </c>
       <c r="B16">
-        <v>22.577651282051281</v>
+        <f>'N=1'!F16</f>
+        <v>23.000602564102564</v>
       </c>
       <c r="C16">
-        <v>23.115894871794882</v>
+        <f>'N=2'!F16</f>
+        <v>23.256246474358981</v>
       </c>
       <c r="D16">
-        <v>23.773437179487175</v>
+        <f>'N=3'!F16</f>
+        <v>23.97002435897436</v>
       </c>
       <c r="E16">
-        <v>22.096076923076929</v>
+        <f>'N=4'!F16</f>
+        <v>22.302175961538463</v>
       </c>
       <c r="F16">
-        <v>22.132010256410247</v>
+        <f>'N=5'!F16</f>
+        <v>22.353172435897431</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3019,19 +3253,24 @@
         <v>85</v>
       </c>
       <c r="B17">
-        <v>22.581915384615389</v>
+        <f>'N=1'!F17</f>
+        <v>23.013645192307692</v>
       </c>
       <c r="C17">
-        <v>23.172319230769229</v>
+        <f>'N=2'!F17</f>
+        <v>23.316579807692307</v>
       </c>
       <c r="D17">
-        <v>23.811883333333334</v>
+        <f>'N=3'!F17</f>
+        <v>24.004758653846153</v>
       </c>
       <c r="E17">
-        <v>22.189880769230765</v>
+        <f>'N=4'!F17</f>
+        <v>22.390210897435892</v>
       </c>
       <c r="F17">
-        <v>22.181011538461544</v>
+        <f>'N=5'!F17</f>
+        <v>22.390209935897445</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3039,19 +3278,24 @@
         <v>90</v>
       </c>
       <c r="B18">
-        <v>22.600052564102562</v>
+        <f>'N=1'!F18</f>
+        <v>23.029513141025646</v>
       </c>
       <c r="C18">
-        <v>23.250729487179484</v>
+        <f>'N=2'!F18</f>
+        <v>23.399544230769227</v>
       </c>
       <c r="D18">
-        <v>23.878782051282048</v>
+        <f>'N=3'!F18</f>
+        <v>24.071631089743594</v>
       </c>
       <c r="E18">
-        <v>22.229271794871789</v>
+        <f>'N=4'!F18</f>
+        <v>22.44239391025641</v>
       </c>
       <c r="F18">
-        <v>22.230038461538459</v>
+        <f>'N=5'!F18</f>
+        <v>22.448463461538463</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3059,19 +3303,24 @@
         <v>95</v>
       </c>
       <c r="B19">
-        <v>22.510106410256419</v>
+        <f>'N=1'!F19</f>
+        <v>22.948735256410259</v>
       </c>
       <c r="C19">
-        <v>23.270728205128215</v>
+        <f>'N=2'!F19</f>
+        <v>23.437954807692314</v>
       </c>
       <c r="D19">
-        <v>23.867511538461535</v>
+        <f>'N=3'!F19</f>
+        <v>24.068852564102563</v>
       </c>
       <c r="E19">
-        <v>22.247726923076929</v>
+        <f>'N=4'!F19</f>
+        <v>22.465738782051286</v>
       </c>
       <c r="F19">
-        <v>22.225641025641021</v>
+        <f>'N=5'!F19</f>
+        <v>22.444259294871795</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3079,19 +3328,24 @@
         <v>100</v>
       </c>
       <c r="B20">
-        <v>22.570292307692313</v>
+        <f>'N=1'!F20</f>
+        <v>23.011733974358979</v>
       </c>
       <c r="C20">
-        <v>23.227110256410256</v>
+        <f>'N=2'!F20</f>
+        <v>23.397767948717952</v>
       </c>
       <c r="D20">
-        <v>23.833134615384612</v>
+        <f>'N=3'!F20</f>
+        <v>24.053724038461542</v>
       </c>
       <c r="E20">
-        <v>22.289937179487175</v>
+        <f>'N=4'!F20</f>
+        <v>22.502778525641027</v>
       </c>
       <c r="F20">
-        <v>22.269610256410253</v>
+        <f>'N=5'!F20</f>
+        <v>22.488645833333333</v>
       </c>
     </row>
   </sheetData>
@@ -3103,7 +3357,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35F5954-E7CD-4758-8230-9A4C512CB0F4}">
-  <dimension ref="A1:CA39"/>
+  <dimension ref="A1:CB39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21:A39"/>
@@ -3111,4659 +3365,4659 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
-        <f>AVERAGE(B1:CA1)</f>
-        <v>17.424076923076921</v>
-      </c>
-      <c r="B1">
-        <v>19.6372</v>
+        <f>AVERAGE(C1:CB1)</f>
+        <v>18.70271923076923</v>
       </c>
       <c r="C1">
-        <v>31.391500000000001</v>
+        <v>19.924600000000002</v>
       </c>
       <c r="D1">
-        <v>27.361000000000001</v>
+        <v>32.733499999999999</v>
       </c>
       <c r="E1">
-        <v>17.876999999999999</v>
+        <v>28.7425</v>
       </c>
       <c r="F1">
-        <v>22.732199999999999</v>
+        <v>18.288599999999999</v>
       </c>
       <c r="G1">
-        <v>16.328600000000002</v>
+        <v>23.373999999999999</v>
       </c>
       <c r="H1">
-        <v>18.950800000000001</v>
+        <v>16.6191</v>
       </c>
       <c r="I1">
-        <v>24.801100000000002</v>
+        <v>19.5838</v>
       </c>
       <c r="J1">
-        <v>22.554500000000001</v>
+        <v>25.450500000000002</v>
       </c>
       <c r="K1">
-        <v>17.631399999999999</v>
+        <v>22.854099999999999</v>
       </c>
       <c r="L1">
-        <v>16.2227</v>
+        <v>18.4068</v>
       </c>
       <c r="M1">
-        <v>14.8803</v>
+        <v>16.966999999999999</v>
       </c>
       <c r="N1">
-        <v>16.113700000000001</v>
+        <v>16.098299999999998</v>
       </c>
       <c r="O1">
-        <v>16.979399999999998</v>
+        <v>17.2257</v>
       </c>
       <c r="P1">
-        <v>18.687200000000001</v>
+        <v>18.107800000000001</v>
       </c>
       <c r="Q1">
-        <v>19.779399999999999</v>
+        <v>19.757100000000001</v>
       </c>
       <c r="R1">
-        <v>20.933700000000002</v>
+        <v>20.9206</v>
       </c>
       <c r="S1">
-        <v>23.543500000000002</v>
+        <v>22.102799999999998</v>
       </c>
       <c r="T1">
-        <v>22.927</v>
+        <v>24.036100000000001</v>
       </c>
       <c r="U1">
-        <v>23.036300000000001</v>
+        <v>23.706299999999999</v>
       </c>
       <c r="V1">
-        <v>22.659800000000001</v>
+        <v>23.543199999999999</v>
       </c>
       <c r="W1">
-        <v>21.945900000000002</v>
+        <v>23.1067</v>
       </c>
       <c r="X1">
-        <v>20.687799999999999</v>
+        <v>22.433</v>
       </c>
       <c r="Y1">
-        <v>20.363199999999999</v>
+        <v>21.3447</v>
       </c>
       <c r="Z1">
-        <v>19.5642</v>
+        <v>20.982900000000001</v>
       </c>
       <c r="AA1">
-        <v>19.392399999999999</v>
+        <v>20.3826</v>
       </c>
       <c r="AB1">
-        <v>19.204499999999999</v>
+        <v>20.136399999999998</v>
       </c>
       <c r="AC1">
-        <v>18.215699999999998</v>
+        <v>19.888000000000002</v>
       </c>
       <c r="AD1">
-        <v>18.047799999999999</v>
+        <v>19.1982</v>
       </c>
       <c r="AE1">
-        <v>17.925599999999999</v>
+        <v>18.992799999999999</v>
       </c>
       <c r="AF1">
-        <v>16.7119</v>
+        <v>18.7898</v>
       </c>
       <c r="AG1">
-        <v>16.745699999999999</v>
+        <v>17.989100000000001</v>
       </c>
       <c r="AH1">
-        <v>16.653099999999998</v>
+        <v>17.998999999999999</v>
       </c>
       <c r="AI1">
-        <v>16.617899999999999</v>
+        <v>17.869299999999999</v>
       </c>
       <c r="AJ1">
-        <v>16.084900000000001</v>
+        <v>17.837199999999999</v>
       </c>
       <c r="AK1">
-        <v>16.0595</v>
+        <v>17.396799999999999</v>
       </c>
       <c r="AL1">
-        <v>16.079000000000001</v>
+        <v>17.370899999999999</v>
       </c>
       <c r="AM1">
-        <v>16.050599999999999</v>
+        <v>17.3827</v>
       </c>
       <c r="AN1">
-        <v>13.834199999999999</v>
+        <v>17.341200000000001</v>
       </c>
       <c r="AO1">
-        <v>14.439500000000001</v>
+        <v>15.5298</v>
       </c>
       <c r="AP1">
-        <v>14.4291</v>
+        <v>16.0381</v>
       </c>
       <c r="AQ1">
-        <v>14.4483</v>
+        <v>16.027000000000001</v>
       </c>
       <c r="AR1">
-        <v>14.469099999999999</v>
+        <v>16.042300000000001</v>
       </c>
       <c r="AS1">
-        <v>14.444599999999999</v>
+        <v>16.070399999999999</v>
       </c>
       <c r="AT1">
-        <v>14.464</v>
+        <v>16.0563</v>
       </c>
       <c r="AU1">
-        <v>14.4712</v>
+        <v>16.102900000000002</v>
       </c>
       <c r="AV1">
-        <v>14.488799999999999</v>
+        <v>16.125699999999998</v>
       </c>
       <c r="AW1">
-        <v>14.4846</v>
+        <v>16.173400000000001</v>
       </c>
       <c r="AX1">
-        <v>14.4658</v>
+        <v>16.1904</v>
       </c>
       <c r="AY1">
-        <v>14.4549</v>
+        <v>16.208400000000001</v>
       </c>
       <c r="AZ1">
-        <v>14.454000000000001</v>
+        <v>16.232199999999999</v>
       </c>
       <c r="BA1">
-        <v>14.4717</v>
+        <v>16.247399999999999</v>
       </c>
       <c r="BB1">
-        <v>14.486700000000001</v>
+        <v>16.339300000000001</v>
       </c>
       <c r="BC1">
-        <v>14.495100000000001</v>
+        <v>16.349499999999999</v>
       </c>
       <c r="BD1">
-        <v>15.660299999999999</v>
+        <v>16.357099999999999</v>
       </c>
       <c r="BE1">
-        <v>15.6479</v>
+        <v>17.3367</v>
       </c>
       <c r="BF1">
-        <v>15.628500000000001</v>
+        <v>17.3218</v>
       </c>
       <c r="BG1">
-        <v>15.634399999999999</v>
+        <v>17.326799999999999</v>
       </c>
       <c r="BH1">
-        <v>15.6204</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="BI1">
-        <v>15.597300000000001</v>
+        <v>17.322299999999998</v>
       </c>
       <c r="BJ1">
-        <v>15.6214</v>
+        <v>17.325800000000001</v>
       </c>
       <c r="BK1">
-        <v>15.6172</v>
+        <v>17.354800000000001</v>
       </c>
       <c r="BL1">
-        <v>15.614100000000001</v>
+        <v>17.338699999999999</v>
       </c>
       <c r="BM1">
-        <v>15.6076</v>
+        <v>17.4102</v>
       </c>
       <c r="BN1">
-        <v>15.606299999999999</v>
+        <v>17.414300000000001</v>
       </c>
       <c r="BO1">
-        <v>15.5989</v>
+        <v>17.3627</v>
       </c>
       <c r="BP1">
-        <v>15.616400000000001</v>
+        <v>17.346800000000002</v>
       </c>
       <c r="BQ1">
-        <v>15.591100000000001</v>
+        <v>17.356000000000002</v>
       </c>
       <c r="BR1">
-        <v>16.839300000000001</v>
+        <v>17.337199999999999</v>
       </c>
       <c r="BS1">
-        <v>16.857299999999999</v>
+        <v>18.316800000000001</v>
       </c>
       <c r="BT1">
-        <v>16.849499999999999</v>
+        <v>18.3261</v>
       </c>
       <c r="BU1">
-        <v>16.811399999999999</v>
+        <v>18.3032</v>
       </c>
       <c r="BV1">
-        <v>16.8019</v>
+        <v>18.2758</v>
       </c>
       <c r="BW1">
-        <v>16.807500000000001</v>
+        <v>18.278400000000001</v>
       </c>
       <c r="BX1">
-        <v>16.811900000000001</v>
+        <v>18.279399999999999</v>
       </c>
       <c r="BY1">
-        <v>16.805700000000002</v>
+        <v>18.278700000000001</v>
       </c>
       <c r="BZ1">
-        <v>16.822600000000001</v>
+        <v>18.270499999999998</v>
       </c>
       <c r="CA1">
-        <v>16.829499999999999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>18.293600000000001</v>
+      </c>
+      <c r="CB1">
+        <v>18.311599999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <f t="shared" ref="A2:A19" si="0">AVERAGE(B2:CA2)</f>
-        <v>19.524566666666665</v>
-      </c>
-      <c r="B2">
-        <v>32.622</v>
+        <f t="shared" ref="A2:A19" si="0">AVERAGE(C2:CB2)</f>
+        <v>20.604462820512815</v>
       </c>
       <c r="C2">
-        <v>19.324400000000001</v>
+        <v>33.332500000000003</v>
       </c>
       <c r="D2">
-        <v>27.361000000000001</v>
+        <v>19.5337</v>
       </c>
       <c r="E2">
-        <v>27.567599999999999</v>
+        <v>28.7425</v>
       </c>
       <c r="F2">
-        <v>21.985299999999999</v>
+        <v>28.465199999999999</v>
       </c>
       <c r="G2">
-        <v>22.0306</v>
+        <v>22.293900000000001</v>
       </c>
       <c r="H2">
-        <v>18.950800000000001</v>
+        <v>22.178699999999999</v>
       </c>
       <c r="I2">
-        <v>24.801100000000002</v>
+        <v>19.5838</v>
       </c>
       <c r="J2">
-        <v>22.554500000000001</v>
+        <v>25.450500000000002</v>
       </c>
       <c r="K2">
-        <v>17.631399999999999</v>
+        <v>22.854099999999999</v>
       </c>
       <c r="L2">
-        <v>18.837299999999999</v>
+        <v>18.4068</v>
       </c>
       <c r="M2">
-        <v>20.4224</v>
+        <v>19.610900000000001</v>
       </c>
       <c r="N2">
-        <v>24.025200000000002</v>
+        <v>21.5015</v>
       </c>
       <c r="O2">
-        <v>24.138000000000002</v>
+        <v>24.669499999999999</v>
       </c>
       <c r="P2">
-        <v>22.563700000000001</v>
+        <v>24.446000000000002</v>
       </c>
       <c r="Q2">
-        <v>20.857600000000001</v>
+        <v>22.886099999999999</v>
       </c>
       <c r="R2">
-        <v>19.479600000000001</v>
+        <v>21.291799999999999</v>
       </c>
       <c r="S2">
-        <v>18.1218</v>
+        <v>20.0947</v>
       </c>
       <c r="T2">
-        <v>15.932600000000001</v>
+        <v>18.835799999999999</v>
       </c>
       <c r="U2">
-        <v>16.802099999999999</v>
+        <v>17.380700000000001</v>
       </c>
       <c r="V2">
-        <v>17.9499</v>
+        <v>18.209</v>
       </c>
       <c r="W2">
-        <v>17.962399999999999</v>
+        <v>19.1221</v>
       </c>
       <c r="X2">
-        <v>19.277799999999999</v>
+        <v>19.3264</v>
       </c>
       <c r="Y2">
-        <v>19.098299999999998</v>
+        <v>20.415199999999999</v>
       </c>
       <c r="Z2">
-        <v>20.815999999999999</v>
+        <v>20.501200000000001</v>
       </c>
       <c r="AA2">
-        <v>20.664899999999999</v>
+        <v>21.825199999999999</v>
       </c>
       <c r="AB2">
-        <v>20.513000000000002</v>
+        <v>21.863900000000001</v>
       </c>
       <c r="AC2">
-        <v>22.1004</v>
+        <v>21.830400000000001</v>
       </c>
       <c r="AD2">
-        <v>21.845099999999999</v>
+        <v>22.983799999999999</v>
       </c>
       <c r="AE2">
-        <v>21.581900000000001</v>
+        <v>22.817900000000002</v>
       </c>
       <c r="AF2">
-        <v>22.6343</v>
+        <v>22.644600000000001</v>
       </c>
       <c r="AG2">
-        <v>22.277799999999999</v>
+        <v>23.3263</v>
       </c>
       <c r="AH2">
-        <v>22.0352</v>
+        <v>23.098400000000002</v>
       </c>
       <c r="AI2">
-        <v>21.6418</v>
+        <v>22.933199999999999</v>
       </c>
       <c r="AJ2">
-        <v>22.235600000000002</v>
+        <v>22.555</v>
       </c>
       <c r="AK2">
-        <v>22.095099999999999</v>
+        <v>22.935500000000001</v>
       </c>
       <c r="AL2">
-        <v>21.813199999999998</v>
+        <v>22.756599999999999</v>
       </c>
       <c r="AM2">
-        <v>21.5306</v>
+        <v>22.468599999999999</v>
       </c>
       <c r="AN2">
-        <v>21.290700000000001</v>
+        <v>22.2</v>
       </c>
       <c r="AO2">
-        <v>20.6264</v>
+        <v>22.002199999999998</v>
       </c>
       <c r="AP2">
-        <v>20.602399999999999</v>
+        <v>21.444600000000001</v>
       </c>
       <c r="AQ2">
-        <v>20.5032</v>
+        <v>21.387799999999999</v>
       </c>
       <c r="AR2">
-        <v>20.367699999999999</v>
+        <v>21.3123</v>
       </c>
       <c r="AS2">
-        <v>20.212900000000001</v>
+        <v>21.1845</v>
       </c>
       <c r="AT2">
-        <v>20.0488</v>
+        <v>21.014099999999999</v>
       </c>
       <c r="AU2">
-        <v>19.342500000000001</v>
+        <v>20.8996</v>
       </c>
       <c r="AV2">
-        <v>19.245699999999999</v>
+        <v>20.386399999999998</v>
       </c>
       <c r="AW2">
-        <v>19.1999</v>
+        <v>20.2896</v>
       </c>
       <c r="AX2">
-        <v>19.159800000000001</v>
+        <v>20.285499999999999</v>
       </c>
       <c r="AY2">
-        <v>19.147500000000001</v>
+        <v>20.209700000000002</v>
       </c>
       <c r="AZ2">
-        <v>19.016400000000001</v>
+        <v>20.180599999999998</v>
       </c>
       <c r="BA2">
-        <v>18.9527</v>
+        <v>20.071400000000001</v>
       </c>
       <c r="BB2">
-        <v>18.860199999999999</v>
+        <v>19.9938</v>
       </c>
       <c r="BC2">
-        <v>18.782599999999999</v>
+        <v>19.889199999999999</v>
       </c>
       <c r="BD2">
-        <v>17.898599999999998</v>
+        <v>19.819600000000001</v>
       </c>
       <c r="BE2">
-        <v>17.852399999999999</v>
+        <v>19.234999999999999</v>
       </c>
       <c r="BF2">
-        <v>17.824400000000001</v>
+        <v>19.170999999999999</v>
       </c>
       <c r="BG2">
-        <v>17.805199999999999</v>
+        <v>19.145700000000001</v>
       </c>
       <c r="BH2">
-        <v>15.698499999999999</v>
+        <v>19.1234</v>
       </c>
       <c r="BI2">
-        <v>15.6706</v>
+        <v>17.4011</v>
       </c>
       <c r="BJ2">
-        <v>15.6976</v>
+        <v>17.3996</v>
       </c>
       <c r="BK2">
-        <v>15.692</v>
+        <v>17.415099999999999</v>
       </c>
       <c r="BL2">
-        <v>15.688599999999999</v>
+        <v>17.407</v>
       </c>
       <c r="BM2">
-        <v>15.6843</v>
+        <v>17.462800000000001</v>
       </c>
       <c r="BN2">
-        <v>15.6736</v>
+        <v>17.467500000000001</v>
       </c>
       <c r="BO2">
-        <v>15.6668</v>
+        <v>17.411300000000001</v>
       </c>
       <c r="BP2">
-        <v>15.6867</v>
+        <v>17.3917</v>
       </c>
       <c r="BQ2">
-        <v>15.662100000000001</v>
+        <v>17.4072</v>
       </c>
       <c r="BR2">
-        <v>16.534800000000001</v>
+        <v>17.3888</v>
       </c>
       <c r="BS2">
-        <v>16.554099999999998</v>
+        <v>18.074300000000001</v>
       </c>
       <c r="BT2">
-        <v>16.549800000000001</v>
+        <v>18.084599999999998</v>
       </c>
       <c r="BU2">
-        <v>16.514800000000001</v>
+        <v>18.0655</v>
       </c>
       <c r="BV2">
-        <v>16.507100000000001</v>
+        <v>18.038599999999999</v>
       </c>
       <c r="BW2">
-        <v>16.509499999999999</v>
+        <v>18.037299999999998</v>
       </c>
       <c r="BX2">
-        <v>16.515899999999998</v>
+        <v>18.044599999999999</v>
       </c>
       <c r="BY2">
-        <v>16.514099999999999</v>
+        <v>18.0458</v>
       </c>
       <c r="BZ2">
-        <v>16.533799999999999</v>
+        <v>18.042100000000001</v>
       </c>
       <c r="CA2">
-        <v>16.539200000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>18.0656</v>
+      </c>
+      <c r="CB2">
+        <v>18.079599999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f t="shared" si="0"/>
-        <v>21.162324358974363</v>
-      </c>
-      <c r="B3">
-        <v>26.475100000000001</v>
+        <v>22.05299358974359</v>
       </c>
       <c r="C3">
-        <v>31.391500000000001</v>
+        <v>26.341799999999999</v>
       </c>
       <c r="D3">
-        <v>27.361000000000001</v>
+        <v>32.733499999999999</v>
       </c>
       <c r="E3">
-        <v>24.632000000000001</v>
+        <v>28.7425</v>
       </c>
       <c r="F3">
-        <v>22.732199999999999</v>
+        <v>24.183499999999999</v>
       </c>
       <c r="G3">
-        <v>26.5457</v>
+        <v>23.373999999999999</v>
       </c>
       <c r="H3">
-        <v>18.950800000000001</v>
+        <v>27.252800000000001</v>
       </c>
       <c r="I3">
-        <v>24.801100000000002</v>
+        <v>19.5838</v>
       </c>
       <c r="J3">
-        <v>22.554500000000001</v>
+        <v>25.450500000000002</v>
       </c>
       <c r="K3">
-        <v>20.0456</v>
+        <v>22.854099999999999</v>
       </c>
       <c r="L3">
-        <v>23.2377</v>
+        <v>20.683900000000001</v>
       </c>
       <c r="M3">
-        <v>23.943899999999999</v>
+        <v>23.889700000000001</v>
       </c>
       <c r="N3">
-        <v>21.710799999999999</v>
+        <v>24.518799999999999</v>
       </c>
       <c r="O3">
-        <v>20.086500000000001</v>
+        <v>22.294599999999999</v>
       </c>
       <c r="P3">
-        <v>18.687200000000001</v>
+        <v>20.5091</v>
       </c>
       <c r="Q3">
-        <v>19.779399999999999</v>
+        <v>19.757100000000001</v>
       </c>
       <c r="R3">
-        <v>20.933700000000002</v>
+        <v>20.9206</v>
       </c>
       <c r="S3">
-        <v>23.543500000000002</v>
+        <v>22.102799999999998</v>
       </c>
       <c r="T3">
-        <v>22.927</v>
+        <v>24.036100000000001</v>
       </c>
       <c r="U3">
-        <v>23.036300000000001</v>
+        <v>23.706299999999999</v>
       </c>
       <c r="V3">
-        <v>22.659800000000001</v>
+        <v>23.543199999999999</v>
       </c>
       <c r="W3">
-        <v>21.945900000000002</v>
+        <v>23.1067</v>
       </c>
       <c r="X3">
-        <v>20.687799999999999</v>
+        <v>22.433</v>
       </c>
       <c r="Y3">
-        <v>20.363199999999999</v>
+        <v>21.3447</v>
       </c>
       <c r="Z3">
-        <v>17.3992</v>
+        <v>20.982900000000001</v>
       </c>
       <c r="AA3">
-        <v>17.382300000000001</v>
+        <v>18.674099999999999</v>
       </c>
       <c r="AB3">
-        <v>17.388400000000001</v>
+        <v>18.7484</v>
       </c>
       <c r="AC3">
-        <v>18.331700000000001</v>
+        <v>18.8291</v>
       </c>
       <c r="AD3">
-        <v>18.3812</v>
+        <v>19.563600000000001</v>
       </c>
       <c r="AE3">
-        <v>18.355599999999999</v>
+        <v>19.678799999999999</v>
       </c>
       <c r="AF3">
-        <v>19.0245</v>
+        <v>19.7789</v>
       </c>
       <c r="AG3">
-        <v>18.932300000000001</v>
+        <v>20.3399</v>
       </c>
       <c r="AH3">
-        <v>18.976400000000002</v>
+        <v>20.360299999999999</v>
       </c>
       <c r="AI3">
-        <v>18.889800000000001</v>
+        <v>20.569500000000001</v>
       </c>
       <c r="AJ3">
-        <v>21.43</v>
+        <v>20.5092</v>
       </c>
       <c r="AK3">
-        <v>21.379300000000001</v>
+        <v>22.456399999999999</v>
       </c>
       <c r="AL3">
-        <v>21.123100000000001</v>
+        <v>22.469200000000001</v>
       </c>
       <c r="AM3">
-        <v>20.9468</v>
+        <v>22.299600000000002</v>
       </c>
       <c r="AN3">
-        <v>20.823499999999999</v>
+        <v>22.2286</v>
       </c>
       <c r="AO3">
-        <v>22.707999999999998</v>
+        <v>22.126999999999999</v>
       </c>
       <c r="AP3">
-        <v>22.532800000000002</v>
+        <v>23.400300000000001</v>
       </c>
       <c r="AQ3">
-        <v>22.438500000000001</v>
+        <v>23.2105</v>
       </c>
       <c r="AR3">
-        <v>22.3005</v>
+        <v>23.125800000000002</v>
       </c>
       <c r="AS3">
-        <v>22.106300000000001</v>
+        <v>22.997900000000001</v>
       </c>
       <c r="AT3">
-        <v>21.931100000000001</v>
+        <v>22.868500000000001</v>
       </c>
       <c r="AU3">
-        <v>22.363399999999999</v>
+        <v>22.7468</v>
       </c>
       <c r="AV3">
-        <v>22.279299999999999</v>
+        <v>22.9802</v>
       </c>
       <c r="AW3">
-        <v>22.097799999999999</v>
+        <v>22.907</v>
       </c>
       <c r="AX3">
-        <v>21.886099999999999</v>
+        <v>22.787800000000001</v>
       </c>
       <c r="AY3">
-        <v>21.731100000000001</v>
+        <v>22.6313</v>
       </c>
       <c r="AZ3">
-        <v>21.558900000000001</v>
+        <v>22.494800000000001</v>
       </c>
       <c r="BA3">
-        <v>21.465</v>
+        <v>22.358799999999999</v>
       </c>
       <c r="BB3">
-        <v>21.339099999999998</v>
+        <v>22.2972</v>
       </c>
       <c r="BC3">
-        <v>21.244599999999998</v>
+        <v>22.173100000000002</v>
       </c>
       <c r="BD3">
-        <v>21.203600000000002</v>
+        <v>22.073399999999999</v>
       </c>
       <c r="BE3">
-        <v>21.052700000000002</v>
+        <v>22.0168</v>
       </c>
       <c r="BF3">
-        <v>20.9</v>
+        <v>21.892800000000001</v>
       </c>
       <c r="BG3">
-        <v>20.846800000000002</v>
+        <v>21.771799999999999</v>
       </c>
       <c r="BH3">
-        <v>20.757000000000001</v>
+        <v>21.715</v>
       </c>
       <c r="BI3">
-        <v>20.590900000000001</v>
+        <v>21.614899999999999</v>
       </c>
       <c r="BJ3">
-        <v>20.519200000000001</v>
+        <v>21.484200000000001</v>
       </c>
       <c r="BK3">
-        <v>20.454999999999998</v>
+        <v>21.4008</v>
       </c>
       <c r="BL3">
-        <v>20.3931</v>
+        <v>21.375399999999999</v>
       </c>
       <c r="BM3">
-        <v>20.267499999999998</v>
+        <v>21.3429</v>
       </c>
       <c r="BN3">
-        <v>20.138300000000001</v>
+        <v>21.2502</v>
       </c>
       <c r="BO3">
-        <v>20.009599999999999</v>
+        <v>21.1083</v>
       </c>
       <c r="BP3">
-        <v>19.971599999999999</v>
+        <v>20.9832</v>
       </c>
       <c r="BQ3">
-        <v>19.856300000000001</v>
+        <v>20.942699999999999</v>
       </c>
       <c r="BR3">
-        <v>19.692900000000002</v>
+        <v>20.8752</v>
       </c>
       <c r="BS3">
-        <v>19.657</v>
+        <v>20.694299999999998</v>
       </c>
       <c r="BT3">
-        <v>19.646599999999999</v>
+        <v>20.6858</v>
       </c>
       <c r="BU3">
-        <v>19.6328</v>
+        <v>20.665700000000001</v>
       </c>
       <c r="BV3">
-        <v>19.630199999999999</v>
+        <v>20.657499999999999</v>
       </c>
       <c r="BW3">
-        <v>19.5974</v>
+        <v>20.666699999999999</v>
       </c>
       <c r="BX3">
-        <v>19.587499999999999</v>
+        <v>20.638000000000002</v>
       </c>
       <c r="BY3">
-        <v>19.5214</v>
+        <v>20.646100000000001</v>
       </c>
       <c r="BZ3">
-        <v>19.486699999999999</v>
+        <v>20.584</v>
       </c>
       <c r="CA3">
-        <v>19.468399999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>20.554500000000001</v>
+      </c>
+      <c r="CB3">
+        <v>20.534700000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>21.356592307692306</v>
-      </c>
-      <c r="B4">
-        <v>24.989899999999999</v>
+        <v>22.2686358974359</v>
       </c>
       <c r="C4">
-        <v>23.694900000000001</v>
+        <v>25.367100000000001</v>
       </c>
       <c r="D4">
-        <v>27.361000000000001</v>
+        <v>23.617999999999999</v>
       </c>
       <c r="E4">
-        <v>22.342700000000001</v>
+        <v>28.7425</v>
       </c>
       <c r="F4">
-        <v>25.9788</v>
+        <v>23.064699999999998</v>
       </c>
       <c r="G4">
-        <v>22.706399999999999</v>
+        <v>26.342600000000001</v>
       </c>
       <c r="H4">
-        <v>22.871700000000001</v>
+        <v>23.5045</v>
       </c>
       <c r="I4">
-        <v>24.801100000000002</v>
+        <v>22.7927</v>
       </c>
       <c r="J4">
-        <v>22.554500000000001</v>
+        <v>25.450500000000002</v>
       </c>
       <c r="K4">
-        <v>22.5654</v>
+        <v>22.854099999999999</v>
       </c>
       <c r="L4">
-        <v>24.555399999999999</v>
+        <v>23.2133</v>
       </c>
       <c r="M4">
-        <v>22.541899999999998</v>
+        <v>24.970099999999999</v>
       </c>
       <c r="N4">
-        <v>20.141100000000002</v>
+        <v>22.646899999999999</v>
       </c>
       <c r="O4">
-        <v>22.1312</v>
+        <v>20.982399999999998</v>
       </c>
       <c r="P4">
-        <v>23.1235</v>
+        <v>22.9754</v>
       </c>
       <c r="Q4">
-        <v>23.557099999999998</v>
+        <v>24.088200000000001</v>
       </c>
       <c r="R4">
-        <v>22.117999999999999</v>
+        <v>24.0015</v>
       </c>
       <c r="S4">
-        <v>20.984999999999999</v>
+        <v>22.661100000000001</v>
       </c>
       <c r="T4">
-        <v>17.951599999999999</v>
+        <v>21.594100000000001</v>
       </c>
       <c r="U4">
-        <v>19.082000000000001</v>
+        <v>19.3508</v>
       </c>
       <c r="V4">
-        <v>21.603100000000001</v>
+        <v>20.516999999999999</v>
       </c>
       <c r="W4">
-        <v>21.3886</v>
+        <v>22.372499999999999</v>
       </c>
       <c r="X4">
-        <v>22.457599999999999</v>
+        <v>22.477900000000002</v>
       </c>
       <c r="Y4">
-        <v>21.8428</v>
+        <v>23.302499999999998</v>
       </c>
       <c r="Z4">
-        <v>23.171500000000002</v>
+        <v>23.004000000000001</v>
       </c>
       <c r="AA4">
-        <v>22.6938</v>
+        <v>23.7776</v>
       </c>
       <c r="AB4">
-        <v>22.113700000000001</v>
+        <v>23.4267</v>
       </c>
       <c r="AC4">
-        <v>22.037099999999999</v>
+        <v>22.865200000000002</v>
       </c>
       <c r="AD4">
-        <v>21.684799999999999</v>
+        <v>22.627400000000002</v>
       </c>
       <c r="AE4">
-        <v>21.264500000000002</v>
+        <v>22.270800000000001</v>
       </c>
       <c r="AF4">
-        <v>21.004999999999999</v>
+        <v>21.887499999999999</v>
       </c>
       <c r="AG4">
-        <v>17.578299999999999</v>
+        <v>21.685099999999998</v>
       </c>
       <c r="AH4">
-        <v>17.6632</v>
+        <v>18.939800000000002</v>
       </c>
       <c r="AI4">
-        <v>17.6386</v>
+        <v>19.0989</v>
       </c>
       <c r="AJ4">
-        <v>18.413799999999998</v>
+        <v>19.1374</v>
       </c>
       <c r="AK4">
-        <v>18.422899999999998</v>
+        <v>19.789100000000001</v>
       </c>
       <c r="AL4">
-        <v>18.278700000000001</v>
+        <v>19.896000000000001</v>
       </c>
       <c r="AM4">
-        <v>18.253</v>
+        <v>19.837499999999999</v>
       </c>
       <c r="AN4">
-        <v>18.2026</v>
+        <v>19.875900000000001</v>
       </c>
       <c r="AO4">
-        <v>20.2883</v>
+        <v>19.871200000000002</v>
       </c>
       <c r="AP4">
-        <v>20.160599999999999</v>
+        <v>21.535</v>
       </c>
       <c r="AQ4">
-        <v>20.1388</v>
+        <v>21.442399999999999</v>
       </c>
       <c r="AR4">
-        <v>20.073</v>
+        <v>21.4209</v>
       </c>
       <c r="AS4">
-        <v>19.937799999999999</v>
+        <v>21.381</v>
       </c>
       <c r="AT4">
-        <v>19.898499999999999</v>
+        <v>21.338000000000001</v>
       </c>
       <c r="AU4">
-        <v>22.200299999999999</v>
+        <v>21.3262</v>
       </c>
       <c r="AV4">
-        <v>22.1708</v>
+        <v>22.9085</v>
       </c>
       <c r="AW4">
-        <v>22.049199999999999</v>
+        <v>22.909400000000002</v>
       </c>
       <c r="AX4">
-        <v>21.938500000000001</v>
+        <v>22.846699999999998</v>
       </c>
       <c r="AY4">
-        <v>21.764600000000002</v>
+        <v>22.777799999999999</v>
       </c>
       <c r="AZ4">
-        <v>21.645</v>
+        <v>22.6188</v>
       </c>
       <c r="BA4">
-        <v>21.612500000000001</v>
+        <v>22.543099999999999</v>
       </c>
       <c r="BB4">
-        <v>21.4999</v>
+        <v>22.4998</v>
       </c>
       <c r="BC4">
-        <v>21.422899999999998</v>
+        <v>22.435700000000001</v>
       </c>
       <c r="BD4">
-        <v>22.020900000000001</v>
+        <v>22.364699999999999</v>
       </c>
       <c r="BE4">
-        <v>21.895600000000002</v>
+        <v>22.7424</v>
       </c>
       <c r="BF4">
-        <v>21.7697</v>
+        <v>22.6402</v>
       </c>
       <c r="BG4">
-        <v>21.714099999999998</v>
+        <v>22.5579</v>
       </c>
       <c r="BH4">
-        <v>21.562000000000001</v>
+        <v>22.511700000000001</v>
       </c>
       <c r="BI4">
-        <v>21.3978</v>
+        <v>22.378799999999998</v>
       </c>
       <c r="BJ4">
-        <v>21.352699999999999</v>
+        <v>22.264700000000001</v>
       </c>
       <c r="BK4">
-        <v>21.235199999999999</v>
+        <v>22.231000000000002</v>
       </c>
       <c r="BL4">
-        <v>21.119399999999999</v>
+        <v>22.1357</v>
       </c>
       <c r="BM4">
-        <v>21.0032</v>
+        <v>22.146799999999999</v>
       </c>
       <c r="BN4">
-        <v>20.896599999999999</v>
+        <v>22.054500000000001</v>
       </c>
       <c r="BO4">
-        <v>20.764700000000001</v>
+        <v>21.902699999999999</v>
       </c>
       <c r="BP4">
-        <v>20.7376</v>
+        <v>21.7651</v>
       </c>
       <c r="BQ4">
-        <v>20.640899999999998</v>
+        <v>21.735499999999998</v>
       </c>
       <c r="BR4">
-        <v>21.2117</v>
+        <v>21.6831</v>
       </c>
       <c r="BS4">
-        <v>21.155000000000001</v>
+        <v>22.087399999999999</v>
       </c>
       <c r="BT4">
-        <v>21.101700000000001</v>
+        <v>22.069700000000001</v>
       </c>
       <c r="BU4">
-        <v>20.994299999999999</v>
+        <v>22.0244</v>
       </c>
       <c r="BV4">
-        <v>20.905999999999999</v>
+        <v>21.9526</v>
       </c>
       <c r="BW4">
-        <v>20.8506</v>
+        <v>21.9101</v>
       </c>
       <c r="BX4">
-        <v>20.8185</v>
+        <v>21.872499999999999</v>
       </c>
       <c r="BY4">
-        <v>20.7346</v>
+        <v>21.8521</v>
       </c>
       <c r="BZ4">
-        <v>20.698899999999998</v>
+        <v>21.771100000000001</v>
       </c>
       <c r="CA4">
-        <v>20.664999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>21.738</v>
+      </c>
+      <c r="CB4">
+        <v>21.697099999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>21.681301282051276</v>
-      </c>
-      <c r="B5">
-        <v>32.622</v>
+        <v>22.626719230769229</v>
       </c>
       <c r="C5">
-        <v>31.391500000000001</v>
+        <v>33.332500000000003</v>
       </c>
       <c r="D5">
-        <v>27.361000000000001</v>
+        <v>32.733499999999999</v>
       </c>
       <c r="E5">
-        <v>27.567599999999999</v>
+        <v>28.7425</v>
       </c>
       <c r="F5">
-        <v>22.732199999999999</v>
+        <v>28.465199999999999</v>
       </c>
       <c r="G5">
-        <v>22.0306</v>
+        <v>23.373999999999999</v>
       </c>
       <c r="H5">
-        <v>24.850999999999999</v>
+        <v>22.178699999999999</v>
       </c>
       <c r="I5">
-        <v>24.801100000000002</v>
+        <v>24.843900000000001</v>
       </c>
       <c r="J5">
-        <v>20.194500000000001</v>
+        <v>25.450500000000002</v>
       </c>
       <c r="K5">
-        <v>25.298400000000001</v>
+        <v>21.1282</v>
       </c>
       <c r="L5">
-        <v>23.044899999999998</v>
+        <v>25.570699999999999</v>
       </c>
       <c r="M5">
-        <v>20.4224</v>
+        <v>23.410299999999999</v>
       </c>
       <c r="N5">
-        <v>24.025200000000002</v>
+        <v>21.5015</v>
       </c>
       <c r="O5">
-        <v>24.138000000000002</v>
+        <v>24.669499999999999</v>
       </c>
       <c r="P5">
-        <v>22.563700000000001</v>
+        <v>24.446000000000002</v>
       </c>
       <c r="Q5">
-        <v>19.779399999999999</v>
+        <v>22.886099999999999</v>
       </c>
       <c r="R5">
-        <v>20.933700000000002</v>
+        <v>20.9206</v>
       </c>
       <c r="S5">
-        <v>23.543500000000002</v>
+        <v>22.102799999999998</v>
       </c>
       <c r="T5">
-        <v>22.927</v>
+        <v>24.036100000000001</v>
       </c>
       <c r="U5">
-        <v>23.036300000000001</v>
+        <v>23.706299999999999</v>
       </c>
       <c r="V5">
-        <v>22.659800000000001</v>
+        <v>23.543199999999999</v>
       </c>
       <c r="W5">
-        <v>21.945900000000002</v>
+        <v>23.1067</v>
       </c>
       <c r="X5">
-        <v>19.277799999999999</v>
+        <v>22.433</v>
       </c>
       <c r="Y5">
-        <v>19.098299999999998</v>
+        <v>20.415199999999999</v>
       </c>
       <c r="Z5">
-        <v>20.815999999999999</v>
+        <v>20.501200000000001</v>
       </c>
       <c r="AA5">
-        <v>20.664899999999999</v>
+        <v>21.825199999999999</v>
       </c>
       <c r="AB5">
-        <v>20.513000000000002</v>
+        <v>21.863900000000001</v>
       </c>
       <c r="AC5">
-        <v>22.1004</v>
+        <v>21.830400000000001</v>
       </c>
       <c r="AD5">
-        <v>21.845099999999999</v>
+        <v>22.983799999999999</v>
       </c>
       <c r="AE5">
-        <v>21.581900000000001</v>
+        <v>22.817900000000002</v>
       </c>
       <c r="AF5">
-        <v>22.6343</v>
+        <v>22.644600000000001</v>
       </c>
       <c r="AG5">
-        <v>22.277799999999999</v>
+        <v>23.3263</v>
       </c>
       <c r="AH5">
-        <v>22.0352</v>
+        <v>23.098400000000002</v>
       </c>
       <c r="AI5">
-        <v>21.6418</v>
+        <v>22.933199999999999</v>
       </c>
       <c r="AJ5">
-        <v>22.235600000000002</v>
+        <v>22.555</v>
       </c>
       <c r="AK5">
-        <v>22.095099999999999</v>
+        <v>22.935500000000001</v>
       </c>
       <c r="AL5">
-        <v>21.813199999999998</v>
+        <v>22.756599999999999</v>
       </c>
       <c r="AM5">
-        <v>21.5306</v>
+        <v>22.468599999999999</v>
       </c>
       <c r="AN5">
-        <v>17.3735</v>
+        <v>22.2</v>
       </c>
       <c r="AO5">
-        <v>18.373100000000001</v>
+        <v>18.945499999999999</v>
       </c>
       <c r="AP5">
-        <v>18.2849</v>
+        <v>19.7727</v>
       </c>
       <c r="AQ5">
-        <v>18.2959</v>
+        <v>19.7303</v>
       </c>
       <c r="AR5">
-        <v>18.2911</v>
+        <v>19.7575</v>
       </c>
       <c r="AS5">
-        <v>18.227</v>
+        <v>19.784300000000002</v>
       </c>
       <c r="AT5">
-        <v>18.221599999999999</v>
+        <v>19.8186</v>
       </c>
       <c r="AU5">
-        <v>20.8996</v>
+        <v>19.8399</v>
       </c>
       <c r="AV5">
-        <v>20.9237</v>
+        <v>21.869800000000001</v>
       </c>
       <c r="AW5">
-        <v>20.854399999999998</v>
+        <v>21.910699999999999</v>
       </c>
       <c r="AX5">
-        <v>20.8002</v>
+        <v>21.87</v>
       </c>
       <c r="AY5">
-        <v>20.685700000000001</v>
+        <v>21.866399999999999</v>
       </c>
       <c r="AZ5">
-        <v>20.622599999999998</v>
+        <v>21.765999999999998</v>
       </c>
       <c r="BA5">
-        <v>20.628399999999999</v>
+        <v>21.729900000000001</v>
       </c>
       <c r="BB5">
-        <v>20.5929</v>
+        <v>21.753499999999999</v>
       </c>
       <c r="BC5">
-        <v>20.558599999999998</v>
+        <v>21.745000000000001</v>
       </c>
       <c r="BD5">
-        <v>21.690100000000001</v>
+        <v>21.7058</v>
       </c>
       <c r="BE5">
-        <v>21.574999999999999</v>
+        <v>22.448699999999999</v>
       </c>
       <c r="BF5">
-        <v>21.433299999999999</v>
+        <v>22.369499999999999</v>
       </c>
       <c r="BG5">
-        <v>21.382100000000001</v>
+        <v>22.2943</v>
       </c>
       <c r="BH5">
-        <v>21.262</v>
+        <v>22.263200000000001</v>
       </c>
       <c r="BI5">
-        <v>21.1326</v>
+        <v>22.1845</v>
       </c>
       <c r="BJ5">
-        <v>21.121600000000001</v>
+        <v>22.088799999999999</v>
       </c>
       <c r="BK5">
-        <v>21.0398</v>
+        <v>22.080300000000001</v>
       </c>
       <c r="BL5">
-        <v>20.946000000000002</v>
+        <v>22.020099999999999</v>
       </c>
       <c r="BM5">
-        <v>20.853300000000001</v>
+        <v>22.045000000000002</v>
       </c>
       <c r="BN5">
-        <v>20.7256</v>
+        <v>21.982900000000001</v>
       </c>
       <c r="BO5">
-        <v>20.606200000000001</v>
+        <v>21.855599999999999</v>
       </c>
       <c r="BP5">
-        <v>20.596399999999999</v>
+        <v>21.7332</v>
       </c>
       <c r="BQ5">
-        <v>20.504100000000001</v>
+        <v>21.732700000000001</v>
       </c>
       <c r="BR5">
-        <v>21.559100000000001</v>
+        <v>21.683700000000002</v>
       </c>
       <c r="BS5">
-        <v>21.516500000000001</v>
+        <v>22.408200000000001</v>
       </c>
       <c r="BT5">
-        <v>21.436599999999999</v>
+        <v>22.398</v>
       </c>
       <c r="BU5">
-        <v>21.336200000000002</v>
+        <v>22.342099999999999</v>
       </c>
       <c r="BV5">
-        <v>21.264399999999998</v>
+        <v>22.273599999999998</v>
       </c>
       <c r="BW5">
-        <v>21.2285</v>
+        <v>22.261800000000001</v>
       </c>
       <c r="BX5">
-        <v>21.155100000000001</v>
+        <v>22.248999999999999</v>
       </c>
       <c r="BY5">
-        <v>21.0779</v>
+        <v>22.1798</v>
       </c>
       <c r="BZ5">
-        <v>21.054500000000001</v>
+        <v>22.148099999999999</v>
       </c>
       <c r="CA5">
-        <v>20.980699999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>22.127800000000001</v>
+      </c>
+      <c r="CB5">
+        <v>22.1097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>21.610056410256405</v>
-      </c>
-      <c r="B6">
-        <v>31.547699999999999</v>
+        <v>22.577556410256406</v>
       </c>
       <c r="C6">
-        <v>24.758700000000001</v>
+        <v>31.189599999999999</v>
       </c>
       <c r="D6">
-        <v>27.361000000000001</v>
+        <v>25.185199999999998</v>
       </c>
       <c r="E6">
-        <v>27.063300000000002</v>
+        <v>28.7425</v>
       </c>
       <c r="F6">
-        <v>27.561800000000002</v>
+        <v>27.072900000000001</v>
       </c>
       <c r="G6">
-        <v>25.732700000000001</v>
+        <v>27.944700000000001</v>
       </c>
       <c r="H6">
-        <v>25.760999999999999</v>
+        <v>26.154299999999999</v>
       </c>
       <c r="I6">
-        <v>24.801100000000002</v>
+        <v>26.257999999999999</v>
       </c>
       <c r="J6">
-        <v>21.218399999999999</v>
+        <v>25.450500000000002</v>
       </c>
       <c r="K6">
-        <v>25.116599999999998</v>
+        <v>22.174800000000001</v>
       </c>
       <c r="L6">
-        <v>21.648499999999999</v>
+        <v>25.4373</v>
       </c>
       <c r="M6">
-        <v>22.892499999999998</v>
+        <v>22.274100000000001</v>
       </c>
       <c r="N6">
-        <v>23.4191</v>
+        <v>23.835100000000001</v>
       </c>
       <c r="O6">
-        <v>20.365400000000001</v>
+        <v>23.9681</v>
       </c>
       <c r="P6">
-        <v>21.4313</v>
+        <v>21.315300000000001</v>
       </c>
       <c r="Q6">
-        <v>23.855699999999999</v>
+        <v>22.8047</v>
       </c>
       <c r="R6">
-        <v>23.440899999999999</v>
+        <v>24.479399999999998</v>
       </c>
       <c r="S6">
-        <v>22.265899999999998</v>
+        <v>23.862500000000001</v>
       </c>
       <c r="T6">
-        <v>19.234200000000001</v>
+        <v>22.7728</v>
       </c>
       <c r="U6">
-        <v>20.6785</v>
+        <v>20.628900000000002</v>
       </c>
       <c r="V6">
-        <v>22.7759</v>
+        <v>21.999199999999998</v>
       </c>
       <c r="W6">
-        <v>22.355</v>
+        <v>23.494499999999999</v>
       </c>
       <c r="X6">
-        <v>23.162199999999999</v>
+        <v>23.3355</v>
       </c>
       <c r="Y6">
-        <v>22.621400000000001</v>
+        <v>23.783300000000001</v>
       </c>
       <c r="Z6">
-        <v>22.4802</v>
+        <v>23.337900000000001</v>
       </c>
       <c r="AA6">
-        <v>21.992000000000001</v>
+        <v>23.0503</v>
       </c>
       <c r="AB6">
-        <v>18.536899999999999</v>
+        <v>22.621700000000001</v>
       </c>
       <c r="AC6">
-        <v>19.383800000000001</v>
+        <v>19.952999999999999</v>
       </c>
       <c r="AD6">
-        <v>19.384899999999998</v>
+        <v>20.639099999999999</v>
       </c>
       <c r="AE6">
-        <v>19.284700000000001</v>
+        <v>20.746500000000001</v>
       </c>
       <c r="AF6">
-        <v>21.6936</v>
+        <v>20.814800000000002</v>
       </c>
       <c r="AG6">
-        <v>21.52</v>
+        <v>22.605</v>
       </c>
       <c r="AH6">
-        <v>21.488199999999999</v>
+        <v>22.562100000000001</v>
       </c>
       <c r="AI6">
-        <v>21.2471</v>
+        <v>22.601199999999999</v>
       </c>
       <c r="AJ6">
-        <v>22.7041</v>
+        <v>22.4252</v>
       </c>
       <c r="AK6">
-        <v>22.501200000000001</v>
+        <v>23.433499999999999</v>
       </c>
       <c r="AL6">
-        <v>22.1401</v>
+        <v>23.334599999999998</v>
       </c>
       <c r="AM6">
-        <v>21.893000000000001</v>
+        <v>23.056799999999999</v>
       </c>
       <c r="AN6">
-        <v>21.631599999999999</v>
+        <v>22.891200000000001</v>
       </c>
       <c r="AO6">
-        <v>22.564699999999998</v>
+        <v>22.667200000000001</v>
       </c>
       <c r="AP6">
-        <v>22.242999999999999</v>
+        <v>23.1983</v>
       </c>
       <c r="AQ6">
-        <v>22.1341</v>
+        <v>22.8843</v>
       </c>
       <c r="AR6">
-        <v>21.9282</v>
+        <v>22.7973</v>
       </c>
       <c r="AS6">
-        <v>21.683900000000001</v>
+        <v>22.612500000000001</v>
       </c>
       <c r="AT6">
-        <v>17.647300000000001</v>
+        <v>22.423400000000001</v>
       </c>
       <c r="AU6">
-        <v>19.133099999999999</v>
+        <v>19.221499999999999</v>
       </c>
       <c r="AV6">
-        <v>19.1616</v>
+        <v>20.424099999999999</v>
       </c>
       <c r="AW6">
-        <v>19.110299999999999</v>
+        <v>20.477699999999999</v>
       </c>
       <c r="AX6">
-        <v>19.060700000000001</v>
+        <v>20.448599999999999</v>
       </c>
       <c r="AY6">
-        <v>18.9895</v>
+        <v>20.465900000000001</v>
       </c>
       <c r="AZ6">
-        <v>18.953199999999999</v>
+        <v>20.417000000000002</v>
       </c>
       <c r="BA6">
-        <v>18.976500000000001</v>
+        <v>20.3994</v>
       </c>
       <c r="BB6">
-        <v>18.976600000000001</v>
+        <v>20.492999999999999</v>
       </c>
       <c r="BC6">
-        <v>18.948499999999999</v>
+        <v>20.491499999999998</v>
       </c>
       <c r="BD6">
-        <v>20.901900000000001</v>
+        <v>20.465900000000001</v>
       </c>
       <c r="BE6">
-        <v>20.837800000000001</v>
+        <v>21.873200000000001</v>
       </c>
       <c r="BF6">
-        <v>20.740300000000001</v>
+        <v>21.825399999999998</v>
       </c>
       <c r="BG6">
-        <v>20.723500000000001</v>
+        <v>21.773099999999999</v>
       </c>
       <c r="BH6">
-        <v>20.6309</v>
+        <v>21.768899999999999</v>
       </c>
       <c r="BI6">
-        <v>20.534500000000001</v>
+        <v>21.699400000000001</v>
       </c>
       <c r="BJ6">
-        <v>20.5457</v>
+        <v>21.635200000000001</v>
       </c>
       <c r="BK6">
-        <v>20.469899999999999</v>
+        <v>21.641500000000001</v>
       </c>
       <c r="BL6">
-        <v>20.398599999999998</v>
+        <v>21.582799999999999</v>
       </c>
       <c r="BM6">
-        <v>20.335799999999999</v>
+        <v>21.628599999999999</v>
       </c>
       <c r="BN6">
-        <v>20.235800000000001</v>
+        <v>21.591000000000001</v>
       </c>
       <c r="BO6">
-        <v>20.121099999999998</v>
+        <v>21.479800000000001</v>
       </c>
       <c r="BP6">
-        <v>20.124500000000001</v>
+        <v>21.3629</v>
       </c>
       <c r="BQ6">
-        <v>20.044499999999999</v>
+        <v>21.373100000000001</v>
       </c>
       <c r="BR6">
-        <v>21.278400000000001</v>
+        <v>21.33</v>
       </c>
       <c r="BS6">
-        <v>21.26</v>
+        <v>22.154699999999998</v>
       </c>
       <c r="BT6">
-        <v>21.186499999999999</v>
+        <v>22.154699999999998</v>
       </c>
       <c r="BU6">
-        <v>21.102</v>
+        <v>22.092199999999998</v>
       </c>
       <c r="BV6">
-        <v>21.040099999999999</v>
+        <v>22.035499999999999</v>
       </c>
       <c r="BW6">
-        <v>21.025700000000001</v>
+        <v>22.0366</v>
       </c>
       <c r="BX6">
-        <v>20.965499999999999</v>
+        <v>22.043099999999999</v>
       </c>
       <c r="BY6">
-        <v>20.898299999999999</v>
+        <v>21.978100000000001</v>
       </c>
       <c r="BZ6">
-        <v>20.8886</v>
+        <v>21.9573</v>
       </c>
       <c r="CA6">
-        <v>20.833100000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>21.9572</v>
+      </c>
+      <c r="CB6">
+        <v>21.9514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>21.583179487179482</v>
-      </c>
-      <c r="B7">
-        <v>27.5059</v>
+        <v>22.58837435897436</v>
       </c>
       <c r="C7">
-        <v>31.391500000000001</v>
+        <v>27.7271</v>
       </c>
       <c r="D7">
-        <v>27.361000000000001</v>
+        <v>32.733499999999999</v>
       </c>
       <c r="E7">
-        <v>24.369700000000002</v>
+        <v>28.7425</v>
       </c>
       <c r="F7">
-        <v>24.2897</v>
+        <v>25.193300000000001</v>
       </c>
       <c r="G7">
-        <v>26.5457</v>
+        <v>24.522600000000001</v>
       </c>
       <c r="H7">
-        <v>25.481100000000001</v>
+        <v>27.252800000000001</v>
       </c>
       <c r="I7">
-        <v>24.801100000000002</v>
+        <v>26.415199999999999</v>
       </c>
       <c r="J7">
-        <v>22.242899999999999</v>
+        <v>25.450500000000002</v>
       </c>
       <c r="K7">
-        <v>24.7578</v>
+        <v>23.137499999999999</v>
       </c>
       <c r="L7">
-        <v>23.2377</v>
+        <v>24.933599999999998</v>
       </c>
       <c r="M7">
-        <v>23.943899999999999</v>
+        <v>23.889700000000001</v>
       </c>
       <c r="N7">
-        <v>21.4376</v>
+        <v>24.518799999999999</v>
       </c>
       <c r="O7">
-        <v>23.0947</v>
+        <v>22.211600000000001</v>
       </c>
       <c r="P7">
-        <v>23.369199999999999</v>
+        <v>23.845600000000001</v>
       </c>
       <c r="Q7">
-        <v>19.779399999999999</v>
+        <v>24.0501</v>
       </c>
       <c r="R7">
-        <v>20.933700000000002</v>
+        <v>20.9206</v>
       </c>
       <c r="S7">
-        <v>23.543500000000002</v>
+        <v>22.102799999999998</v>
       </c>
       <c r="T7">
-        <v>22.927</v>
+        <v>24.036100000000001</v>
       </c>
       <c r="U7">
-        <v>23.036300000000001</v>
+        <v>23.706299999999999</v>
       </c>
       <c r="V7">
-        <v>19.883099999999999</v>
+        <v>23.543199999999999</v>
       </c>
       <c r="W7">
-        <v>19.7546</v>
+        <v>20.965399999999999</v>
       </c>
       <c r="X7">
-        <v>21.584399999999999</v>
+        <v>21.112100000000002</v>
       </c>
       <c r="Y7">
-        <v>21.177199999999999</v>
+        <v>22.5626</v>
       </c>
       <c r="Z7">
-        <v>22.640799999999999</v>
+        <v>22.470800000000001</v>
       </c>
       <c r="AA7">
-        <v>22.162199999999999</v>
+        <v>23.360099999999999</v>
       </c>
       <c r="AB7">
-        <v>21.779</v>
+        <v>23.0779</v>
       </c>
       <c r="AC7">
-        <v>22.3523</v>
+        <v>22.733599999999999</v>
       </c>
       <c r="AD7">
-        <v>22.081900000000001</v>
+        <v>23.0456</v>
       </c>
       <c r="AE7">
-        <v>21.654399999999999</v>
+        <v>22.7653</v>
       </c>
       <c r="AF7">
-        <v>19.0245</v>
+        <v>22.375800000000002</v>
       </c>
       <c r="AG7">
-        <v>18.932300000000001</v>
+        <v>20.3399</v>
       </c>
       <c r="AH7">
-        <v>18.976400000000002</v>
+        <v>20.360299999999999</v>
       </c>
       <c r="AI7">
-        <v>18.889800000000001</v>
+        <v>20.569500000000001</v>
       </c>
       <c r="AJ7">
-        <v>21.43</v>
+        <v>20.5092</v>
       </c>
       <c r="AK7">
-        <v>21.379300000000001</v>
+        <v>22.456399999999999</v>
       </c>
       <c r="AL7">
-        <v>21.123100000000001</v>
+        <v>22.469200000000001</v>
       </c>
       <c r="AM7">
-        <v>20.9468</v>
+        <v>22.299600000000002</v>
       </c>
       <c r="AN7">
-        <v>20.823499999999999</v>
+        <v>22.2286</v>
       </c>
       <c r="AO7">
-        <v>22.707999999999998</v>
+        <v>22.126999999999999</v>
       </c>
       <c r="AP7">
-        <v>22.532800000000002</v>
+        <v>23.400300000000001</v>
       </c>
       <c r="AQ7">
-        <v>22.438500000000001</v>
+        <v>23.2105</v>
       </c>
       <c r="AR7">
-        <v>22.3005</v>
+        <v>23.125800000000002</v>
       </c>
       <c r="AS7">
-        <v>22.106300000000001</v>
+        <v>22.997900000000001</v>
       </c>
       <c r="AT7">
-        <v>21.931100000000001</v>
+        <v>22.868500000000001</v>
       </c>
       <c r="AU7">
-        <v>22.363399999999999</v>
+        <v>22.7468</v>
       </c>
       <c r="AV7">
-        <v>22.279299999999999</v>
+        <v>22.9802</v>
       </c>
       <c r="AW7">
-        <v>22.097799999999999</v>
+        <v>22.907</v>
       </c>
       <c r="AX7">
-        <v>21.886099999999999</v>
+        <v>22.787800000000001</v>
       </c>
       <c r="AY7">
-        <v>21.731100000000001</v>
+        <v>22.6313</v>
       </c>
       <c r="AZ7">
-        <v>21.558900000000001</v>
+        <v>22.494800000000001</v>
       </c>
       <c r="BA7">
-        <v>18.5197</v>
+        <v>22.358799999999999</v>
       </c>
       <c r="BB7">
-        <v>18.527200000000001</v>
+        <v>20.022200000000002</v>
       </c>
       <c r="BC7">
-        <v>18.510100000000001</v>
+        <v>20.036300000000001</v>
       </c>
       <c r="BD7">
-        <v>19.979199999999999</v>
+        <v>20.0198</v>
       </c>
       <c r="BE7">
-        <v>19.925699999999999</v>
+        <v>21.137499999999999</v>
       </c>
       <c r="BF7">
-        <v>19.850899999999999</v>
+        <v>21.1065</v>
       </c>
       <c r="BG7">
-        <v>19.8353</v>
+        <v>21.067</v>
       </c>
       <c r="BH7">
-        <v>19.755199999999999</v>
+        <v>21.064</v>
       </c>
       <c r="BI7">
-        <v>19.674099999999999</v>
+        <v>21.006900000000002</v>
       </c>
       <c r="BJ7">
-        <v>19.693999999999999</v>
+        <v>20.953900000000001</v>
       </c>
       <c r="BK7">
-        <v>19.6358</v>
+        <v>20.9712</v>
       </c>
       <c r="BL7">
-        <v>19.581199999999999</v>
+        <v>20.918299999999999</v>
       </c>
       <c r="BM7">
-        <v>19.530200000000001</v>
+        <v>20.977699999999999</v>
       </c>
       <c r="BN7">
-        <v>19.482600000000001</v>
+        <v>20.953800000000001</v>
       </c>
       <c r="BO7">
-        <v>19.403099999999998</v>
+        <v>20.878799999999998</v>
       </c>
       <c r="BP7">
-        <v>19.414100000000001</v>
+        <v>20.794799999999999</v>
       </c>
       <c r="BQ7">
-        <v>19.335799999999999</v>
+        <v>20.811399999999999</v>
       </c>
       <c r="BR7">
-        <v>20.867000000000001</v>
+        <v>20.7683</v>
       </c>
       <c r="BS7">
-        <v>20.8445</v>
+        <v>21.8203</v>
       </c>
       <c r="BT7">
-        <v>20.787800000000001</v>
+        <v>21.813800000000001</v>
       </c>
       <c r="BU7">
-        <v>20.684899999999999</v>
+        <v>21.776</v>
       </c>
       <c r="BV7">
-        <v>20.6297</v>
+        <v>21.708200000000001</v>
       </c>
       <c r="BW7">
-        <v>20.568899999999999</v>
+        <v>21.715</v>
       </c>
       <c r="BX7">
-        <v>20.519400000000001</v>
+        <v>21.7058</v>
       </c>
       <c r="BY7">
-        <v>20.4649</v>
+        <v>21.650200000000002</v>
       </c>
       <c r="BZ7">
-        <v>20.4664</v>
+        <v>21.639700000000001</v>
       </c>
       <c r="CA7">
-        <v>20.421500000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>21.648700000000002</v>
+      </c>
+      <c r="CB7">
+        <v>21.655100000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>21.685924358974351</v>
-      </c>
-      <c r="B8">
-        <v>32.622</v>
+        <v>22.715671794871803</v>
       </c>
       <c r="C8">
-        <v>25.9236</v>
+        <v>33.332500000000003</v>
       </c>
       <c r="D8">
-        <v>27.361000000000001</v>
+        <v>26.616099999999999</v>
       </c>
       <c r="E8">
-        <v>27.567599999999999</v>
+        <v>28.7425</v>
       </c>
       <c r="F8">
-        <v>27.021000000000001</v>
+        <v>28.465199999999999</v>
       </c>
       <c r="G8">
-        <v>24.571999999999999</v>
+        <v>27.621700000000001</v>
       </c>
       <c r="H8">
-        <v>25.5733</v>
+        <v>25.478100000000001</v>
       </c>
       <c r="I8">
-        <v>24.801100000000002</v>
+        <v>26.450099999999999</v>
       </c>
       <c r="J8">
-        <v>23.456600000000002</v>
+        <v>25.450500000000002</v>
       </c>
       <c r="K8">
-        <v>23.356100000000001</v>
+        <v>24.2408</v>
       </c>
       <c r="L8">
-        <v>24.5411</v>
+        <v>23.860900000000001</v>
       </c>
       <c r="M8">
-        <v>20.4224</v>
+        <v>25.104500000000002</v>
       </c>
       <c r="N8">
-        <v>24.025200000000002</v>
+        <v>21.5015</v>
       </c>
       <c r="O8">
-        <v>24.138000000000002</v>
+        <v>24.669499999999999</v>
       </c>
       <c r="P8">
-        <v>21.2879</v>
+        <v>24.446000000000002</v>
       </c>
       <c r="Q8">
-        <v>22.6816</v>
+        <v>22.463999999999999</v>
       </c>
       <c r="R8">
-        <v>23.428799999999999</v>
+        <v>23.688300000000002</v>
       </c>
       <c r="S8">
-        <v>22.689800000000002</v>
+        <v>23.9986</v>
       </c>
       <c r="T8">
-        <v>20.271000000000001</v>
+        <v>23.177199999999999</v>
       </c>
       <c r="U8">
-        <v>21.726299999999998</v>
+        <v>21.582799999999999</v>
       </c>
       <c r="V8">
-        <v>23.4315</v>
+        <v>22.9114</v>
       </c>
       <c r="W8">
-        <v>22.921800000000001</v>
+        <v>23.946200000000001</v>
       </c>
       <c r="X8">
-        <v>22.860700000000001</v>
+        <v>23.603999999999999</v>
       </c>
       <c r="Y8">
-        <v>19.098299999999998</v>
+        <v>23.410599999999999</v>
       </c>
       <c r="Z8">
-        <v>20.815999999999999</v>
+        <v>20.501200000000001</v>
       </c>
       <c r="AA8">
-        <v>20.664899999999999</v>
+        <v>21.825199999999999</v>
       </c>
       <c r="AB8">
-        <v>20.513000000000002</v>
+        <v>21.863900000000001</v>
       </c>
       <c r="AC8">
-        <v>22.1004</v>
+        <v>21.830400000000001</v>
       </c>
       <c r="AD8">
-        <v>21.845099999999999</v>
+        <v>22.983799999999999</v>
       </c>
       <c r="AE8">
-        <v>21.581900000000001</v>
+        <v>22.817900000000002</v>
       </c>
       <c r="AF8">
-        <v>22.6343</v>
+        <v>22.644600000000001</v>
       </c>
       <c r="AG8">
-        <v>22.277799999999999</v>
+        <v>23.3263</v>
       </c>
       <c r="AH8">
-        <v>22.0352</v>
+        <v>23.098400000000002</v>
       </c>
       <c r="AI8">
-        <v>21.6418</v>
+        <v>22.933199999999999</v>
       </c>
       <c r="AJ8">
-        <v>19.730699999999999</v>
+        <v>22.555</v>
       </c>
       <c r="AK8">
-        <v>19.697900000000001</v>
+        <v>21.035799999999998</v>
       </c>
       <c r="AL8">
-        <v>19.5121</v>
+        <v>21.085100000000001</v>
       </c>
       <c r="AM8">
-        <v>19.444900000000001</v>
+        <v>20.993500000000001</v>
       </c>
       <c r="AN8">
-        <v>19.370799999999999</v>
+        <v>21.023299999999999</v>
       </c>
       <c r="AO8">
-        <v>21.929600000000001</v>
+        <v>20.9801</v>
       </c>
       <c r="AP8">
-        <v>21.812999999999999</v>
+        <v>22.764399999999998</v>
       </c>
       <c r="AQ8">
-        <v>21.751000000000001</v>
+        <v>22.657699999999998</v>
       </c>
       <c r="AR8">
-        <v>21.6648</v>
+        <v>22.606400000000001</v>
       </c>
       <c r="AS8">
-        <v>21.474299999999999</v>
+        <v>22.528099999999998</v>
       </c>
       <c r="AT8">
-        <v>21.380099999999999</v>
+        <v>22.441299999999998</v>
       </c>
       <c r="AU8">
-        <v>22.476199999999999</v>
+        <v>22.3811</v>
       </c>
       <c r="AV8">
-        <v>22.380800000000001</v>
+        <v>23.113299999999999</v>
       </c>
       <c r="AW8">
-        <v>22.211400000000001</v>
+        <v>23.0625</v>
       </c>
       <c r="AX8">
-        <v>22.047899999999998</v>
+        <v>22.9558</v>
       </c>
       <c r="AY8">
-        <v>21.8796</v>
+        <v>22.839600000000001</v>
       </c>
       <c r="AZ8">
-        <v>21.727699999999999</v>
+        <v>22.682700000000001</v>
       </c>
       <c r="BA8">
-        <v>21.658899999999999</v>
+        <v>22.5684</v>
       </c>
       <c r="BB8">
-        <v>21.555800000000001</v>
+        <v>22.511099999999999</v>
       </c>
       <c r="BC8">
-        <v>21.448699999999999</v>
+        <v>22.424900000000001</v>
       </c>
       <c r="BD8">
-        <v>21.851600000000001</v>
+        <v>22.328800000000001</v>
       </c>
       <c r="BE8">
-        <v>21.702400000000001</v>
+        <v>22.571100000000001</v>
       </c>
       <c r="BF8">
-        <v>21.557500000000001</v>
+        <v>22.445699999999999</v>
       </c>
       <c r="BG8">
-        <v>21.4817</v>
+        <v>22.3432</v>
       </c>
       <c r="BH8">
-        <v>18.801400000000001</v>
+        <v>22.279699999999998</v>
       </c>
       <c r="BI8">
-        <v>18.727699999999999</v>
+        <v>20.237100000000002</v>
       </c>
       <c r="BJ8">
-        <v>18.750699999999998</v>
+        <v>20.192799999999998</v>
       </c>
       <c r="BK8">
-        <v>18.716100000000001</v>
+        <v>20.2287</v>
       </c>
       <c r="BL8">
-        <v>18.672499999999999</v>
+        <v>20.1922</v>
       </c>
       <c r="BM8">
-        <v>18.6389</v>
+        <v>20.2837</v>
       </c>
       <c r="BN8">
-        <v>18.5989</v>
+        <v>20.269200000000001</v>
       </c>
       <c r="BO8">
-        <v>18.538</v>
+        <v>20.196300000000001</v>
       </c>
       <c r="BP8">
-        <v>18.551300000000001</v>
+        <v>20.130600000000001</v>
       </c>
       <c r="BQ8">
-        <v>18.4772</v>
+        <v>20.148800000000001</v>
       </c>
       <c r="BR8">
-        <v>20.318899999999999</v>
+        <v>20.1083</v>
       </c>
       <c r="BS8">
-        <v>20.3065</v>
+        <v>21.479199999999999</v>
       </c>
       <c r="BT8">
-        <v>20.264600000000002</v>
+        <v>21.477900000000002</v>
       </c>
       <c r="BU8">
-        <v>20.170100000000001</v>
+        <v>21.450099999999999</v>
       </c>
       <c r="BV8">
-        <v>20.131399999999999</v>
+        <v>21.389900000000001</v>
       </c>
       <c r="BW8">
-        <v>20.107600000000001</v>
+        <v>21.408000000000001</v>
       </c>
       <c r="BX8">
-        <v>20.063700000000001</v>
+        <v>21.4072</v>
       </c>
       <c r="BY8">
-        <v>20.0169</v>
+        <v>21.360099999999999</v>
       </c>
       <c r="BZ8">
-        <v>20.0244</v>
+        <v>21.351199999999999</v>
       </c>
       <c r="CA8">
-        <v>19.986799999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>21.366399999999999</v>
+      </c>
+      <c r="CB8">
+        <v>21.3782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>21.886028205128202</v>
-      </c>
-      <c r="B9">
-        <v>33.761499999999998</v>
+        <v>22.869305128205134</v>
       </c>
       <c r="C9">
-        <v>31.391500000000001</v>
+        <v>33.916200000000003</v>
       </c>
       <c r="D9">
-        <v>27.361000000000001</v>
+        <v>32.733499999999999</v>
       </c>
       <c r="E9">
-        <v>27.507999999999999</v>
+        <v>28.7425</v>
       </c>
       <c r="F9">
-        <v>25.968</v>
+        <v>27.881599999999999</v>
       </c>
       <c r="G9">
-        <v>25.563300000000002</v>
+        <v>26.325800000000001</v>
       </c>
       <c r="H9">
-        <v>24.803699999999999</v>
+        <v>25.7578</v>
       </c>
       <c r="I9">
-        <v>24.801100000000002</v>
+        <v>25.7987</v>
       </c>
       <c r="J9">
-        <v>24.220099999999999</v>
+        <v>25.450500000000002</v>
       </c>
       <c r="K9">
-        <v>22.5654</v>
+        <v>24.969100000000001</v>
       </c>
       <c r="L9">
-        <v>24.555399999999999</v>
+        <v>23.2133</v>
       </c>
       <c r="M9">
-        <v>22.825800000000001</v>
+        <v>24.970099999999999</v>
       </c>
       <c r="N9">
-        <v>24.122599999999998</v>
+        <v>23.794599999999999</v>
       </c>
       <c r="O9">
-        <v>22.1312</v>
+        <v>24.508400000000002</v>
       </c>
       <c r="P9">
-        <v>23.1235</v>
+        <v>22.9754</v>
       </c>
       <c r="Q9">
-        <v>23.557099999999998</v>
+        <v>24.088200000000001</v>
       </c>
       <c r="R9">
-        <v>20.933700000000002</v>
+        <v>24.0015</v>
       </c>
       <c r="S9">
-        <v>23.543500000000002</v>
+        <v>22.102799999999998</v>
       </c>
       <c r="T9">
-        <v>22.927</v>
+        <v>24.036100000000001</v>
       </c>
       <c r="U9">
-        <v>23.036300000000001</v>
+        <v>23.706299999999999</v>
       </c>
       <c r="V9">
-        <v>21.603100000000001</v>
+        <v>23.543199999999999</v>
       </c>
       <c r="W9">
-        <v>21.3886</v>
+        <v>22.372499999999999</v>
       </c>
       <c r="X9">
-        <v>22.457599999999999</v>
+        <v>22.477900000000002</v>
       </c>
       <c r="Y9">
-        <v>21.8428</v>
+        <v>23.302499999999998</v>
       </c>
       <c r="Z9">
-        <v>23.171500000000002</v>
+        <v>23.004000000000001</v>
       </c>
       <c r="AA9">
-        <v>22.6938</v>
+        <v>23.7776</v>
       </c>
       <c r="AB9">
-        <v>19.0579</v>
+        <v>23.4267</v>
       </c>
       <c r="AC9">
-        <v>20.2425</v>
+        <v>20.456299999999999</v>
       </c>
       <c r="AD9">
-        <v>20.190799999999999</v>
+        <v>21.427299999999999</v>
       </c>
       <c r="AE9">
-        <v>19.9971</v>
+        <v>21.480399999999999</v>
       </c>
       <c r="AF9">
-        <v>22.1312</v>
+        <v>21.474499999999999</v>
       </c>
       <c r="AG9">
-        <v>21.956399999999999</v>
+        <v>22.9573</v>
       </c>
       <c r="AH9">
-        <v>21.859200000000001</v>
+        <v>22.8825</v>
       </c>
       <c r="AI9">
-        <v>21.587</v>
+        <v>22.839400000000001</v>
       </c>
       <c r="AJ9">
-        <v>22.609300000000001</v>
+        <v>22.6051</v>
       </c>
       <c r="AK9">
-        <v>22.394500000000001</v>
+        <v>23.345300000000002</v>
       </c>
       <c r="AL9">
-        <v>22.040700000000001</v>
+        <v>23.202000000000002</v>
       </c>
       <c r="AM9">
-        <v>21.745999999999999</v>
+        <v>22.895299999999999</v>
       </c>
       <c r="AN9">
-        <v>18.2026</v>
+        <v>22.677499999999998</v>
       </c>
       <c r="AO9">
-        <v>20.2883</v>
+        <v>19.871200000000002</v>
       </c>
       <c r="AP9">
-        <v>20.160599999999999</v>
+        <v>21.535</v>
       </c>
       <c r="AQ9">
-        <v>20.1388</v>
+        <v>21.442399999999999</v>
       </c>
       <c r="AR9">
-        <v>20.073</v>
+        <v>21.4209</v>
       </c>
       <c r="AS9">
-        <v>19.937799999999999</v>
+        <v>21.381</v>
       </c>
       <c r="AT9">
-        <v>19.898499999999999</v>
+        <v>21.338000000000001</v>
       </c>
       <c r="AU9">
-        <v>22.200299999999999</v>
+        <v>21.3262</v>
       </c>
       <c r="AV9">
-        <v>22.1708</v>
+        <v>22.9085</v>
       </c>
       <c r="AW9">
-        <v>22.049199999999999</v>
+        <v>22.909400000000002</v>
       </c>
       <c r="AX9">
-        <v>21.938500000000001</v>
+        <v>22.846699999999998</v>
       </c>
       <c r="AY9">
-        <v>21.764600000000002</v>
+        <v>22.777799999999999</v>
       </c>
       <c r="AZ9">
-        <v>21.645</v>
+        <v>22.6188</v>
       </c>
       <c r="BA9">
-        <v>21.612500000000001</v>
+        <v>22.543099999999999</v>
       </c>
       <c r="BB9">
-        <v>21.4999</v>
+        <v>22.4998</v>
       </c>
       <c r="BC9">
-        <v>21.422899999999998</v>
+        <v>22.435700000000001</v>
       </c>
       <c r="BD9">
-        <v>22.020900000000001</v>
+        <v>22.364699999999999</v>
       </c>
       <c r="BE9">
-        <v>21.895600000000002</v>
+        <v>22.7424</v>
       </c>
       <c r="BF9">
-        <v>21.7697</v>
+        <v>22.6402</v>
       </c>
       <c r="BG9">
-        <v>21.714099999999998</v>
+        <v>22.5579</v>
       </c>
       <c r="BH9">
-        <v>21.562000000000001</v>
+        <v>22.511700000000001</v>
       </c>
       <c r="BI9">
-        <v>21.3978</v>
+        <v>22.378799999999998</v>
       </c>
       <c r="BJ9">
-        <v>21.352699999999999</v>
+        <v>22.264700000000001</v>
       </c>
       <c r="BK9">
-        <v>21.235199999999999</v>
+        <v>22.231000000000002</v>
       </c>
       <c r="BL9">
-        <v>21.119399999999999</v>
+        <v>22.1357</v>
       </c>
       <c r="BM9">
-        <v>21.0032</v>
+        <v>22.146799999999999</v>
       </c>
       <c r="BN9">
-        <v>18.0001</v>
+        <v>22.054500000000001</v>
       </c>
       <c r="BO9">
-        <v>17.9453</v>
+        <v>19.622599999999998</v>
       </c>
       <c r="BP9">
-        <v>17.960599999999999</v>
+        <v>19.562999999999999</v>
       </c>
       <c r="BQ9">
-        <v>17.905799999999999</v>
+        <v>19.581099999999999</v>
       </c>
       <c r="BR9">
-        <v>19.911000000000001</v>
+        <v>19.552099999999999</v>
       </c>
       <c r="BS9">
-        <v>19.906500000000001</v>
+        <v>21.109300000000001</v>
       </c>
       <c r="BT9">
-        <v>19.873200000000001</v>
+        <v>21.111000000000001</v>
       </c>
       <c r="BU9">
-        <v>19.777000000000001</v>
+        <v>21.0899</v>
       </c>
       <c r="BV9">
-        <v>19.7376</v>
+        <v>21.0258</v>
       </c>
       <c r="BW9">
-        <v>19.724</v>
+        <v>21.042400000000001</v>
       </c>
       <c r="BX9">
-        <v>19.6873</v>
+        <v>21.045400000000001</v>
       </c>
       <c r="BY9">
-        <v>19.6478</v>
+        <v>21.0044</v>
       </c>
       <c r="BZ9">
-        <v>19.660399999999999</v>
+        <v>20.998799999999999</v>
       </c>
       <c r="CA9">
-        <v>19.63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>21.0182</v>
+      </c>
+      <c r="CB9">
+        <v>21.039200000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>21.907441025641017</v>
-      </c>
-      <c r="B10">
-        <v>29.922999999999998</v>
+        <v>22.866880769230768</v>
       </c>
       <c r="C10">
-        <v>26.725300000000001</v>
+        <v>30.296600000000002</v>
       </c>
       <c r="D10">
-        <v>27.361000000000001</v>
+        <v>27.535599999999999</v>
       </c>
       <c r="E10">
-        <v>24.608799999999999</v>
+        <v>28.7425</v>
       </c>
       <c r="F10">
-        <v>26.8353</v>
+        <v>25.663</v>
       </c>
       <c r="G10">
-        <v>26.422899999999998</v>
+        <v>27.328399999999998</v>
       </c>
       <c r="H10">
-        <v>23.811299999999999</v>
+        <v>27.193100000000001</v>
       </c>
       <c r="I10">
-        <v>24.801100000000002</v>
+        <v>24.9023</v>
       </c>
       <c r="J10">
-        <v>24.238199999999999</v>
+        <v>25.450500000000002</v>
       </c>
       <c r="K10">
-        <v>23.965499999999999</v>
+        <v>25.048500000000001</v>
       </c>
       <c r="L10">
-        <v>22.3584</v>
+        <v>24.460599999999999</v>
       </c>
       <c r="M10">
-        <v>23.739599999999999</v>
+        <v>23.0855</v>
       </c>
       <c r="N10">
-        <v>22.6645</v>
+        <v>24.5016</v>
       </c>
       <c r="O10">
-        <v>23.413499999999999</v>
+        <v>23.332799999999999</v>
       </c>
       <c r="P10">
-        <v>20.864899999999999</v>
+        <v>24.129799999999999</v>
       </c>
       <c r="Q10">
-        <v>22.191500000000001</v>
+        <v>22.002500000000001</v>
       </c>
       <c r="R10">
-        <v>23.536999999999999</v>
+        <v>23.351700000000001</v>
       </c>
       <c r="S10">
-        <v>23.08</v>
+        <v>24.114799999999999</v>
       </c>
       <c r="T10">
-        <v>20.297899999999998</v>
+        <v>23.534600000000001</v>
       </c>
       <c r="U10">
-        <v>22.4207</v>
+        <v>21.652200000000001</v>
       </c>
       <c r="V10">
-        <v>23.399100000000001</v>
+        <v>23.384899999999998</v>
       </c>
       <c r="W10">
-        <v>22.864799999999999</v>
+        <v>23.900300000000001</v>
       </c>
       <c r="X10">
-        <v>21.218699999999998</v>
+        <v>23.527100000000001</v>
       </c>
       <c r="Y10">
-        <v>20.8018</v>
+        <v>22.203199999999999</v>
       </c>
       <c r="Z10">
-        <v>22.6325</v>
+        <v>22.148700000000002</v>
       </c>
       <c r="AA10">
-        <v>22.2331</v>
+        <v>23.328499999999998</v>
       </c>
       <c r="AB10">
-        <v>21.901800000000001</v>
+        <v>23.1328</v>
       </c>
       <c r="AC10">
-        <v>22.421299999999999</v>
+        <v>22.8841</v>
       </c>
       <c r="AD10">
-        <v>22.114999999999998</v>
+        <v>23.204999999999998</v>
       </c>
       <c r="AE10">
-        <v>19.190100000000001</v>
+        <v>22.904800000000002</v>
       </c>
       <c r="AF10">
-        <v>20.650200000000002</v>
+        <v>20.622399999999999</v>
       </c>
       <c r="AG10">
-        <v>20.445499999999999</v>
+        <v>21.784500000000001</v>
       </c>
       <c r="AH10">
-        <v>20.443899999999999</v>
+        <v>21.7272</v>
       </c>
       <c r="AI10">
-        <v>20.253399999999999</v>
+        <v>21.857099999999999</v>
       </c>
       <c r="AJ10">
-        <v>22.539300000000001</v>
+        <v>21.715199999999999</v>
       </c>
       <c r="AK10">
-        <v>22.3446</v>
+        <v>23.306899999999999</v>
       </c>
       <c r="AL10">
-        <v>21.971599999999999</v>
+        <v>23.223099999999999</v>
       </c>
       <c r="AM10">
-        <v>21.752800000000001</v>
+        <v>22.953800000000001</v>
       </c>
       <c r="AN10">
-        <v>21.491900000000001</v>
+        <v>22.811399999999999</v>
       </c>
       <c r="AO10">
-        <v>22.7883</v>
+        <v>22.581600000000002</v>
       </c>
       <c r="AP10">
-        <v>22.4755</v>
+        <v>23.356300000000001</v>
       </c>
       <c r="AQ10">
-        <v>22.383900000000001</v>
+        <v>23.044499999999999</v>
       </c>
       <c r="AR10">
-        <v>19.459</v>
+        <v>22.961099999999998</v>
       </c>
       <c r="AS10">
-        <v>19.3445</v>
+        <v>20.8278</v>
       </c>
       <c r="AT10">
-        <v>19.330300000000001</v>
+        <v>20.809699999999999</v>
       </c>
       <c r="AU10">
-        <v>21.5806</v>
+        <v>20.824400000000001</v>
       </c>
       <c r="AV10">
-        <v>21.580200000000001</v>
+        <v>22.381699999999999</v>
       </c>
       <c r="AW10">
-        <v>21.473099999999999</v>
+        <v>22.4084</v>
       </c>
       <c r="AX10">
-        <v>21.388100000000001</v>
+        <v>22.339400000000001</v>
       </c>
       <c r="AY10">
-        <v>21.2331</v>
+        <v>22.305800000000001</v>
       </c>
       <c r="AZ10">
-        <v>21.1417</v>
+        <v>22.1693</v>
       </c>
       <c r="BA10">
-        <v>21.137799999999999</v>
+        <v>22.114699999999999</v>
       </c>
       <c r="BB10">
-        <v>21.0703</v>
+        <v>22.108699999999999</v>
       </c>
       <c r="BC10">
-        <v>21.0123</v>
+        <v>22.079799999999999</v>
       </c>
       <c r="BD10">
-        <v>22.0534</v>
+        <v>22.028500000000001</v>
       </c>
       <c r="BE10">
-        <v>21.942399999999999</v>
+        <v>22.703299999999999</v>
       </c>
       <c r="BF10">
-        <v>21.797699999999999</v>
+        <v>22.623699999999999</v>
       </c>
       <c r="BG10">
-        <v>21.756</v>
+        <v>22.543800000000001</v>
       </c>
       <c r="BH10">
-        <v>21.6158</v>
+        <v>22.519100000000002</v>
       </c>
       <c r="BI10">
-        <v>21.468599999999999</v>
+        <v>22.409700000000001</v>
       </c>
       <c r="BJ10">
-        <v>21.438099999999999</v>
+        <v>22.309799999999999</v>
       </c>
       <c r="BK10">
-        <v>21.3354</v>
+        <v>22.296299999999999</v>
       </c>
       <c r="BL10">
-        <v>21.213699999999999</v>
+        <v>22.2193</v>
       </c>
       <c r="BM10">
-        <v>21.107900000000001</v>
+        <v>22.251100000000001</v>
       </c>
       <c r="BN10">
-        <v>21.01</v>
+        <v>22.173400000000001</v>
       </c>
       <c r="BO10">
-        <v>20.862300000000001</v>
+        <v>22.034099999999999</v>
       </c>
       <c r="BP10">
-        <v>20.8428</v>
+        <v>21.890699999999999</v>
       </c>
       <c r="BQ10">
-        <v>20.746600000000001</v>
+        <v>21.872499999999999</v>
       </c>
       <c r="BR10">
-        <v>21.4938</v>
+        <v>21.8201</v>
       </c>
       <c r="BS10">
-        <v>21.433700000000002</v>
+        <v>22.3124</v>
       </c>
       <c r="BT10">
-        <v>21.389800000000001</v>
+        <v>22.2941</v>
       </c>
       <c r="BU10">
-        <v>19.2133</v>
+        <v>22.264099999999999</v>
       </c>
       <c r="BV10">
-        <v>19.1785</v>
+        <v>20.538799999999998</v>
       </c>
       <c r="BW10">
-        <v>19.157900000000001</v>
+        <v>20.554300000000001</v>
       </c>
       <c r="BX10">
-        <v>19.126000000000001</v>
+        <v>20.555599999999998</v>
       </c>
       <c r="BY10">
-        <v>19.088000000000001</v>
+        <v>20.518999999999998</v>
       </c>
       <c r="BZ10">
-        <v>19.1037</v>
+        <v>20.517600000000002</v>
       </c>
       <c r="CA10">
-        <v>19.0745</v>
-      </c>
-    </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>20.5397</v>
+      </c>
+      <c r="CB10">
+        <v>20.564900000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>22.250744871794865</v>
-      </c>
-      <c r="B11">
-        <v>32.622</v>
+        <v>23.191111538461534</v>
       </c>
       <c r="C11">
-        <v>31.391500000000001</v>
+        <v>33.332500000000003</v>
       </c>
       <c r="D11">
-        <v>27.361000000000001</v>
+        <v>32.733499999999999</v>
       </c>
       <c r="E11">
-        <v>27.567599999999999</v>
+        <v>28.7425</v>
       </c>
       <c r="F11">
-        <v>27.033899999999999</v>
+        <v>28.465199999999999</v>
       </c>
       <c r="G11">
-        <v>26.5457</v>
+        <v>27.425599999999999</v>
       </c>
       <c r="H11">
-        <v>23.075900000000001</v>
+        <v>27.252800000000001</v>
       </c>
       <c r="I11">
-        <v>24.801100000000002</v>
+        <v>24.238700000000001</v>
       </c>
       <c r="J11">
-        <v>24.504300000000001</v>
+        <v>25.450500000000002</v>
       </c>
       <c r="K11">
-        <v>25.298400000000001</v>
+        <v>25.196000000000002</v>
       </c>
       <c r="L11">
-        <v>23.2377</v>
+        <v>25.570699999999999</v>
       </c>
       <c r="M11">
-        <v>23.943899999999999</v>
+        <v>23.889700000000001</v>
       </c>
       <c r="N11">
-        <v>24.025200000000002</v>
+        <v>24.518799999999999</v>
       </c>
       <c r="O11">
-        <v>24.138000000000002</v>
+        <v>24.669499999999999</v>
       </c>
       <c r="P11">
-        <v>22.705500000000001</v>
+        <v>24.446000000000002</v>
       </c>
       <c r="Q11">
-        <v>23.656500000000001</v>
+        <v>23.829000000000001</v>
       </c>
       <c r="R11">
-        <v>20.933700000000002</v>
+        <v>24.257999999999999</v>
       </c>
       <c r="S11">
-        <v>23.543500000000002</v>
+        <v>22.102799999999998</v>
       </c>
       <c r="T11">
-        <v>22.927</v>
+        <v>24.036100000000001</v>
       </c>
       <c r="U11">
-        <v>19.9543</v>
+        <v>23.706299999999999</v>
       </c>
       <c r="V11">
-        <v>22.580200000000001</v>
+        <v>21.3812</v>
       </c>
       <c r="W11">
-        <v>22.193899999999999</v>
+        <v>23.247699999999998</v>
       </c>
       <c r="X11">
-        <v>23.332899999999999</v>
+        <v>23.181100000000001</v>
       </c>
       <c r="Y11">
-        <v>22.657399999999999</v>
+        <v>23.850100000000001</v>
       </c>
       <c r="Z11">
-        <v>20.815999999999999</v>
+        <v>23.374500000000001</v>
       </c>
       <c r="AA11">
-        <v>20.664899999999999</v>
+        <v>21.825199999999999</v>
       </c>
       <c r="AB11">
-        <v>20.513000000000002</v>
+        <v>21.863900000000001</v>
       </c>
       <c r="AC11">
-        <v>22.1004</v>
+        <v>21.830400000000001</v>
       </c>
       <c r="AD11">
-        <v>21.845099999999999</v>
+        <v>22.983799999999999</v>
       </c>
       <c r="AE11">
-        <v>21.581900000000001</v>
+        <v>22.817900000000002</v>
       </c>
       <c r="AF11">
-        <v>22.6343</v>
+        <v>22.644600000000001</v>
       </c>
       <c r="AG11">
-        <v>22.277799999999999</v>
+        <v>23.3263</v>
       </c>
       <c r="AH11">
-        <v>18.976400000000002</v>
+        <v>23.098400000000002</v>
       </c>
       <c r="AI11">
-        <v>18.889800000000001</v>
+        <v>20.569500000000001</v>
       </c>
       <c r="AJ11">
-        <v>21.43</v>
+        <v>20.5092</v>
       </c>
       <c r="AK11">
-        <v>21.379300000000001</v>
+        <v>22.456399999999999</v>
       </c>
       <c r="AL11">
-        <v>21.123100000000001</v>
+        <v>22.469200000000001</v>
       </c>
       <c r="AM11">
-        <v>20.9468</v>
+        <v>22.299600000000002</v>
       </c>
       <c r="AN11">
-        <v>20.823499999999999</v>
+        <v>22.2286</v>
       </c>
       <c r="AO11">
-        <v>22.707999999999998</v>
+        <v>22.126999999999999</v>
       </c>
       <c r="AP11">
-        <v>22.532800000000002</v>
+        <v>23.400300000000001</v>
       </c>
       <c r="AQ11">
-        <v>22.438500000000001</v>
+        <v>23.2105</v>
       </c>
       <c r="AR11">
-        <v>22.3005</v>
+        <v>23.125800000000002</v>
       </c>
       <c r="AS11">
-        <v>22.106300000000001</v>
+        <v>22.997900000000001</v>
       </c>
       <c r="AT11">
-        <v>21.931100000000001</v>
+        <v>22.868500000000001</v>
       </c>
       <c r="AU11">
-        <v>22.363399999999999</v>
+        <v>22.7468</v>
       </c>
       <c r="AV11">
-        <v>20.9237</v>
+        <v>22.9802</v>
       </c>
       <c r="AW11">
-        <v>20.854399999999998</v>
+        <v>21.910699999999999</v>
       </c>
       <c r="AX11">
-        <v>20.8002</v>
+        <v>21.87</v>
       </c>
       <c r="AY11">
-        <v>20.685700000000001</v>
+        <v>21.866399999999999</v>
       </c>
       <c r="AZ11">
-        <v>20.622599999999998</v>
+        <v>21.765999999999998</v>
       </c>
       <c r="BA11">
-        <v>20.628399999999999</v>
+        <v>21.729900000000001</v>
       </c>
       <c r="BB11">
-        <v>20.5929</v>
+        <v>21.753499999999999</v>
       </c>
       <c r="BC11">
-        <v>20.558599999999998</v>
+        <v>21.745000000000001</v>
       </c>
       <c r="BD11">
-        <v>21.690100000000001</v>
+        <v>21.7058</v>
       </c>
       <c r="BE11">
-        <v>21.574999999999999</v>
+        <v>22.448699999999999</v>
       </c>
       <c r="BF11">
-        <v>21.433299999999999</v>
+        <v>22.369499999999999</v>
       </c>
       <c r="BG11">
-        <v>21.382100000000001</v>
+        <v>22.2943</v>
       </c>
       <c r="BH11">
-        <v>21.262</v>
+        <v>22.263200000000001</v>
       </c>
       <c r="BI11">
-        <v>21.1326</v>
+        <v>22.1845</v>
       </c>
       <c r="BJ11">
-        <v>21.121600000000001</v>
+        <v>22.088799999999999</v>
       </c>
       <c r="BK11">
-        <v>21.0398</v>
+        <v>22.080300000000001</v>
       </c>
       <c r="BL11">
-        <v>20.946000000000002</v>
+        <v>22.020099999999999</v>
       </c>
       <c r="BM11">
-        <v>20.853300000000001</v>
+        <v>22.045000000000002</v>
       </c>
       <c r="BN11">
-        <v>20.7256</v>
+        <v>21.982900000000001</v>
       </c>
       <c r="BO11">
-        <v>20.606200000000001</v>
+        <v>21.855599999999999</v>
       </c>
       <c r="BP11">
-        <v>20.596399999999999</v>
+        <v>21.7332</v>
       </c>
       <c r="BQ11">
-        <v>20.504100000000001</v>
+        <v>21.732700000000001</v>
       </c>
       <c r="BR11">
-        <v>21.559100000000001</v>
+        <v>21.683700000000002</v>
       </c>
       <c r="BS11">
-        <v>21.516500000000001</v>
+        <v>22.408200000000001</v>
       </c>
       <c r="BT11">
-        <v>21.436599999999999</v>
+        <v>22.398</v>
       </c>
       <c r="BU11">
-        <v>21.336200000000002</v>
+        <v>22.342099999999999</v>
       </c>
       <c r="BV11">
-        <v>21.264399999999998</v>
+        <v>22.273599999999998</v>
       </c>
       <c r="BW11">
-        <v>21.2285</v>
+        <v>22.261800000000001</v>
       </c>
       <c r="BX11">
-        <v>21.155100000000001</v>
+        <v>22.248999999999999</v>
       </c>
       <c r="BY11">
-        <v>21.0779</v>
+        <v>22.1798</v>
       </c>
       <c r="BZ11">
-        <v>21.054500000000001</v>
+        <v>22.148099999999999</v>
       </c>
       <c r="CA11">
-        <v>20.980699999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>22.127800000000001</v>
+      </c>
+      <c r="CB11">
+        <v>22.1097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>22.09656923076923</v>
-      </c>
-      <c r="B12">
-        <v>33.761499999999998</v>
+        <v>23.057949999999998</v>
       </c>
       <c r="C12">
-        <v>27.160900000000002</v>
+        <v>33.916200000000003</v>
       </c>
       <c r="D12">
-        <v>27.361000000000001</v>
+        <v>28.195699999999999</v>
       </c>
       <c r="E12">
-        <v>27.931699999999999</v>
+        <v>28.7425</v>
       </c>
       <c r="F12">
-        <v>26.130400000000002</v>
+        <v>28.546299999999999</v>
       </c>
       <c r="G12">
-        <v>24.643899999999999</v>
+        <v>26.5794</v>
       </c>
       <c r="H12">
-        <v>22.928999999999998</v>
+        <v>25.602399999999999</v>
       </c>
       <c r="I12">
-        <v>24.801100000000002</v>
+        <v>23.904199999999999</v>
       </c>
       <c r="J12">
-        <v>24.652200000000001</v>
+        <v>25.450500000000002</v>
       </c>
       <c r="K12">
-        <v>25.260200000000001</v>
+        <v>25.363499999999998</v>
       </c>
       <c r="L12">
-        <v>24.5641</v>
+        <v>25.567900000000002</v>
       </c>
       <c r="M12">
-        <v>22.067</v>
+        <v>25.138100000000001</v>
       </c>
       <c r="N12">
-        <v>24.508199999999999</v>
+        <v>23.188500000000001</v>
       </c>
       <c r="O12">
-        <v>22.9452</v>
+        <v>24.8109</v>
       </c>
       <c r="P12">
-        <v>23.509499999999999</v>
+        <v>23.741299999999999</v>
       </c>
       <c r="Q12">
-        <v>22.111699999999999</v>
+        <v>24.187100000000001</v>
       </c>
       <c r="R12">
-        <v>23.175899999999999</v>
+        <v>23.245799999999999</v>
       </c>
       <c r="S12">
-        <v>23.400099999999998</v>
+        <v>23.9297</v>
       </c>
       <c r="T12">
-        <v>20.690899999999999</v>
+        <v>23.820599999999999</v>
       </c>
       <c r="U12">
-        <v>22.4101</v>
+        <v>21.974599999999999</v>
       </c>
       <c r="V12">
-        <v>23.662400000000002</v>
+        <v>23.4177</v>
       </c>
       <c r="W12">
-        <v>19.893999999999998</v>
+        <v>24.024100000000001</v>
       </c>
       <c r="X12">
-        <v>22.4132</v>
+        <v>21.332999999999998</v>
       </c>
       <c r="Y12">
-        <v>21.874700000000001</v>
+        <v>23.237200000000001</v>
       </c>
       <c r="Z12">
-        <v>23.2971</v>
+        <v>23.029800000000002</v>
       </c>
       <c r="AA12">
-        <v>22.8932</v>
+        <v>23.885200000000001</v>
       </c>
       <c r="AB12">
-        <v>19.6309</v>
+        <v>23.587599999999998</v>
       </c>
       <c r="AC12">
-        <v>20.904800000000002</v>
+        <v>20.991</v>
       </c>
       <c r="AD12">
-        <v>20.8215</v>
+        <v>22.002800000000001</v>
       </c>
       <c r="AE12">
-        <v>20.5579</v>
+        <v>22.0229</v>
       </c>
       <c r="AF12">
-        <v>22.126100000000001</v>
+        <v>21.9468</v>
       </c>
       <c r="AG12">
-        <v>21.907900000000001</v>
+        <v>22.9864</v>
       </c>
       <c r="AH12">
-        <v>21.768699999999999</v>
+        <v>22.873999999999999</v>
       </c>
       <c r="AI12">
-        <v>21.474499999999999</v>
+        <v>22.8201</v>
       </c>
       <c r="AJ12">
-        <v>22.612300000000001</v>
+        <v>22.537099999999999</v>
       </c>
       <c r="AK12">
-        <v>20.29</v>
+        <v>23.350100000000001</v>
       </c>
       <c r="AL12">
-        <v>20.0791</v>
+        <v>21.622699999999998</v>
       </c>
       <c r="AM12">
-        <v>19.997699999999998</v>
+        <v>21.498100000000001</v>
       </c>
       <c r="AN12">
-        <v>19.905100000000001</v>
+        <v>21.5014</v>
       </c>
       <c r="AO12">
-        <v>22.291499999999999</v>
+        <v>21.4299</v>
       </c>
       <c r="AP12">
-        <v>22.116399999999999</v>
+        <v>23.052299999999999</v>
       </c>
       <c r="AQ12">
-        <v>22.023599999999998</v>
+        <v>22.896799999999999</v>
       </c>
       <c r="AR12">
-        <v>21.900500000000001</v>
+        <v>22.8216</v>
       </c>
       <c r="AS12">
-        <v>21.6996</v>
+        <v>22.6997</v>
       </c>
       <c r="AT12">
-        <v>21.578299999999999</v>
+        <v>22.618400000000001</v>
       </c>
       <c r="AU12">
-        <v>22.526199999999999</v>
+        <v>22.534400000000002</v>
       </c>
       <c r="AV12">
-        <v>22.464300000000001</v>
+        <v>23.127600000000001</v>
       </c>
       <c r="AW12">
-        <v>22.308599999999998</v>
+        <v>23.072299999999998</v>
       </c>
       <c r="AX12">
-        <v>22.133099999999999</v>
+        <v>22.97</v>
       </c>
       <c r="AY12">
-        <v>21.999199999999998</v>
+        <v>22.847300000000001</v>
       </c>
       <c r="AZ12">
-        <v>19.9892</v>
+        <v>22.722799999999999</v>
       </c>
       <c r="BA12">
-        <v>20.011800000000001</v>
+        <v>21.248999999999999</v>
       </c>
       <c r="BB12">
-        <v>19.998999999999999</v>
+        <v>21.304600000000001</v>
       </c>
       <c r="BC12">
-        <v>19.973099999999999</v>
+        <v>21.300699999999999</v>
       </c>
       <c r="BD12">
-        <v>21.267800000000001</v>
+        <v>21.2697</v>
       </c>
       <c r="BE12">
-        <v>21.182099999999998</v>
+        <v>22.164200000000001</v>
       </c>
       <c r="BF12">
-        <v>21.063600000000001</v>
+        <v>22.104399999999998</v>
       </c>
       <c r="BG12">
-        <v>21.034800000000001</v>
+        <v>22.0411</v>
       </c>
       <c r="BH12">
-        <v>20.929300000000001</v>
+        <v>22.029199999999999</v>
       </c>
       <c r="BI12">
-        <v>20.809100000000001</v>
+        <v>21.9573</v>
       </c>
       <c r="BJ12">
-        <v>20.808</v>
+        <v>21.872800000000002</v>
       </c>
       <c r="BK12">
-        <v>20.7379</v>
+        <v>21.877400000000002</v>
       </c>
       <c r="BL12">
-        <v>20.654399999999999</v>
+        <v>21.821400000000001</v>
       </c>
       <c r="BM12">
-        <v>20.579599999999999</v>
+        <v>21.851199999999999</v>
       </c>
       <c r="BN12">
-        <v>20.4739</v>
+        <v>21.800999999999998</v>
       </c>
       <c r="BO12">
-        <v>20.368600000000001</v>
+        <v>21.691400000000002</v>
       </c>
       <c r="BP12">
-        <v>20.364599999999999</v>
+        <v>21.580100000000002</v>
       </c>
       <c r="BQ12">
-        <v>20.278500000000001</v>
+        <v>21.584900000000001</v>
       </c>
       <c r="BR12">
-        <v>21.258299999999998</v>
+        <v>21.540299999999998</v>
       </c>
       <c r="BS12">
-        <v>21.227799999999998</v>
+        <v>22.159700000000001</v>
       </c>
       <c r="BT12">
-        <v>21.1431</v>
+        <v>22.153199999999998</v>
       </c>
       <c r="BU12">
-        <v>21.049499999999998</v>
+        <v>22.082599999999999</v>
       </c>
       <c r="BV12">
-        <v>20.980799999999999</v>
+        <v>22.016999999999999</v>
       </c>
       <c r="BW12">
-        <v>20.954000000000001</v>
+        <v>22.017299999999999</v>
       </c>
       <c r="BX12">
-        <v>20.885999999999999</v>
+        <v>22.011399999999998</v>
       </c>
       <c r="BY12">
-        <v>20.814299999999999</v>
+        <v>21.9437</v>
       </c>
       <c r="BZ12">
-        <v>20.7971</v>
+        <v>21.92</v>
       </c>
       <c r="CA12">
-        <v>20.729199999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>21.9068</v>
+      </c>
+      <c r="CB12">
+        <v>21.901399999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>22.213021794871793</v>
-      </c>
-      <c r="B13">
-        <v>30.2834</v>
+        <v>23.15691794871795</v>
       </c>
       <c r="C13">
-        <v>31.391500000000001</v>
+        <v>31.410900000000002</v>
       </c>
       <c r="D13">
-        <v>27.361000000000001</v>
+        <v>32.733499999999999</v>
       </c>
       <c r="E13">
-        <v>24.932500000000001</v>
+        <v>28.7425</v>
       </c>
       <c r="F13">
-        <v>27.561800000000002</v>
+        <v>26.217300000000002</v>
       </c>
       <c r="G13">
-        <v>25.732700000000001</v>
+        <v>27.944700000000001</v>
       </c>
       <c r="H13">
-        <v>25.760999999999999</v>
+        <v>26.154299999999999</v>
       </c>
       <c r="I13">
-        <v>24.801100000000002</v>
+        <v>26.257999999999999</v>
       </c>
       <c r="J13">
-        <v>24.652200000000001</v>
+        <v>25.450500000000002</v>
       </c>
       <c r="K13">
-        <v>25.116599999999998</v>
+        <v>25.363499999999998</v>
       </c>
       <c r="L13">
-        <v>24.485700000000001</v>
+        <v>25.4373</v>
       </c>
       <c r="M13">
-        <v>22.892499999999998</v>
+        <v>25.037099999999999</v>
       </c>
       <c r="N13">
-        <v>23.2563</v>
+        <v>23.835100000000001</v>
       </c>
       <c r="O13">
-        <v>24.2181</v>
+        <v>23.985199999999999</v>
       </c>
       <c r="P13">
-        <v>21.4313</v>
+        <v>24.573399999999999</v>
       </c>
       <c r="Q13">
-        <v>23.855699999999999</v>
+        <v>22.8047</v>
       </c>
       <c r="R13">
-        <v>20.933700000000002</v>
+        <v>24.479399999999998</v>
       </c>
       <c r="S13">
-        <v>23.543500000000002</v>
+        <v>22.102799999999998</v>
       </c>
       <c r="T13">
-        <v>22.927</v>
+        <v>24.036100000000001</v>
       </c>
       <c r="U13">
-        <v>20.6785</v>
+        <v>23.706299999999999</v>
       </c>
       <c r="V13">
-        <v>22.7759</v>
+        <v>21.999199999999998</v>
       </c>
       <c r="W13">
-        <v>22.355</v>
+        <v>23.494499999999999</v>
       </c>
       <c r="X13">
-        <v>23.162199999999999</v>
+        <v>23.3355</v>
       </c>
       <c r="Y13">
-        <v>20.319800000000001</v>
+        <v>23.783300000000001</v>
       </c>
       <c r="Z13">
-        <v>22.035699999999999</v>
+        <v>21.6647</v>
       </c>
       <c r="AA13">
-        <v>21.739100000000001</v>
+        <v>22.8843</v>
       </c>
       <c r="AB13">
-        <v>21.4329</v>
+        <v>22.778099999999998</v>
       </c>
       <c r="AC13">
-        <v>22.549499999999998</v>
+        <v>22.589200000000002</v>
       </c>
       <c r="AD13">
-        <v>22.282900000000001</v>
+        <v>23.335599999999999</v>
       </c>
       <c r="AE13">
-        <v>19.284700000000001</v>
+        <v>23.076699999999999</v>
       </c>
       <c r="AF13">
-        <v>21.6936</v>
+        <v>20.814800000000002</v>
       </c>
       <c r="AG13">
-        <v>21.52</v>
+        <v>22.605</v>
       </c>
       <c r="AH13">
-        <v>21.488199999999999</v>
+        <v>22.562100000000001</v>
       </c>
       <c r="AI13">
-        <v>21.2471</v>
+        <v>22.601199999999999</v>
       </c>
       <c r="AJ13">
-        <v>22.7041</v>
+        <v>22.4252</v>
       </c>
       <c r="AK13">
-        <v>22.501200000000001</v>
+        <v>23.433499999999999</v>
       </c>
       <c r="AL13">
-        <v>22.1401</v>
+        <v>23.334599999999998</v>
       </c>
       <c r="AM13">
-        <v>21.893000000000001</v>
+        <v>23.056799999999999</v>
       </c>
       <c r="AN13">
-        <v>19.016300000000001</v>
+        <v>22.891200000000001</v>
       </c>
       <c r="AO13">
-        <v>21.878499999999999</v>
+        <v>20.643000000000001</v>
       </c>
       <c r="AP13">
-        <v>21.771599999999999</v>
+        <v>22.709199999999999</v>
       </c>
       <c r="AQ13">
-        <v>21.721</v>
+        <v>22.609300000000001</v>
       </c>
       <c r="AR13">
-        <v>21.645299999999999</v>
+        <v>22.565100000000001</v>
       </c>
       <c r="AS13">
-        <v>21.462599999999998</v>
+        <v>22.4953</v>
       </c>
       <c r="AT13">
-        <v>21.375599999999999</v>
+        <v>22.4145</v>
       </c>
       <c r="AU13">
-        <v>22.481300000000001</v>
+        <v>22.3614</v>
       </c>
       <c r="AV13">
-        <v>22.396000000000001</v>
+        <v>23.098700000000001</v>
       </c>
       <c r="AW13">
-        <v>22.232199999999999</v>
+        <v>23.0564</v>
       </c>
       <c r="AX13">
-        <v>22.074999999999999</v>
+        <v>22.954699999999999</v>
       </c>
       <c r="AY13">
-        <v>21.916799999999999</v>
+        <v>22.843</v>
       </c>
       <c r="AZ13">
-        <v>21.767900000000001</v>
+        <v>22.694600000000001</v>
       </c>
       <c r="BA13">
-        <v>21.704999999999998</v>
+        <v>22.587499999999999</v>
       </c>
       <c r="BB13">
-        <v>21.605499999999999</v>
+        <v>22.5303</v>
       </c>
       <c r="BC13">
-        <v>21.501000000000001</v>
+        <v>22.451000000000001</v>
       </c>
       <c r="BD13">
-        <v>20.901900000000001</v>
+        <v>22.361799999999999</v>
       </c>
       <c r="BE13">
-        <v>20.837800000000001</v>
+        <v>21.873200000000001</v>
       </c>
       <c r="BF13">
-        <v>20.740300000000001</v>
+        <v>21.825399999999998</v>
       </c>
       <c r="BG13">
-        <v>20.723500000000001</v>
+        <v>21.773099999999999</v>
       </c>
       <c r="BH13">
-        <v>20.6309</v>
+        <v>21.768899999999999</v>
       </c>
       <c r="BI13">
-        <v>20.534500000000001</v>
+        <v>21.699400000000001</v>
       </c>
       <c r="BJ13">
-        <v>20.5457</v>
+        <v>21.635200000000001</v>
       </c>
       <c r="BK13">
-        <v>20.469899999999999</v>
+        <v>21.641500000000001</v>
       </c>
       <c r="BL13">
-        <v>20.398599999999998</v>
+        <v>21.582799999999999</v>
       </c>
       <c r="BM13">
-        <v>20.335799999999999</v>
+        <v>21.628599999999999</v>
       </c>
       <c r="BN13">
-        <v>20.235800000000001</v>
+        <v>21.591000000000001</v>
       </c>
       <c r="BO13">
-        <v>20.121099999999998</v>
+        <v>21.479800000000001</v>
       </c>
       <c r="BP13">
-        <v>20.124500000000001</v>
+        <v>21.3629</v>
       </c>
       <c r="BQ13">
-        <v>20.044499999999999</v>
+        <v>21.373100000000001</v>
       </c>
       <c r="BR13">
-        <v>21.278400000000001</v>
+        <v>21.33</v>
       </c>
       <c r="BS13">
-        <v>21.26</v>
+        <v>22.154699999999998</v>
       </c>
       <c r="BT13">
-        <v>21.186499999999999</v>
+        <v>22.154699999999998</v>
       </c>
       <c r="BU13">
-        <v>21.102</v>
+        <v>22.092199999999998</v>
       </c>
       <c r="BV13">
-        <v>21.040099999999999</v>
+        <v>22.035499999999999</v>
       </c>
       <c r="BW13">
-        <v>21.025700000000001</v>
+        <v>22.0366</v>
       </c>
       <c r="BX13">
-        <v>20.965499999999999</v>
+        <v>22.043099999999999</v>
       </c>
       <c r="BY13">
-        <v>20.898299999999999</v>
+        <v>21.978100000000001</v>
       </c>
       <c r="BZ13">
-        <v>20.8886</v>
+        <v>21.9573</v>
       </c>
       <c r="CA13">
-        <v>20.833100000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>21.9572</v>
+      </c>
+      <c r="CB13">
+        <v>21.9514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>22.138048717948717</v>
-      </c>
-      <c r="B14">
-        <v>32.622</v>
+        <v>23.094370512820522</v>
       </c>
       <c r="C14">
-        <v>28.8719</v>
+        <v>33.332500000000003</v>
       </c>
       <c r="D14">
-        <v>27.361000000000001</v>
+        <v>29.592099999999999</v>
       </c>
       <c r="E14">
-        <v>27.567599999999999</v>
+        <v>28.7425</v>
       </c>
       <c r="F14">
-        <v>26.043600000000001</v>
+        <v>28.465199999999999</v>
       </c>
       <c r="G14">
-        <v>26.418199999999999</v>
+        <v>26.419499999999999</v>
       </c>
       <c r="H14">
-        <v>26.036899999999999</v>
+        <v>27.194099999999999</v>
       </c>
       <c r="I14">
-        <v>24.801100000000002</v>
+        <v>26.622199999999999</v>
       </c>
       <c r="J14">
-        <v>25.010400000000001</v>
+        <v>25.450500000000002</v>
       </c>
       <c r="K14">
-        <v>24.915299999999998</v>
+        <v>25.533100000000001</v>
       </c>
       <c r="L14">
-        <v>24.555399999999999</v>
+        <v>25.1449</v>
       </c>
       <c r="M14">
-        <v>23.703099999999999</v>
+        <v>24.970099999999999</v>
       </c>
       <c r="N14">
-        <v>24.025200000000002</v>
+        <v>24.457799999999999</v>
       </c>
       <c r="O14">
-        <v>22.1312</v>
+        <v>24.669499999999999</v>
       </c>
       <c r="P14">
-        <v>23.1235</v>
+        <v>22.9754</v>
       </c>
       <c r="Q14">
-        <v>21.505700000000001</v>
+        <v>24.088200000000001</v>
       </c>
       <c r="R14">
-        <v>23.194299999999998</v>
+        <v>22.7407</v>
       </c>
       <c r="S14">
-        <v>23.473800000000001</v>
+        <v>23.952000000000002</v>
       </c>
       <c r="T14">
-        <v>21.1373</v>
+        <v>23.9192</v>
       </c>
       <c r="U14">
-        <v>22.371700000000001</v>
+        <v>22.3841</v>
       </c>
       <c r="V14">
-        <v>23.536300000000001</v>
+        <v>23.373699999999999</v>
       </c>
       <c r="W14">
-        <v>21.3886</v>
+        <v>23.8872</v>
       </c>
       <c r="X14">
-        <v>22.457599999999999</v>
+        <v>22.477900000000002</v>
       </c>
       <c r="Y14">
-        <v>21.8428</v>
+        <v>23.302499999999998</v>
       </c>
       <c r="Z14">
-        <v>23.171500000000002</v>
+        <v>23.004000000000001</v>
       </c>
       <c r="AA14">
-        <v>20.664899999999999</v>
+        <v>23.7776</v>
       </c>
       <c r="AB14">
-        <v>20.513000000000002</v>
+        <v>21.863900000000001</v>
       </c>
       <c r="AC14">
-        <v>22.1004</v>
+        <v>21.830400000000001</v>
       </c>
       <c r="AD14">
-        <v>21.845099999999999</v>
+        <v>22.983799999999999</v>
       </c>
       <c r="AE14">
-        <v>21.581900000000001</v>
+        <v>22.817900000000002</v>
       </c>
       <c r="AF14">
-        <v>22.6343</v>
+        <v>22.644600000000001</v>
       </c>
       <c r="AG14">
-        <v>20.4175</v>
+        <v>23.3263</v>
       </c>
       <c r="AH14">
-        <v>20.427800000000001</v>
+        <v>21.681699999999999</v>
       </c>
       <c r="AI14">
-        <v>20.247499999999999</v>
+        <v>21.821999999999999</v>
       </c>
       <c r="AJ14">
-        <v>22.546600000000002</v>
+        <v>21.690999999999999</v>
       </c>
       <c r="AK14">
-        <v>22.365300000000001</v>
+        <v>23.286100000000001</v>
       </c>
       <c r="AL14">
-        <v>22.002300000000002</v>
+        <v>23.213699999999999</v>
       </c>
       <c r="AM14">
-        <v>21.790400000000002</v>
+        <v>22.955500000000001</v>
       </c>
       <c r="AN14">
-        <v>21.5334</v>
+        <v>22.826699999999999</v>
       </c>
       <c r="AO14">
-        <v>22.810300000000002</v>
+        <v>22.6145</v>
       </c>
       <c r="AP14">
-        <v>20.160599999999999</v>
+        <v>23.412700000000001</v>
       </c>
       <c r="AQ14">
-        <v>20.1388</v>
+        <v>21.442399999999999</v>
       </c>
       <c r="AR14">
-        <v>20.073</v>
+        <v>21.4209</v>
       </c>
       <c r="AS14">
-        <v>19.937799999999999</v>
+        <v>21.381</v>
       </c>
       <c r="AT14">
-        <v>19.898499999999999</v>
+        <v>21.338000000000001</v>
       </c>
       <c r="AU14">
-        <v>22.200299999999999</v>
+        <v>21.3262</v>
       </c>
       <c r="AV14">
-        <v>22.1708</v>
+        <v>22.9085</v>
       </c>
       <c r="AW14">
-        <v>22.049199999999999</v>
+        <v>22.909400000000002</v>
       </c>
       <c r="AX14">
-        <v>21.938500000000001</v>
+        <v>22.846699999999998</v>
       </c>
       <c r="AY14">
-        <v>21.764600000000002</v>
+        <v>22.777799999999999</v>
       </c>
       <c r="AZ14">
-        <v>21.645</v>
+        <v>22.6188</v>
       </c>
       <c r="BA14">
-        <v>21.612500000000001</v>
+        <v>22.543099999999999</v>
       </c>
       <c r="BB14">
-        <v>21.4999</v>
+        <v>22.4998</v>
       </c>
       <c r="BC14">
-        <v>21.422899999999998</v>
+        <v>22.435700000000001</v>
       </c>
       <c r="BD14">
-        <v>22.020900000000001</v>
+        <v>22.364699999999999</v>
       </c>
       <c r="BE14">
-        <v>21.895600000000002</v>
+        <v>22.7424</v>
       </c>
       <c r="BF14">
-        <v>21.7697</v>
+        <v>22.6402</v>
       </c>
       <c r="BG14">
-        <v>21.714099999999998</v>
+        <v>22.5579</v>
       </c>
       <c r="BH14">
-        <v>20.2179</v>
+        <v>22.511700000000001</v>
       </c>
       <c r="BI14">
-        <v>20.132000000000001</v>
+        <v>21.338699999999999</v>
       </c>
       <c r="BJ14">
-        <v>20.1508</v>
+        <v>21.281099999999999</v>
       </c>
       <c r="BK14">
-        <v>20.081900000000001</v>
+        <v>21.291399999999999</v>
       </c>
       <c r="BL14">
-        <v>20.0228</v>
+        <v>21.238900000000001</v>
       </c>
       <c r="BM14">
-        <v>19.968299999999999</v>
+        <v>21.285799999999998</v>
       </c>
       <c r="BN14">
-        <v>19.909600000000001</v>
+        <v>21.257999999999999</v>
       </c>
       <c r="BO14">
-        <v>19.823799999999999</v>
+        <v>21.1722</v>
       </c>
       <c r="BP14">
-        <v>19.833100000000002</v>
+        <v>21.0837</v>
       </c>
       <c r="BQ14">
-        <v>19.750699999999998</v>
+        <v>21.098600000000001</v>
       </c>
       <c r="BR14">
-        <v>21.061800000000002</v>
+        <v>21.053799999999999</v>
       </c>
       <c r="BS14">
-        <v>21.025300000000001</v>
+        <v>21.9727</v>
       </c>
       <c r="BT14">
-        <v>20.965299999999999</v>
+        <v>21.9619</v>
       </c>
       <c r="BU14">
-        <v>20.843399999999999</v>
+        <v>21.92</v>
       </c>
       <c r="BV14">
-        <v>20.797899999999998</v>
+        <v>21.837</v>
       </c>
       <c r="BW14">
-        <v>20.793099999999999</v>
+        <v>21.844200000000001</v>
       </c>
       <c r="BX14">
-        <v>20.740200000000002</v>
+        <v>21.8567</v>
       </c>
       <c r="BY14">
-        <v>20.681100000000001</v>
+        <v>21.797000000000001</v>
       </c>
       <c r="BZ14">
-        <v>20.678599999999999</v>
+        <v>21.7818</v>
       </c>
       <c r="CA14">
-        <v>20.630800000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>21.787400000000002</v>
+      </c>
+      <c r="CB14">
+        <v>21.787500000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>22.132010256410247</v>
-      </c>
-      <c r="B15">
-        <v>33.761499999999998</v>
+        <v>23.102773076923068</v>
       </c>
       <c r="C15">
-        <v>31.391500000000001</v>
+        <v>33.916200000000003</v>
       </c>
       <c r="D15">
-        <v>27.361000000000001</v>
+        <v>32.733499999999999</v>
       </c>
       <c r="E15">
-        <v>27.931699999999999</v>
+        <v>28.7425</v>
       </c>
       <c r="F15">
-        <v>27.116800000000001</v>
+        <v>28.546299999999999</v>
       </c>
       <c r="G15">
-        <v>26.5457</v>
+        <v>27.734999999999999</v>
       </c>
       <c r="H15">
-        <v>25.481100000000001</v>
+        <v>27.252800000000001</v>
       </c>
       <c r="I15">
-        <v>24.801100000000002</v>
+        <v>26.415199999999999</v>
       </c>
       <c r="J15">
-        <v>25.0015</v>
+        <v>25.450500000000002</v>
       </c>
       <c r="K15">
-        <v>23.859300000000001</v>
+        <v>25.4924</v>
       </c>
       <c r="L15">
-        <v>23.2377</v>
+        <v>24.353100000000001</v>
       </c>
       <c r="M15">
-        <v>21.9696</v>
+        <v>23.889700000000001</v>
       </c>
       <c r="N15">
-        <v>24.5044</v>
+        <v>23.004999999999999</v>
       </c>
       <c r="O15">
-        <v>23.0947</v>
+        <v>24.84</v>
       </c>
       <c r="P15">
-        <v>21.374300000000002</v>
+        <v>23.845600000000001</v>
       </c>
       <c r="Q15">
-        <v>22.661799999999999</v>
+        <v>22.5611</v>
       </c>
       <c r="R15">
-        <v>20.933700000000002</v>
+        <v>23.718499999999999</v>
       </c>
       <c r="S15">
-        <v>23.543500000000002</v>
+        <v>22.102799999999998</v>
       </c>
       <c r="T15">
-        <v>22.927</v>
+        <v>24.036100000000001</v>
       </c>
       <c r="U15">
-        <v>21.1037</v>
+        <v>23.706299999999999</v>
       </c>
       <c r="V15">
-        <v>22.786200000000001</v>
+        <v>22.398599999999998</v>
       </c>
       <c r="W15">
-        <v>22.331800000000001</v>
+        <v>23.526599999999998</v>
       </c>
       <c r="X15">
-        <v>21.584399999999999</v>
+        <v>23.319500000000001</v>
       </c>
       <c r="Y15">
-        <v>21.177199999999999</v>
+        <v>22.5626</v>
       </c>
       <c r="Z15">
-        <v>22.640799999999999</v>
+        <v>22.470800000000001</v>
       </c>
       <c r="AA15">
-        <v>22.162199999999999</v>
+        <v>23.360099999999999</v>
       </c>
       <c r="AB15">
-        <v>21.779</v>
+        <v>23.0779</v>
       </c>
       <c r="AC15">
-        <v>20.929600000000001</v>
+        <v>22.733599999999999</v>
       </c>
       <c r="AD15">
-        <v>20.832999999999998</v>
+        <v>22.0382</v>
       </c>
       <c r="AE15">
-        <v>20.559000000000001</v>
+        <v>22.052800000000001</v>
       </c>
       <c r="AF15">
-        <v>22.581499999999998</v>
+        <v>21.9678</v>
       </c>
       <c r="AG15">
-        <v>22.321000000000002</v>
+        <v>23.3125</v>
       </c>
       <c r="AH15">
-        <v>22.151</v>
+        <v>23.178799999999999</v>
       </c>
       <c r="AI15">
-        <v>18.889800000000001</v>
+        <v>23.084199999999999</v>
       </c>
       <c r="AJ15">
-        <v>21.43</v>
+        <v>20.5092</v>
       </c>
       <c r="AK15">
-        <v>21.379300000000001</v>
+        <v>22.456399999999999</v>
       </c>
       <c r="AL15">
-        <v>21.123100000000001</v>
+        <v>22.469200000000001</v>
       </c>
       <c r="AM15">
-        <v>20.9468</v>
+        <v>22.299600000000002</v>
       </c>
       <c r="AN15">
-        <v>20.823499999999999</v>
+        <v>22.2286</v>
       </c>
       <c r="AO15">
-        <v>22.707999999999998</v>
+        <v>22.126999999999999</v>
       </c>
       <c r="AP15">
-        <v>22.532800000000002</v>
+        <v>23.400300000000001</v>
       </c>
       <c r="AQ15">
-        <v>22.438500000000001</v>
+        <v>23.2105</v>
       </c>
       <c r="AR15">
-        <v>22.3005</v>
+        <v>23.125800000000002</v>
       </c>
       <c r="AS15">
-        <v>19.383099999999999</v>
+        <v>22.997900000000001</v>
       </c>
       <c r="AT15">
-        <v>19.363299999999999</v>
+        <v>20.870899999999999</v>
       </c>
       <c r="AU15">
-        <v>21.900400000000001</v>
+        <v>20.8797</v>
       </c>
       <c r="AV15">
-        <v>21.897300000000001</v>
+        <v>22.663</v>
       </c>
       <c r="AW15">
-        <v>21.758800000000001</v>
+        <v>22.6858</v>
       </c>
       <c r="AX15">
-        <v>21.671399999999998</v>
+        <v>22.602799999999998</v>
       </c>
       <c r="AY15">
-        <v>21.544799999999999</v>
+        <v>22.560199999999998</v>
       </c>
       <c r="AZ15">
-        <v>21.446200000000001</v>
+        <v>22.430900000000001</v>
       </c>
       <c r="BA15">
-        <v>21.4359</v>
+        <v>22.368099999999998</v>
       </c>
       <c r="BB15">
-        <v>21.359000000000002</v>
+        <v>22.342300000000002</v>
       </c>
       <c r="BC15">
-        <v>21.295400000000001</v>
+        <v>22.3081</v>
       </c>
       <c r="BD15">
-        <v>22.046199999999999</v>
+        <v>22.251100000000001</v>
       </c>
       <c r="BE15">
-        <v>21.929400000000001</v>
+        <v>22.704999999999998</v>
       </c>
       <c r="BF15">
-        <v>21.780200000000001</v>
+        <v>22.619399999999999</v>
       </c>
       <c r="BG15">
-        <v>21.734500000000001</v>
+        <v>22.5351</v>
       </c>
       <c r="BH15">
-        <v>21.591699999999999</v>
+        <v>22.503699999999998</v>
       </c>
       <c r="BI15">
-        <v>21.440300000000001</v>
+        <v>22.386700000000001</v>
       </c>
       <c r="BJ15">
-        <v>21.406600000000001</v>
+        <v>22.282499999999999</v>
       </c>
       <c r="BK15">
-        <v>21.299700000000001</v>
+        <v>22.267299999999999</v>
       </c>
       <c r="BL15">
-        <v>19.581199999999999</v>
+        <v>22.184999999999999</v>
       </c>
       <c r="BM15">
-        <v>19.530200000000001</v>
+        <v>20.977699999999999</v>
       </c>
       <c r="BN15">
-        <v>19.482600000000001</v>
+        <v>20.953800000000001</v>
       </c>
       <c r="BO15">
-        <v>19.403099999999998</v>
+        <v>20.878799999999998</v>
       </c>
       <c r="BP15">
-        <v>19.414100000000001</v>
+        <v>20.794799999999999</v>
       </c>
       <c r="BQ15">
-        <v>19.335799999999999</v>
+        <v>20.811399999999999</v>
       </c>
       <c r="BR15">
-        <v>20.867000000000001</v>
+        <v>20.7683</v>
       </c>
       <c r="BS15">
-        <v>20.8445</v>
+        <v>21.8203</v>
       </c>
       <c r="BT15">
-        <v>20.787800000000001</v>
+        <v>21.813800000000001</v>
       </c>
       <c r="BU15">
-        <v>20.684899999999999</v>
+        <v>21.776</v>
       </c>
       <c r="BV15">
-        <v>20.6297</v>
+        <v>21.708200000000001</v>
       </c>
       <c r="BW15">
-        <v>20.568899999999999</v>
+        <v>21.715</v>
       </c>
       <c r="BX15">
-        <v>20.519400000000001</v>
+        <v>21.7058</v>
       </c>
       <c r="BY15">
-        <v>20.4649</v>
+        <v>21.650200000000002</v>
       </c>
       <c r="BZ15">
-        <v>20.4664</v>
+        <v>21.639700000000001</v>
       </c>
       <c r="CA15">
-        <v>20.421500000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>21.648700000000002</v>
+      </c>
+      <c r="CB15">
+        <v>21.655100000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>22.181011538461544</v>
-      </c>
-      <c r="B16">
-        <v>32.203299999999999</v>
+        <v>23.133152564102573</v>
       </c>
       <c r="C16">
-        <v>29.2607</v>
+        <v>33.253399999999999</v>
       </c>
       <c r="D16">
-        <v>27.361000000000001</v>
+        <v>30.2653</v>
       </c>
       <c r="E16">
-        <v>26.372299999999999</v>
+        <v>28.7425</v>
       </c>
       <c r="F16">
-        <v>26.9678</v>
+        <v>27.378799999999998</v>
       </c>
       <c r="G16">
-        <v>25.701000000000001</v>
+        <v>27.257400000000001</v>
       </c>
       <c r="H16">
-        <v>25.553599999999999</v>
+        <v>26.519100000000002</v>
       </c>
       <c r="I16">
-        <v>24.801100000000002</v>
+        <v>26.433399999999999</v>
       </c>
       <c r="J16">
-        <v>23.456600000000002</v>
+        <v>25.450500000000002</v>
       </c>
       <c r="K16">
-        <v>24.7074</v>
+        <v>24.2408</v>
       </c>
       <c r="L16">
-        <v>24.2746</v>
+        <v>25.140899999999998</v>
       </c>
       <c r="M16">
-        <v>22.869700000000002</v>
+        <v>24.916499999999999</v>
       </c>
       <c r="N16">
-        <v>24.025200000000002</v>
+        <v>23.8215</v>
       </c>
       <c r="O16">
-        <v>24.138000000000002</v>
+        <v>24.669499999999999</v>
       </c>
       <c r="P16">
-        <v>22.6952</v>
+        <v>24.446000000000002</v>
       </c>
       <c r="Q16">
-        <v>21.505700000000001</v>
+        <v>23.842600000000001</v>
       </c>
       <c r="R16">
-        <v>23.194299999999998</v>
+        <v>22.7407</v>
       </c>
       <c r="S16">
-        <v>23.473800000000001</v>
+        <v>23.952000000000002</v>
       </c>
       <c r="T16">
-        <v>21.152999999999999</v>
+        <v>23.9192</v>
       </c>
       <c r="U16">
-        <v>22.872499999999999</v>
+        <v>22.4802</v>
       </c>
       <c r="V16">
-        <v>21.851800000000001</v>
+        <v>23.708300000000001</v>
       </c>
       <c r="W16">
-        <v>21.483699999999999</v>
+        <v>22.698599999999999</v>
       </c>
       <c r="X16">
-        <v>23.360399999999998</v>
+        <v>22.700099999999999</v>
       </c>
       <c r="Y16">
-        <v>22.7056</v>
+        <v>23.8888</v>
       </c>
       <c r="Z16">
-        <v>22.035699999999999</v>
+        <v>23.4373</v>
       </c>
       <c r="AA16">
-        <v>21.739100000000001</v>
+        <v>22.8843</v>
       </c>
       <c r="AB16">
-        <v>21.4329</v>
+        <v>22.778099999999998</v>
       </c>
       <c r="AC16">
-        <v>22.549499999999998</v>
+        <v>22.589200000000002</v>
       </c>
       <c r="AD16">
-        <v>20.164200000000001</v>
+        <v>23.335599999999999</v>
       </c>
       <c r="AE16">
-        <v>19.982299999999999</v>
+        <v>21.423300000000001</v>
       </c>
       <c r="AF16">
-        <v>21.7805</v>
+        <v>21.426500000000001</v>
       </c>
       <c r="AG16">
-        <v>21.546700000000001</v>
+        <v>22.7073</v>
       </c>
       <c r="AH16">
-        <v>21.462900000000001</v>
+        <v>22.600100000000001</v>
       </c>
       <c r="AI16">
-        <v>21.175599999999999</v>
+        <v>22.595600000000001</v>
       </c>
       <c r="AJ16">
-        <v>22.6633</v>
+        <v>22.366499999999998</v>
       </c>
       <c r="AK16">
-        <v>20.748200000000001</v>
+        <v>23.386600000000001</v>
       </c>
       <c r="AL16">
-        <v>20.543800000000001</v>
+        <v>21.980799999999999</v>
       </c>
       <c r="AM16">
-        <v>20.402699999999999</v>
+        <v>21.8447</v>
       </c>
       <c r="AN16">
-        <v>20.3111</v>
+        <v>21.805599999999998</v>
       </c>
       <c r="AO16">
-        <v>22.300699999999999</v>
+        <v>21.738</v>
       </c>
       <c r="AP16">
-        <v>22.117799999999999</v>
+        <v>23.056699999999999</v>
       </c>
       <c r="AQ16">
-        <v>22.016999999999999</v>
+        <v>22.892800000000001</v>
       </c>
       <c r="AR16">
-        <v>21.885300000000001</v>
+        <v>22.815999999999999</v>
       </c>
       <c r="AS16">
-        <v>21.678599999999999</v>
+        <v>22.691299999999998</v>
       </c>
       <c r="AT16">
-        <v>21.552</v>
+        <v>22.610299999999999</v>
       </c>
       <c r="AU16">
-        <v>22.491</v>
+        <v>22.522300000000001</v>
       </c>
       <c r="AV16">
-        <v>21.5321</v>
+        <v>23.110299999999999</v>
       </c>
       <c r="AW16">
-        <v>21.431799999999999</v>
+        <v>22.356200000000001</v>
       </c>
       <c r="AX16">
-        <v>21.354800000000001</v>
+        <v>22.2926</v>
       </c>
       <c r="AY16">
-        <v>21.203700000000001</v>
+        <v>22.2651</v>
       </c>
       <c r="AZ16">
-        <v>21.119900000000001</v>
+        <v>22.1294</v>
       </c>
       <c r="BA16">
-        <v>21.123000000000001</v>
+        <v>22.078700000000001</v>
       </c>
       <c r="BB16">
-        <v>21.062100000000001</v>
+        <v>22.076799999999999</v>
       </c>
       <c r="BC16">
-        <v>21.010400000000001</v>
+        <v>22.0549</v>
       </c>
       <c r="BD16">
-        <v>22.056000000000001</v>
+        <v>22.005500000000001</v>
       </c>
       <c r="BE16">
-        <v>21.951899999999998</v>
+        <v>22.683800000000002</v>
       </c>
       <c r="BF16">
-        <v>21.8126</v>
+        <v>22.612500000000001</v>
       </c>
       <c r="BG16">
-        <v>21.775700000000001</v>
+        <v>22.5335</v>
       </c>
       <c r="BH16">
-        <v>21.6386</v>
+        <v>22.5123</v>
       </c>
       <c r="BI16">
-        <v>21.4956</v>
+        <v>22.420100000000001</v>
       </c>
       <c r="BJ16">
-        <v>21.470700000000001</v>
+        <v>22.320399999999999</v>
       </c>
       <c r="BK16">
-        <v>21.371700000000001</v>
+        <v>22.3127</v>
       </c>
       <c r="BL16">
-        <v>21.253900000000002</v>
+        <v>22.239799999999999</v>
       </c>
       <c r="BM16">
-        <v>21.1511</v>
+        <v>22.267499999999998</v>
       </c>
       <c r="BN16">
-        <v>21.0548</v>
+        <v>22.192799999999998</v>
       </c>
       <c r="BO16">
-        <v>20.9101</v>
+        <v>22.059000000000001</v>
       </c>
       <c r="BP16">
-        <v>18.9572</v>
+        <v>21.918800000000001</v>
       </c>
       <c r="BQ16">
-        <v>18.880700000000001</v>
+        <v>20.4892</v>
       </c>
       <c r="BR16">
-        <v>20.814499999999999</v>
+        <v>20.447199999999999</v>
       </c>
       <c r="BS16">
-        <v>20.7974</v>
+        <v>21.8</v>
       </c>
       <c r="BT16">
-        <v>20.746400000000001</v>
+        <v>21.795999999999999</v>
       </c>
       <c r="BU16">
-        <v>20.646599999999999</v>
+        <v>21.7607</v>
       </c>
       <c r="BV16">
-        <v>20.595500000000001</v>
+        <v>21.696200000000001</v>
       </c>
       <c r="BW16">
-        <v>20.540400000000002</v>
+        <v>21.706900000000001</v>
       </c>
       <c r="BX16">
-        <v>20.492799999999999</v>
+        <v>21.699300000000001</v>
       </c>
       <c r="BY16">
-        <v>20.4434</v>
+        <v>21.648900000000001</v>
       </c>
       <c r="BZ16">
-        <v>20.447099999999999</v>
+        <v>21.637599999999999</v>
       </c>
       <c r="CA16">
-        <v>20.4072</v>
-      </c>
-    </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>21.649000000000001</v>
+      </c>
+      <c r="CB16">
+        <v>21.6572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>22.230038461538459</v>
-      </c>
-      <c r="B17">
-        <v>32.622</v>
+        <v>23.201952564102573</v>
       </c>
       <c r="C17">
-        <v>31.391500000000001</v>
+        <v>33.332500000000003</v>
       </c>
       <c r="D17">
-        <v>27.361000000000001</v>
+        <v>32.733499999999999</v>
       </c>
       <c r="E17">
-        <v>27.567599999999999</v>
+        <v>28.7425</v>
       </c>
       <c r="F17">
-        <v>27.021000000000001</v>
+        <v>28.465199999999999</v>
       </c>
       <c r="G17">
-        <v>26.248699999999999</v>
+        <v>27.621700000000001</v>
       </c>
       <c r="H17">
-        <v>25.5733</v>
+        <v>26.883500000000002</v>
       </c>
       <c r="I17">
-        <v>24.801100000000002</v>
+        <v>26.450099999999999</v>
       </c>
       <c r="J17">
-        <v>23.456600000000002</v>
+        <v>25.450500000000002</v>
       </c>
       <c r="K17">
-        <v>25.298400000000001</v>
+        <v>24.2408</v>
       </c>
       <c r="L17">
-        <v>24.541799999999999</v>
+        <v>25.570699999999999</v>
       </c>
       <c r="M17">
-        <v>23.444900000000001</v>
+        <v>25.108799999999999</v>
       </c>
       <c r="N17">
-        <v>24.025200000000002</v>
+        <v>24.335799999999999</v>
       </c>
       <c r="O17">
-        <v>22.9452</v>
+        <v>24.669499999999999</v>
       </c>
       <c r="P17">
-        <v>23.509499999999999</v>
+        <v>23.741299999999999</v>
       </c>
       <c r="Q17">
-        <v>22.6816</v>
+        <v>24.187100000000001</v>
       </c>
       <c r="R17">
-        <v>20.933700000000002</v>
+        <v>23.688300000000002</v>
       </c>
       <c r="S17">
-        <v>23.543500000000002</v>
+        <v>22.102799999999998</v>
       </c>
       <c r="T17">
-        <v>22.927</v>
+        <v>24.036100000000001</v>
       </c>
       <c r="U17">
-        <v>21.726299999999998</v>
+        <v>23.706299999999999</v>
       </c>
       <c r="V17">
-        <v>23.4315</v>
+        <v>22.9114</v>
       </c>
       <c r="W17">
-        <v>22.921800000000001</v>
+        <v>23.946200000000001</v>
       </c>
       <c r="X17">
-        <v>22.4299</v>
+        <v>23.603999999999999</v>
       </c>
       <c r="Y17">
-        <v>21.867999999999999</v>
+        <v>23.254899999999999</v>
       </c>
       <c r="Z17">
-        <v>23.272099999999998</v>
+        <v>23.0245</v>
       </c>
       <c r="AA17">
-        <v>20.664899999999999</v>
+        <v>23.872</v>
       </c>
       <c r="AB17">
-        <v>20.513000000000002</v>
+        <v>21.863900000000001</v>
       </c>
       <c r="AC17">
-        <v>22.1004</v>
+        <v>21.830400000000001</v>
       </c>
       <c r="AD17">
-        <v>21.845099999999999</v>
+        <v>22.983799999999999</v>
       </c>
       <c r="AE17">
-        <v>21.581900000000001</v>
+        <v>22.817900000000002</v>
       </c>
       <c r="AF17">
-        <v>20.697299999999998</v>
+        <v>22.644600000000001</v>
       </c>
       <c r="AG17">
-        <v>20.477399999999999</v>
+        <v>21.8446</v>
       </c>
       <c r="AH17">
-        <v>20.465</v>
+        <v>21.7683</v>
       </c>
       <c r="AI17">
-        <v>20.266400000000001</v>
+        <v>21.883099999999999</v>
       </c>
       <c r="AJ17">
-        <v>22.740100000000002</v>
+        <v>21.7239</v>
       </c>
       <c r="AK17">
-        <v>22.5564</v>
+        <v>23.477799999999998</v>
       </c>
       <c r="AL17">
-        <v>22.215</v>
+        <v>23.3979</v>
       </c>
       <c r="AM17">
-        <v>21.979600000000001</v>
+        <v>23.133400000000002</v>
       </c>
       <c r="AN17">
-        <v>19.370799999999999</v>
+        <v>22.9724</v>
       </c>
       <c r="AO17">
-        <v>21.929600000000001</v>
+        <v>20.9801</v>
       </c>
       <c r="AP17">
-        <v>21.812999999999999</v>
+        <v>22.764399999999998</v>
       </c>
       <c r="AQ17">
-        <v>21.751000000000001</v>
+        <v>22.657699999999998</v>
       </c>
       <c r="AR17">
-        <v>21.6648</v>
+        <v>22.606400000000001</v>
       </c>
       <c r="AS17">
-        <v>21.474299999999999</v>
+        <v>22.528099999999998</v>
       </c>
       <c r="AT17">
-        <v>21.380099999999999</v>
+        <v>22.441299999999998</v>
       </c>
       <c r="AU17">
-        <v>22.476199999999999</v>
+        <v>22.3811</v>
       </c>
       <c r="AV17">
-        <v>22.380800000000001</v>
+        <v>23.113299999999999</v>
       </c>
       <c r="AW17">
-        <v>22.211400000000001</v>
+        <v>23.0625</v>
       </c>
       <c r="AX17">
-        <v>22.047899999999998</v>
+        <v>22.9558</v>
       </c>
       <c r="AY17">
-        <v>20.685700000000001</v>
+        <v>22.839600000000001</v>
       </c>
       <c r="AZ17">
-        <v>20.622599999999998</v>
+        <v>21.765999999999998</v>
       </c>
       <c r="BA17">
-        <v>20.628399999999999</v>
+        <v>21.729900000000001</v>
       </c>
       <c r="BB17">
-        <v>20.5929</v>
+        <v>21.753499999999999</v>
       </c>
       <c r="BC17">
-        <v>20.558599999999998</v>
+        <v>21.745000000000001</v>
       </c>
       <c r="BD17">
-        <v>21.690100000000001</v>
+        <v>21.7058</v>
       </c>
       <c r="BE17">
-        <v>21.574999999999999</v>
+        <v>22.448699999999999</v>
       </c>
       <c r="BF17">
-        <v>21.433299999999999</v>
+        <v>22.369499999999999</v>
       </c>
       <c r="BG17">
-        <v>21.382100000000001</v>
+        <v>22.2943</v>
       </c>
       <c r="BH17">
-        <v>21.262</v>
+        <v>22.263200000000001</v>
       </c>
       <c r="BI17">
-        <v>21.1326</v>
+        <v>22.1845</v>
       </c>
       <c r="BJ17">
-        <v>21.121600000000001</v>
+        <v>22.088799999999999</v>
       </c>
       <c r="BK17">
-        <v>21.0398</v>
+        <v>22.080300000000001</v>
       </c>
       <c r="BL17">
-        <v>20.946000000000002</v>
+        <v>22.020099999999999</v>
       </c>
       <c r="BM17">
-        <v>20.853300000000001</v>
+        <v>22.045000000000002</v>
       </c>
       <c r="BN17">
-        <v>20.7256</v>
+        <v>21.982900000000001</v>
       </c>
       <c r="BO17">
-        <v>20.606200000000001</v>
+        <v>21.855599999999999</v>
       </c>
       <c r="BP17">
-        <v>20.596399999999999</v>
+        <v>21.7332</v>
       </c>
       <c r="BQ17">
-        <v>20.504100000000001</v>
+        <v>21.732700000000001</v>
       </c>
       <c r="BR17">
-        <v>21.559100000000001</v>
+        <v>21.683700000000002</v>
       </c>
       <c r="BS17">
-        <v>21.516500000000001</v>
+        <v>22.408200000000001</v>
       </c>
       <c r="BT17">
-        <v>20.264600000000002</v>
+        <v>22.398</v>
       </c>
       <c r="BU17">
-        <v>20.170100000000001</v>
+        <v>21.450099999999999</v>
       </c>
       <c r="BV17">
-        <v>20.131399999999999</v>
+        <v>21.389900000000001</v>
       </c>
       <c r="BW17">
-        <v>20.107600000000001</v>
+        <v>21.408000000000001</v>
       </c>
       <c r="BX17">
-        <v>20.063700000000001</v>
+        <v>21.4072</v>
       </c>
       <c r="BY17">
-        <v>20.0169</v>
+        <v>21.360099999999999</v>
       </c>
       <c r="BZ17">
-        <v>20.0244</v>
+        <v>21.351199999999999</v>
       </c>
       <c r="CA17">
-        <v>19.986799999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>21.366399999999999</v>
+      </c>
+      <c r="CB17">
+        <v>21.3782</v>
+      </c>
+    </row>
+    <row r="18" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>22.225641025641021</v>
-      </c>
-      <c r="B18">
-        <v>33.761499999999998</v>
+        <v>23.2016717948718</v>
       </c>
       <c r="C18">
-        <v>29.2607</v>
+        <v>33.916200000000003</v>
       </c>
       <c r="D18">
-        <v>27.361000000000001</v>
+        <v>30.2653</v>
       </c>
       <c r="E18">
-        <v>27.2806</v>
+        <v>28.7425</v>
       </c>
       <c r="F18">
-        <v>27.5365</v>
+        <v>28.1341</v>
       </c>
       <c r="G18">
-        <v>26.481200000000001</v>
+        <v>27.847300000000001</v>
       </c>
       <c r="H18">
-        <v>24.803699999999999</v>
+        <v>27.290099999999999</v>
       </c>
       <c r="I18">
-        <v>24.801100000000002</v>
+        <v>25.7987</v>
       </c>
       <c r="J18">
-        <v>23.4955</v>
+        <v>25.450500000000002</v>
       </c>
       <c r="K18">
-        <v>25.260200000000001</v>
+        <v>24.360199999999999</v>
       </c>
       <c r="L18">
-        <v>24.444500000000001</v>
+        <v>25.567900000000002</v>
       </c>
       <c r="M18">
-        <v>23.626000000000001</v>
+        <v>24.970500000000001</v>
       </c>
       <c r="N18">
-        <v>24.560099999999998</v>
+        <v>24.379799999999999</v>
       </c>
       <c r="O18">
-        <v>23.078399999999998</v>
+        <v>24.8919</v>
       </c>
       <c r="P18">
-        <v>22.687100000000001</v>
+        <v>23.890999999999998</v>
       </c>
       <c r="Q18">
-        <v>23.73</v>
+        <v>23.814399999999999</v>
       </c>
       <c r="R18">
-        <v>22.569299999999998</v>
+        <v>24.317399999999999</v>
       </c>
       <c r="S18">
-        <v>23.530200000000001</v>
+        <v>23.505299999999998</v>
       </c>
       <c r="T18">
-        <v>21.152999999999999</v>
+        <v>24.008299999999998</v>
       </c>
       <c r="U18">
-        <v>22.872499999999999</v>
+        <v>22.4802</v>
       </c>
       <c r="V18">
-        <v>22.610700000000001</v>
+        <v>23.708300000000001</v>
       </c>
       <c r="W18">
-        <v>22.183900000000001</v>
+        <v>23.2913</v>
       </c>
       <c r="X18">
-        <v>23.284700000000001</v>
+        <v>23.1905</v>
       </c>
       <c r="Y18">
-        <v>20.8276</v>
+        <v>23.8446</v>
       </c>
       <c r="Z18">
-        <v>22.644600000000001</v>
+        <v>22.203499999999998</v>
       </c>
       <c r="AA18">
-        <v>22.219100000000001</v>
+        <v>23.361599999999999</v>
       </c>
       <c r="AB18">
-        <v>21.869299999999999</v>
+        <v>23.132400000000001</v>
       </c>
       <c r="AC18">
-        <v>21.4407</v>
+        <v>22.840699999999998</v>
       </c>
       <c r="AD18">
-        <v>21.2897</v>
+        <v>22.4681</v>
       </c>
       <c r="AE18">
-        <v>21.0929</v>
+        <v>22.4267</v>
       </c>
       <c r="AF18">
-        <v>22.560099999999998</v>
+        <v>22.356400000000001</v>
       </c>
       <c r="AG18">
-        <v>22.2819</v>
+        <v>23.296600000000002</v>
       </c>
       <c r="AH18">
-        <v>19.847100000000001</v>
+        <v>23.150600000000001</v>
       </c>
       <c r="AI18">
-        <v>19.7103</v>
+        <v>21.311399999999999</v>
       </c>
       <c r="AJ18">
-        <v>21.943999999999999</v>
+        <v>21.232299999999999</v>
       </c>
       <c r="AK18">
-        <v>21.843499999999999</v>
+        <v>22.840900000000001</v>
       </c>
       <c r="AL18">
-        <v>21.540099999999999</v>
+        <v>22.821300000000001</v>
       </c>
       <c r="AM18">
-        <v>21.325700000000001</v>
+        <v>22.6127</v>
       </c>
       <c r="AN18">
-        <v>21.143999999999998</v>
+        <v>22.490300000000001</v>
       </c>
       <c r="AO18">
-        <v>22.633700000000001</v>
+        <v>22.338899999999999</v>
       </c>
       <c r="AP18">
-        <v>21.3155</v>
+        <v>23.347000000000001</v>
       </c>
       <c r="AQ18">
-        <v>21.276900000000001</v>
+        <v>22.284500000000001</v>
       </c>
       <c r="AR18">
-        <v>21.179200000000002</v>
+        <v>22.2578</v>
       </c>
       <c r="AS18">
-        <v>21.003499999999999</v>
+        <v>22.187799999999999</v>
       </c>
       <c r="AT18">
-        <v>20.928000000000001</v>
+        <v>22.125299999999999</v>
       </c>
       <c r="AU18">
-        <v>22.237400000000001</v>
+        <v>22.087599999999998</v>
       </c>
       <c r="AV18">
-        <v>22.177</v>
+        <v>22.9633</v>
       </c>
       <c r="AW18">
-        <v>22.030100000000001</v>
+        <v>22.944800000000001</v>
       </c>
       <c r="AX18">
-        <v>21.892800000000001</v>
+        <v>22.865300000000001</v>
       </c>
       <c r="AY18">
-        <v>21.692</v>
+        <v>22.778300000000002</v>
       </c>
       <c r="AZ18">
-        <v>21.555700000000002</v>
+        <v>22.6037</v>
       </c>
       <c r="BA18">
-        <v>21.502600000000001</v>
+        <v>22.5075</v>
       </c>
       <c r="BB18">
-        <v>20.0322</v>
+        <v>22.470600000000001</v>
       </c>
       <c r="BC18">
-        <v>20.0031</v>
+        <v>21.326699999999999</v>
       </c>
       <c r="BD18">
-        <v>21.300599999999999</v>
+        <v>21.2957</v>
       </c>
       <c r="BE18">
-        <v>21.211200000000002</v>
+        <v>22.192399999999999</v>
       </c>
       <c r="BF18">
-        <v>21.087800000000001</v>
+        <v>22.1309</v>
       </c>
       <c r="BG18">
-        <v>21.054600000000001</v>
+        <v>22.068200000000001</v>
       </c>
       <c r="BH18">
-        <v>20.9435</v>
+        <v>22.053000000000001</v>
       </c>
       <c r="BI18">
-        <v>20.820399999999999</v>
+        <v>21.9788</v>
       </c>
       <c r="BJ18">
-        <v>20.815300000000001</v>
+        <v>21.894500000000001</v>
       </c>
       <c r="BK18">
-        <v>20.741900000000001</v>
+        <v>21.9009</v>
       </c>
       <c r="BL18">
-        <v>20.654199999999999</v>
+        <v>21.846699999999998</v>
       </c>
       <c r="BM18">
-        <v>20.5761</v>
+        <v>21.893599999999999</v>
       </c>
       <c r="BN18">
-        <v>20.471900000000002</v>
+        <v>21.8414</v>
       </c>
       <c r="BO18">
-        <v>20.362500000000001</v>
+        <v>21.723600000000001</v>
       </c>
       <c r="BP18">
-        <v>20.3566</v>
+        <v>21.6112</v>
       </c>
       <c r="BQ18">
-        <v>20.269200000000001</v>
+        <v>21.613299999999999</v>
       </c>
       <c r="BR18">
-        <v>21.611000000000001</v>
+        <v>21.565999999999999</v>
       </c>
       <c r="BS18">
-        <v>21.575900000000001</v>
+        <v>22.4833</v>
       </c>
       <c r="BT18">
-        <v>21.502199999999998</v>
+        <v>22.476400000000002</v>
       </c>
       <c r="BU18">
-        <v>21.405200000000001</v>
+        <v>22.423300000000001</v>
       </c>
       <c r="BV18">
-        <v>21.336300000000001</v>
+        <v>22.357800000000001</v>
       </c>
       <c r="BW18">
-        <v>21.306799999999999</v>
+        <v>22.3522</v>
       </c>
       <c r="BX18">
-        <v>19.732299999999999</v>
+        <v>22.345099999999999</v>
       </c>
       <c r="BY18">
-        <v>19.6889</v>
+        <v>21.085100000000001</v>
       </c>
       <c r="BZ18">
-        <v>19.699100000000001</v>
+        <v>21.081099999999999</v>
       </c>
       <c r="CA18">
-        <v>19.663799999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>21.098099999999999</v>
+      </c>
+      <c r="CB18">
+        <v>21.116900000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>22.269610256410253</v>
-      </c>
-      <c r="B19">
-        <v>32.203299999999999</v>
+        <v>23.235911538461547</v>
       </c>
       <c r="C19">
-        <v>31.391500000000001</v>
+        <v>33.253399999999999</v>
       </c>
       <c r="D19">
-        <v>27.361000000000001</v>
+        <v>32.733499999999999</v>
       </c>
       <c r="E19">
-        <v>26.372299999999999</v>
+        <v>28.7425</v>
       </c>
       <c r="F19">
-        <v>26.927199999999999</v>
+        <v>27.378799999999998</v>
       </c>
       <c r="G19">
-        <v>26.5457</v>
+        <v>27.491700000000002</v>
       </c>
       <c r="H19">
-        <v>24.803699999999999</v>
+        <v>27.252800000000001</v>
       </c>
       <c r="I19">
-        <v>24.801100000000002</v>
+        <v>25.7987</v>
       </c>
       <c r="J19">
-        <v>24.220099999999999</v>
+        <v>25.450500000000002</v>
       </c>
       <c r="K19">
-        <v>25.205100000000002</v>
+        <v>24.969100000000001</v>
       </c>
       <c r="L19">
-        <v>23.2377</v>
+        <v>25.5579</v>
       </c>
       <c r="M19">
-        <v>22.855499999999999</v>
+        <v>23.889700000000001</v>
       </c>
       <c r="N19">
-        <v>24.025200000000002</v>
+        <v>23.822800000000001</v>
       </c>
       <c r="O19">
-        <v>24.138000000000002</v>
+        <v>24.669499999999999</v>
       </c>
       <c r="P19">
-        <v>23.1235</v>
+        <v>24.446000000000002</v>
       </c>
       <c r="Q19">
-        <v>22.6767</v>
+        <v>24.088200000000001</v>
       </c>
       <c r="R19">
-        <v>23.489799999999999</v>
+        <v>23.664200000000001</v>
       </c>
       <c r="S19">
-        <v>23.543500000000002</v>
+        <v>24.053899999999999</v>
       </c>
       <c r="T19">
-        <v>22.927</v>
+        <v>24.036100000000001</v>
       </c>
       <c r="U19">
-        <v>21.726299999999998</v>
+        <v>23.706299999999999</v>
       </c>
       <c r="V19">
-        <v>23.4315</v>
+        <v>22.9114</v>
       </c>
       <c r="W19">
-        <v>21.3886</v>
+        <v>23.946200000000001</v>
       </c>
       <c r="X19">
-        <v>22.457599999999999</v>
+        <v>22.477900000000002</v>
       </c>
       <c r="Y19">
-        <v>21.8428</v>
+        <v>23.302499999999998</v>
       </c>
       <c r="Z19">
-        <v>22.000900000000001</v>
+        <v>23.004000000000001</v>
       </c>
       <c r="AA19">
-        <v>21.723700000000001</v>
+        <v>22.862500000000001</v>
       </c>
       <c r="AB19">
-        <v>21.435400000000001</v>
+        <v>22.7745</v>
       </c>
       <c r="AC19">
-        <v>22.581499999999998</v>
+        <v>22.5977</v>
       </c>
       <c r="AD19">
-        <v>20.190799999999999</v>
+        <v>23.367100000000001</v>
       </c>
       <c r="AE19">
-        <v>19.9971</v>
+        <v>21.480399999999999</v>
       </c>
       <c r="AF19">
-        <v>22.1312</v>
+        <v>21.474499999999999</v>
       </c>
       <c r="AG19">
-        <v>21.956399999999999</v>
+        <v>22.9573</v>
       </c>
       <c r="AH19">
-        <v>21.859200000000001</v>
+        <v>22.8825</v>
       </c>
       <c r="AI19">
-        <v>21.587</v>
+        <v>22.839400000000001</v>
       </c>
       <c r="AJ19">
-        <v>21.43</v>
+        <v>22.6051</v>
       </c>
       <c r="AK19">
-        <v>21.379300000000001</v>
+        <v>22.456399999999999</v>
       </c>
       <c r="AL19">
-        <v>21.123100000000001</v>
+        <v>22.469200000000001</v>
       </c>
       <c r="AM19">
-        <v>20.9468</v>
+        <v>22.299600000000002</v>
       </c>
       <c r="AN19">
-        <v>20.823499999999999</v>
+        <v>22.2286</v>
       </c>
       <c r="AO19">
-        <v>22.707999999999998</v>
+        <v>22.126999999999999</v>
       </c>
       <c r="AP19">
-        <v>22.532800000000002</v>
+        <v>23.400300000000001</v>
       </c>
       <c r="AQ19">
-        <v>22.438500000000001</v>
+        <v>23.2105</v>
       </c>
       <c r="AR19">
-        <v>20.073</v>
+        <v>23.125800000000002</v>
       </c>
       <c r="AS19">
-        <v>19.937799999999999</v>
+        <v>21.381</v>
       </c>
       <c r="AT19">
-        <v>19.898499999999999</v>
+        <v>21.338000000000001</v>
       </c>
       <c r="AU19">
-        <v>22.200299999999999</v>
+        <v>21.3262</v>
       </c>
       <c r="AV19">
-        <v>22.1708</v>
+        <v>22.9085</v>
       </c>
       <c r="AW19">
-        <v>22.049199999999999</v>
+        <v>22.909400000000002</v>
       </c>
       <c r="AX19">
-        <v>21.938500000000001</v>
+        <v>22.846699999999998</v>
       </c>
       <c r="AY19">
-        <v>21.764600000000002</v>
+        <v>22.777799999999999</v>
       </c>
       <c r="AZ19">
-        <v>21.645</v>
+        <v>22.6188</v>
       </c>
       <c r="BA19">
-        <v>21.612500000000001</v>
+        <v>22.543099999999999</v>
       </c>
       <c r="BB19">
-        <v>21.4999</v>
+        <v>22.4998</v>
       </c>
       <c r="BC19">
-        <v>21.422899999999998</v>
+        <v>22.435700000000001</v>
       </c>
       <c r="BD19">
-        <v>22.020900000000001</v>
+        <v>22.364699999999999</v>
       </c>
       <c r="BE19">
-        <v>21.149100000000001</v>
+        <v>22.7424</v>
       </c>
       <c r="BF19">
-        <v>21.036000000000001</v>
+        <v>22.075500000000002</v>
       </c>
       <c r="BG19">
-        <v>21.0105</v>
+        <v>22.015699999999999</v>
       </c>
       <c r="BH19">
-        <v>20.909300000000002</v>
+        <v>22.007999999999999</v>
       </c>
       <c r="BI19">
-        <v>20.793800000000001</v>
+        <v>21.936800000000002</v>
       </c>
       <c r="BJ19">
-        <v>20.7958</v>
+        <v>21.858499999999999</v>
       </c>
       <c r="BK19">
-        <v>20.7302</v>
+        <v>21.863</v>
       </c>
       <c r="BL19">
-        <v>20.649899999999999</v>
+        <v>21.810700000000001</v>
       </c>
       <c r="BM19">
-        <v>20.577999999999999</v>
+        <v>21.840900000000001</v>
       </c>
       <c r="BN19">
-        <v>20.4755</v>
+        <v>21.794499999999999</v>
       </c>
       <c r="BO19">
-        <v>20.373799999999999</v>
+        <v>21.684799999999999</v>
       </c>
       <c r="BP19">
-        <v>20.3718</v>
+        <v>21.5777</v>
       </c>
       <c r="BQ19">
-        <v>20.2865</v>
+        <v>21.583300000000001</v>
       </c>
       <c r="BR19">
-        <v>21.273199999999999</v>
+        <v>21.539400000000001</v>
       </c>
       <c r="BS19">
-        <v>21.2456</v>
+        <v>22.168800000000001</v>
       </c>
       <c r="BT19">
-        <v>21.163900000000002</v>
+        <v>22.164400000000001</v>
       </c>
       <c r="BU19">
-        <v>21.072399999999998</v>
+        <v>22.096900000000002</v>
       </c>
       <c r="BV19">
-        <v>21.0047</v>
+        <v>22.033799999999999</v>
       </c>
       <c r="BW19">
-        <v>20.980899999999998</v>
+        <v>22.036000000000001</v>
       </c>
       <c r="BX19">
-        <v>20.915199999999999</v>
+        <v>22.0336</v>
       </c>
       <c r="BY19">
-        <v>20.8444</v>
+        <v>21.966699999999999</v>
       </c>
       <c r="BZ19">
-        <v>20.8294</v>
+        <v>21.944500000000001</v>
       </c>
       <c r="CA19">
-        <v>20.765899999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>21.936</v>
+      </c>
+      <c r="CB19">
+        <v>21.933499999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>17.424076923076921</v>
-      </c>
-    </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>18.70271923076923</v>
+      </c>
+    </row>
+    <row r="22" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>19.524566666666665</v>
-      </c>
-    </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>20.604462820512815</v>
+      </c>
+    </row>
+    <row r="23" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>21.162324358974363</v>
-      </c>
-    </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>22.05299358974359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>21.356592307692306</v>
-      </c>
-    </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>22.2686358974359</v>
+      </c>
+    </row>
+    <row r="25" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>21.681301282051276</v>
-      </c>
-    </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>22.626719230769229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>21.610056410256405</v>
-      </c>
-    </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>22.577556410256406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>21.583179487179482</v>
-      </c>
-    </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>22.58837435897436</v>
+      </c>
+    </row>
+    <row r="28" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>21.685924358974351</v>
-      </c>
-    </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>22.715671794871803</v>
+      </c>
+    </row>
+    <row r="29" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>21.886028205128202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>22.869305128205134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>21.907441025641017</v>
-      </c>
-    </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>22.866880769230768</v>
+      </c>
+    </row>
+    <row r="31" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>22.250744871794865</v>
-      </c>
-    </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>23.191111538461534</v>
+      </c>
+    </row>
+    <row r="32" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>22.09656923076923</v>
+        <v>23.057949999999998</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>22.213021794871793</v>
+        <v>23.15691794871795</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>22.138048717948717</v>
+        <v>23.094370512820522</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>22.132010256410247</v>
+        <v>23.102773076923068</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>22.181011538461544</v>
+        <v>23.133152564102573</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>22.230038461538459</v>
+        <v>23.201952564102573</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>22.225641025641021</v>
+        <v>23.2016717948718</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>22.269610256410253</v>
+        <v>23.235911538461547</v>
       </c>
     </row>
   </sheetData>
@@ -7777,7 +8031,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7807,17 +8061,17 @@
         <v>17.253294871794871</v>
       </c>
       <c r="C2">
-        <v>18.71011025641026</v>
+        <v>18.453942307692305</v>
       </c>
       <c r="D2">
-        <v>18.202525641025641</v>
+        <v>18.013282051282058</v>
       </c>
       <c r="E2">
-        <v>16.525966666666669</v>
+        <v>16.401583333333335</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2:E2)</f>
-        <v>17.672974358974358</v>
+        <v>17.530525641025644</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7828,17 +8082,17 @@
         <v>18.761292307692308</v>
       </c>
       <c r="C3">
-        <v>20.230378205128201</v>
+        <v>19.925142307692298</v>
       </c>
       <c r="D3">
-        <v>19.611088461538458</v>
+        <v>19.676642307692319</v>
       </c>
       <c r="E3">
-        <v>18.049326923076922</v>
+        <v>17.89674358974359</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>19.16302147435897</v>
+        <v>19.064955128205128</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7849,17 +8103,17 @@
         <v>20.242708974358973</v>
       </c>
       <c r="C4">
-        <v>21.55700384615384</v>
+        <v>21.261880769230771</v>
       </c>
       <c r="D4">
-        <v>21.169797435897433</v>
+        <v>21.335130769230776</v>
       </c>
       <c r="E4">
-        <v>19.397273076923081</v>
+        <v>19.333992307692306</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>20.591695833333333</v>
+        <v>20.543428205128208</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7870,17 +8124,17 @@
         <v>21.163937179487178</v>
       </c>
       <c r="C5">
-        <v>21.975912820512821</v>
+        <v>22.053950000000007</v>
       </c>
       <c r="D5">
-        <v>21.813632051282056</v>
+        <v>22.393071794871801</v>
       </c>
       <c r="E5">
-        <v>19.954435897435889</v>
+        <v>20.284064102564106</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>21.226979487179484</v>
+        <v>21.473755769230774</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7891,17 +8145,17 @@
         <v>21.782107692307694</v>
       </c>
       <c r="C6">
-        <v>22.494923076923076</v>
+        <v>22.616315384615383</v>
       </c>
       <c r="D6">
-        <v>22.348226923076918</v>
+        <v>23.08565256410256</v>
       </c>
       <c r="E6">
-        <v>20.44518076923077</v>
+        <v>20.950020512820515</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>21.767609615384615</v>
+        <v>22.108524038461539</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7912,17 +8166,17 @@
         <v>21.946578205128208</v>
       </c>
       <c r="C7">
-        <v>22.52087564102564</v>
+        <v>22.745073076923077</v>
       </c>
       <c r="D7">
-        <v>22.324979487179483</v>
+        <v>23.269346153846161</v>
       </c>
       <c r="E7">
-        <v>20.42975384615384</v>
+        <v>21.117741025641028</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>21.805546794871791</v>
+        <v>22.269684615384616</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7933,17 +8187,17 @@
         <v>22.158261538461534</v>
       </c>
       <c r="C8">
-        <v>22.506449999999994</v>
+        <v>22.985451282051283</v>
       </c>
       <c r="D8">
-        <v>22.32355128205128</v>
+        <v>23.505617948717955</v>
       </c>
       <c r="E8">
-        <v>20.435228205128219</v>
+        <v>21.339730769230769</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>21.855872756410257</v>
+        <v>22.497265384615385</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7954,17 +8208,17 @@
         <v>22.150012820512814</v>
       </c>
       <c r="C9">
-        <v>22.561367948717937</v>
+        <v>23.035896153846149</v>
       </c>
       <c r="D9">
-        <v>22.346230769230758</v>
+        <v>23.520666666666664</v>
       </c>
       <c r="E9">
-        <v>20.485741025641016</v>
+        <v>21.331012820512825</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>21.885838141025634</v>
+        <v>22.509397115384616</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7975,17 +8229,17 @@
         <v>22.131617948717956</v>
       </c>
       <c r="C10">
-        <v>22.991923076923069</v>
+        <v>23.030274358974367</v>
       </c>
       <c r="D10">
-        <v>22.877294871794877</v>
+        <v>23.523074358974355</v>
       </c>
       <c r="E10">
-        <v>20.9796858974359</v>
+        <v>21.361220512820523</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>22.245130448717951</v>
+        <v>22.511546794871801</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7996,17 +8250,17 @@
         <v>22.252411538461544</v>
       </c>
       <c r="C11">
-        <v>22.838315384615377</v>
+        <v>23.112871794871797</v>
       </c>
       <c r="D11">
-        <v>22.712916666666665</v>
+        <v>23.636967948717945</v>
       </c>
       <c r="E11">
-        <v>20.826187179487189</v>
+        <v>21.483228205128206</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>22.157457692307695</v>
+        <v>22.621369871794869</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8017,17 +8271,17 @@
         <v>22.448432051282055</v>
       </c>
       <c r="C12">
-        <v>22.928392307692306</v>
+        <v>23.374560256410259</v>
       </c>
       <c r="D12">
-        <v>22.777638461538459</v>
+        <v>23.917843589743587</v>
       </c>
       <c r="E12">
-        <v>20.868193589743591</v>
+        <v>21.716389743589744</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>22.255664102564104</v>
+        <v>22.864306410256411</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8038,17 +8292,17 @@
         <v>22.350983333333335</v>
       </c>
       <c r="C13">
-        <v>22.945411538461535</v>
+        <v>23.273906410256398</v>
       </c>
       <c r="D13">
-        <v>22.766975641025642</v>
+        <v>23.833714102564098</v>
       </c>
       <c r="E13">
-        <v>20.871955128205133</v>
+        <v>21.621857692307692</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>22.233831410256411</v>
+        <v>22.77011538461538</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8059,17 +8313,17 @@
         <v>22.459611538461541</v>
       </c>
       <c r="C14">
-        <v>23.009396153846154</v>
+        <v>23.34955128205128</v>
       </c>
       <c r="D14">
-        <v>22.85979102564102</v>
+        <v>23.9473076923077</v>
       </c>
       <c r="E14">
-        <v>20.941088461538463</v>
+        <v>21.725589743589744</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>22.317471794871793</v>
+        <v>22.87051506410257</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8080,17 +8334,17 @@
         <v>22.447361538461543</v>
       </c>
       <c r="C15">
-        <v>23.014714102564099</v>
+        <v>23.334388461538456</v>
       </c>
       <c r="D15">
-        <v>22.872474358974358</v>
+        <v>23.924157692307695</v>
       </c>
       <c r="E15">
-        <v>20.983479487179491</v>
+        <v>21.713901282051285</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>22.329507371794875</v>
+        <v>22.854952243589747</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8101,17 +8355,17 @@
         <v>22.577651282051281</v>
       </c>
       <c r="C16">
-        <v>23.051033333333329</v>
+        <v>23.482935897435894</v>
       </c>
       <c r="D16">
-        <v>22.915138461538465</v>
+        <v>24.074271794871791</v>
       </c>
       <c r="E16">
-        <v>21.033491025641034</v>
+        <v>21.867551282051288</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>22.394328525641029</v>
+        <v>23.000602564102564</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8122,17 +8376,17 @@
         <v>22.581915384615389</v>
       </c>
       <c r="C17">
-        <v>23.113273076923086</v>
+        <v>23.507856410256409</v>
       </c>
       <c r="D17">
-        <v>22.979337179487182</v>
+        <v>24.093939743589747</v>
       </c>
       <c r="E17">
-        <v>21.08895256410257</v>
+        <v>21.870869230769227</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>22.440869551282059</v>
+        <v>23.013645192307692</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8143,17 +8397,17 @@
         <v>22.600052564102562</v>
       </c>
       <c r="C18">
-        <v>23.145735897435898</v>
+        <v>23.525330769230766</v>
       </c>
       <c r="D18">
-        <v>23.013755128205119</v>
+        <v>24.108657692307695</v>
       </c>
       <c r="E18">
-        <v>21.088779487179487</v>
+        <v>21.884011538461543</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>22.462080769230766</v>
+        <v>23.029513141025646</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8164,17 +8418,17 @@
         <v>22.510106410256419</v>
       </c>
       <c r="C19">
-        <v>23.125800000000005</v>
+        <v>23.455717948717936</v>
       </c>
       <c r="D19">
-        <v>22.986397435897434</v>
+        <v>24.031055128205132</v>
       </c>
       <c r="E19">
-        <v>21.061224358974361</v>
+        <v>21.798061538461546</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>22.420882051282053</v>
+        <v>22.948735256410259</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8185,17 +8439,17 @@
         <v>22.570292307692313</v>
       </c>
       <c r="C20">
-        <v>23.024325641025644</v>
+        <v>23.494338461538458</v>
       </c>
       <c r="D20">
-        <v>22.893894871794874</v>
+        <v>24.105023076923082</v>
       </c>
       <c r="E20">
-        <v>20.984062820512822</v>
+        <v>21.877282051282055</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>22.368143910256411</v>
+        <v>23.011733974358979</v>
       </c>
     </row>
   </sheetData>
@@ -8209,7 +8463,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8239,17 +8493,17 @@
         <v>17.320535897435896</v>
       </c>
       <c r="C2">
-        <v>17.83108076923077</v>
+        <v>18.470992307692306</v>
       </c>
       <c r="D2">
-        <v>17.101942307692315</v>
+        <v>18.005941025641018</v>
       </c>
       <c r="E2">
-        <v>15.589097435897433</v>
+        <v>16.398184615384618</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2:E2)</f>
-        <v>16.960664102564103</v>
+        <v>17.548913461538461</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8260,17 +8514,17 @@
         <v>19.335057692307689</v>
       </c>
       <c r="C3">
-        <v>19.130451282051286</v>
+        <v>20.388882051282046</v>
       </c>
       <c r="D3">
-        <v>18.314465384615385</v>
+        <v>20.04643333333334</v>
       </c>
       <c r="E3">
-        <v>16.794016666666664</v>
+        <v>18.341429487179486</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>18.393497756410255</v>
+        <v>19.52795064102564</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8281,17 +8535,17 @@
         <v>21.289457692307693</v>
       </c>
       <c r="C4">
-        <v>19.924389743589739</v>
+        <v>22.135055128205135</v>
       </c>
       <c r="D4">
-        <v>19.199507692307687</v>
+        <v>22.052061538461537</v>
       </c>
       <c r="E4">
-        <v>17.555880769230775</v>
+        <v>20.231620512820506</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>19.492308974358977</v>
+        <v>21.427048717948722</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8302,17 +8556,17 @@
         <v>21.943451282051278</v>
       </c>
       <c r="C5">
-        <v>19.479488461538459</v>
+        <v>22.700187179487184</v>
       </c>
       <c r="D5">
-        <v>18.78740256410256</v>
+        <v>22.817005128205132</v>
       </c>
       <c r="E5">
-        <v>17.077323076923076</v>
+        <v>20.876708974358976</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>19.321916346153845</v>
+        <v>22.084338141025643</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8323,17 +8577,17 @@
         <v>22.352580769230777</v>
       </c>
       <c r="C6">
-        <v>19.474808974358975</v>
+        <v>23.092815384615378</v>
       </c>
       <c r="D6">
-        <v>18.802602564102571</v>
+        <v>23.259889743589735</v>
       </c>
       <c r="E6">
-        <v>17.079720512820511</v>
+        <v>21.304211538461534</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>19.427428205128209</v>
+        <v>22.502374358974354</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8344,17 +8598,17 @@
         <v>22.45359615384616</v>
       </c>
       <c r="C7">
-        <v>19.367552564102557</v>
+        <v>23.139503846153836</v>
       </c>
       <c r="D7">
-        <v>18.702524358974365</v>
+        <v>23.364146153846157</v>
       </c>
       <c r="E7">
-        <v>16.958207692307692</v>
+        <v>21.368230769230777</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>19.370470192307693</v>
+        <v>22.58136923076923</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8365,17 +8619,17 @@
         <v>22.530766666666661</v>
       </c>
       <c r="C8">
-        <v>19.212474358974369</v>
+        <v>23.181817948717956</v>
       </c>
       <c r="D8">
-        <v>18.587555128205128</v>
+        <v>23.406020512820522</v>
       </c>
       <c r="E8">
-        <v>16.825442307692303</v>
+        <v>21.437376923076926</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>19.289059615384613</v>
+        <v>22.638995512820514</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8386,17 +8640,17 @@
         <v>22.630825641025638</v>
       </c>
       <c r="C9">
-        <v>19.268508974358969</v>
+        <v>23.373611538461535</v>
       </c>
       <c r="D9">
-        <v>18.610589743589752</v>
+        <v>23.553519230769236</v>
       </c>
       <c r="E9">
-        <v>16.854494871794877</v>
+        <v>21.578101282051282</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>19.341104807692311</v>
+        <v>22.784014423076922</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8407,17 +8661,17 @@
         <v>22.728329487179487</v>
       </c>
       <c r="C10">
-        <v>18.969262820512824</v>
+        <v>23.43054102564103</v>
       </c>
       <c r="D10">
-        <v>18.33422564102564</v>
+        <v>23.646470512820514</v>
       </c>
       <c r="E10">
-        <v>16.598851282051289</v>
+        <v>21.668328205128212</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>19.157667307692311</v>
+        <v>22.868417307692312</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8428,17 +8682,17 @@
         <v>22.879587179487178</v>
       </c>
       <c r="C11">
-        <v>19.327643589743591</v>
+        <v>23.554355128205128</v>
       </c>
       <c r="D11">
-        <v>18.670176923076923</v>
+        <v>23.794941025641037</v>
       </c>
       <c r="E11">
-        <v>16.932942307692311</v>
+        <v>21.824832051282051</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>19.4525875</v>
+        <v>23.01342884615385</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8449,17 +8703,17 @@
         <v>23.156451282051286</v>
       </c>
       <c r="C12">
-        <v>19.465053846153847</v>
+        <v>23.8554423076923</v>
       </c>
       <c r="D12">
-        <v>18.807811538461539</v>
+        <v>24.091611538461535</v>
       </c>
       <c r="E12">
-        <v>17.052066666666668</v>
+        <v>22.133734615384611</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>19.620345833333332</v>
+        <v>23.309309935897431</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8470,17 +8724,17 @@
         <v>23.032457692307698</v>
       </c>
       <c r="C13">
-        <v>19.491047435897432</v>
+        <v>23.785150000000009</v>
       </c>
       <c r="D13">
-        <v>18.837667948717957</v>
+        <v>24.022560256410259</v>
       </c>
       <c r="E13">
-        <v>17.070767948717947</v>
+        <v>22.036524358974361</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>19.607985256410259</v>
+        <v>23.219173076923081</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8491,17 +8745,17 @@
         <v>23.213283333333337</v>
       </c>
       <c r="C14">
-        <v>19.399730769230761</v>
+        <v>23.881464102564102</v>
       </c>
       <c r="D14">
-        <v>18.757085897435903</v>
+        <v>24.176116666666669</v>
       </c>
       <c r="E14">
-        <v>16.991929487179487</v>
+        <v>22.182912820512833</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>19.590507371794871</v>
+        <v>23.363444230769232</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8512,17 +8766,17 @@
         <v>23.0910282051282</v>
       </c>
       <c r="C15">
-        <v>19.314882051282055</v>
+        <v>23.782905128205137</v>
       </c>
       <c r="D15">
-        <v>18.682758974358965</v>
+        <v>24.053761538461533</v>
       </c>
       <c r="E15">
-        <v>16.921912820512826</v>
+        <v>22.078058974358971</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>19.502645512820511</v>
+        <v>23.251438461538459</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8533,17 +8787,17 @@
         <v>23.115894871794882</v>
       </c>
       <c r="C16">
-        <v>19.172696153846157</v>
+        <v>23.775200000000005</v>
       </c>
       <c r="D16">
-        <v>18.544967948717947</v>
+        <v>24.05062692307693</v>
       </c>
       <c r="E16">
-        <v>16.777953846153839</v>
+        <v>22.083264102564101</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>19.402878205128207</v>
+        <v>23.256246474358981</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8554,17 +8808,17 @@
         <v>23.172319230769229</v>
       </c>
       <c r="C17">
-        <v>19.288298717948731</v>
+        <v>23.845310256410251</v>
       </c>
       <c r="D17">
-        <v>18.651207692307693</v>
+        <v>24.114215384615385</v>
       </c>
       <c r="E17">
-        <v>16.878311538461535</v>
+        <v>22.134474358974352</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>19.497534294871798</v>
+        <v>23.316579807692307</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8575,17 +8829,17 @@
         <v>23.250729487179484</v>
       </c>
       <c r="C18">
-        <v>19.302517948717952</v>
+        <v>23.930501282051271</v>
       </c>
       <c r="D18">
-        <v>18.660429487179492</v>
+        <v>24.196307692307695</v>
       </c>
       <c r="E18">
-        <v>16.901944871794871</v>
+        <v>22.22063846153846</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>19.52890544871795</v>
+        <v>23.399544230769227</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8596,17 +8850,17 @@
         <v>23.270728205128215</v>
       </c>
       <c r="C19">
-        <v>19.336151282051286</v>
+        <v>23.988861538461546</v>
       </c>
       <c r="D19">
-        <v>18.695384615384619</v>
+        <v>24.235680769230775</v>
       </c>
       <c r="E19">
-        <v>16.93017051282051</v>
+        <v>22.256548717948728</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>19.558108653846155</v>
+        <v>23.437954807692314</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8617,17 +8871,17 @@
         <v>23.227110256410256</v>
       </c>
       <c r="C20">
-        <v>19.378803846153847</v>
+        <v>23.934205128205136</v>
       </c>
       <c r="D20">
-        <v>18.730633333333337</v>
+        <v>24.207042307692312</v>
       </c>
       <c r="E20">
-        <v>16.969989743589746</v>
+        <v>22.222714102564101</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>19.576634294871795</v>
+        <v>23.397767948717952</v>
       </c>
     </row>
   </sheetData>
@@ -8641,7 +8895,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8671,17 +8925,17 @@
         <v>17.609953846153847</v>
       </c>
       <c r="C2">
-        <v>18.032955128205135</v>
+        <v>18.806237179487173</v>
       </c>
       <c r="D2">
-        <v>17.405703846153848</v>
+        <v>18.317889743589742</v>
       </c>
       <c r="E2">
-        <v>15.703351282051282</v>
+        <v>16.658315384615396</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2:E2)</f>
-        <v>17.187991025641029</v>
+        <v>17.848099038461537</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8692,17 +8946,17 @@
         <v>19.606144871794868</v>
       </c>
       <c r="C3">
-        <v>19.093741025641023</v>
+        <v>20.661576923076915</v>
       </c>
       <c r="D3">
-        <v>18.415767948717946</v>
+        <v>20.310797435897427</v>
       </c>
       <c r="E3">
-        <v>16.751323076923079</v>
+        <v>18.542646153846146</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>18.46674423076923</v>
+        <v>19.780291346153838</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8713,17 +8967,17 @@
         <v>21.538364102564099</v>
       </c>
       <c r="C4">
-        <v>19.795489743589751</v>
+        <v>22.391203846153847</v>
       </c>
       <c r="D4">
-        <v>19.234528205128207</v>
+        <v>22.29946025641026</v>
       </c>
       <c r="E4">
-        <v>17.436566666666661</v>
+        <v>20.395596153846157</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>19.50123717948718</v>
+        <v>21.65615608974359</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8734,17 +8988,17 @@
         <v>22.282489743589736</v>
       </c>
       <c r="C5">
-        <v>19.478237179487191</v>
+        <v>23.064716666666662</v>
       </c>
       <c r="D5">
-        <v>18.954416666666663</v>
+        <v>23.175102564102566</v>
       </c>
       <c r="E5">
-        <v>17.035448717948714</v>
+        <v>21.142097435897433</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>19.437648076923075</v>
+        <v>22.416101602564098</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8755,17 +9009,17 @@
         <v>22.824798717948713</v>
       </c>
       <c r="C6">
-        <v>19.579694871794874</v>
+        <v>23.613851282051286</v>
       </c>
       <c r="D6">
-        <v>19.06886153846154</v>
+        <v>23.795210256410261</v>
       </c>
       <c r="E6">
-        <v>17.13366794871795</v>
+        <v>21.685287179487176</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>19.651755769230768</v>
+        <v>22.979786858974357</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8776,17 +9030,17 @@
         <v>22.975025641025638</v>
       </c>
       <c r="C7">
-        <v>19.534098717948726</v>
+        <v>23.745830769230764</v>
       </c>
       <c r="D7">
-        <v>18.9955</v>
+        <v>23.967520512820517</v>
       </c>
       <c r="E7">
-        <v>17.042760256410254</v>
+        <v>21.820024358974361</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>19.636846153846154</v>
+        <v>23.12710032051282</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8797,17 +9051,17 @@
         <v>23.15025</v>
       </c>
       <c r="C8">
-        <v>19.502125641025646</v>
+        <v>23.917287179487172</v>
       </c>
       <c r="D8">
-        <v>18.996021794871801</v>
+        <v>24.144030769230771</v>
       </c>
       <c r="E8">
-        <v>17.009192307692306</v>
+        <v>22.016865384615393</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>19.664397435897438</v>
+        <v>23.307108333333332</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8818,17 +9072,17 @@
         <v>23.198258974358971</v>
       </c>
       <c r="C9">
-        <v>19.499544871794878</v>
+        <v>24.025633333333332</v>
       </c>
       <c r="D9">
-        <v>18.991742307692302</v>
+        <v>24.224946153846162</v>
       </c>
       <c r="E9">
-        <v>16.99780512820513</v>
+        <v>22.07924487179487</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>19.67183782051282</v>
+        <v>23.382020833333332</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8839,17 +9093,17 @@
         <v>23.319002564102554</v>
       </c>
       <c r="C10">
-        <v>19.311312820512825</v>
+        <v>24.122084615384612</v>
       </c>
       <c r="D10">
-        <v>18.821543589743591</v>
+        <v>24.350339743589746</v>
       </c>
       <c r="E10">
-        <v>16.846573076923075</v>
+        <v>22.194791025641027</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>19.574608012820512</v>
+        <v>23.496554487179484</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8860,17 +9114,17 @@
         <v>23.422184615384619</v>
       </c>
       <c r="C11">
-        <v>19.515412820512818</v>
+        <v>24.181014102564102</v>
       </c>
       <c r="D11">
-        <v>19.021030769230766</v>
+        <v>24.422993589743584</v>
       </c>
       <c r="E11">
-        <v>17.052149999999997</v>
+        <v>22.292764102564099</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>19.752694551282051</v>
+        <v>23.579739102564098</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8881,17 +9135,17 @@
         <v>23.745747435897435</v>
       </c>
       <c r="C12">
-        <v>19.666198717948721</v>
+        <v>24.531176923076924</v>
       </c>
       <c r="D12">
-        <v>19.166125641025644</v>
+        <v>24.7955576923077</v>
       </c>
       <c r="E12">
-        <v>17.195573076923075</v>
+        <v>22.64593846153846</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>19.943411217948722</v>
+        <v>23.929605128205129</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8902,17 +9156,17 @@
         <v>23.569615384615393</v>
       </c>
       <c r="C13">
-        <v>19.667855128205129</v>
+        <v>24.405117948717944</v>
       </c>
       <c r="D13">
-        <v>19.158771794871797</v>
+        <v>24.658589743589754</v>
       </c>
       <c r="E13">
-        <v>17.18198717948718</v>
+        <v>22.487828205128206</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>19.894557371794875</v>
+        <v>23.780287820512825</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8923,17 +9177,17 @@
         <v>23.783110256410257</v>
       </c>
       <c r="C14">
-        <v>19.623806410256421</v>
+        <v>24.542092307692304</v>
       </c>
       <c r="D14">
-        <v>19.130673076923074</v>
+        <v>24.857993589743597</v>
       </c>
       <c r="E14">
-        <v>17.136392307692301</v>
+        <v>22.670885897435905</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>19.918495512820513</v>
+        <v>23.963520512820516</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8944,17 +9198,17 @@
         <v>23.66504358974359</v>
       </c>
       <c r="C15">
-        <v>19.551907692307701</v>
+        <v>24.449293589743593</v>
       </c>
       <c r="D15">
-        <v>19.057625641025645</v>
+        <v>24.748688461538467</v>
       </c>
       <c r="E15">
-        <v>17.073760256410253</v>
+        <v>22.566983333333337</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>19.837084294871797</v>
+        <v>23.857502243589746</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8965,17 +9219,17 @@
         <v>23.773437179487175</v>
       </c>
       <c r="C16">
-        <v>19.487165384615384</v>
+        <v>24.561947435897423</v>
       </c>
       <c r="D16">
-        <v>18.992148717948719</v>
+        <v>24.855026923076938</v>
       </c>
       <c r="E16">
-        <v>16.998564102564103</v>
+        <v>22.689685897435904</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>19.812828846153845</v>
+        <v>23.97002435897436</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8986,17 +9240,17 @@
         <v>23.811883333333334</v>
       </c>
       <c r="C17">
-        <v>19.545928205128206</v>
+        <v>24.596721794871794</v>
       </c>
       <c r="D17">
-        <v>19.048475641025647</v>
+        <v>24.886651282051286</v>
       </c>
       <c r="E17">
-        <v>17.052871794871791</v>
+        <v>22.723778205128202</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>19.864789743589746</v>
+        <v>24.004758653846153</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9007,17 +9261,17 @@
         <v>23.878782051282048</v>
       </c>
       <c r="C18">
-        <v>19.553228205128217</v>
+        <v>24.664448717948719</v>
       </c>
       <c r="D18">
-        <v>19.063810256410253</v>
+        <v>24.965992307692318</v>
       </c>
       <c r="E18">
-        <v>17.07516025641026</v>
+        <v>22.77730128205128</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>19.892745192307693</v>
+        <v>24.071631089743594</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9028,17 +9282,17 @@
         <v>23.867511538461535</v>
       </c>
       <c r="C19">
-        <v>19.573771794871792</v>
+        <v>24.676758974358972</v>
       </c>
       <c r="D19">
-        <v>19.078158974358974</v>
+        <v>24.959838461538467</v>
       </c>
       <c r="E19">
-        <v>17.091748717948715</v>
+        <v>22.771301282051287</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>19.902797756410255</v>
+        <v>24.068852564102563</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9049,17 +9303,17 @@
         <v>23.833134615384612</v>
       </c>
       <c r="C20">
-        <v>19.60569615384615</v>
+        <v>24.658061538461546</v>
       </c>
       <c r="D20">
-        <v>19.106961538461544</v>
+        <v>24.956170512820517</v>
       </c>
       <c r="E20">
-        <v>17.123932051282043</v>
+        <v>22.767529487179484</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>19.917431089743587</v>
+        <v>24.053724038461542</v>
       </c>
     </row>
   </sheetData>
@@ -9073,7 +9327,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9103,17 +9357,17 @@
         <v>17.326676923076921</v>
       </c>
       <c r="C2">
-        <v>16.684660256410261</v>
+        <v>18.571451282051282</v>
       </c>
       <c r="D2">
-        <v>15.952070512820505</v>
+        <v>18.028143589743586</v>
       </c>
       <c r="E2">
-        <v>14.303678205128204</v>
+        <v>16.411569230769231</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2:E2)</f>
-        <v>16.066771474358973</v>
+        <v>17.584460256410253</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9124,17 +9378,17 @@
         <v>19.541984615384614</v>
       </c>
       <c r="C3">
-        <v>17.217047435897438</v>
+        <v>20.629919230769229</v>
       </c>
       <c r="D3">
-        <v>16.435779487179488</v>
+        <v>20.17325641025641</v>
       </c>
       <c r="E3">
-        <v>14.67499615384615</v>
+        <v>18.506257692307692</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>16.967451923076922</v>
+        <v>19.712854487179484</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9145,17 +9399,17 @@
         <v>21.315237179487184</v>
       </c>
       <c r="C4">
-        <v>17.588855128205115</v>
+        <v>22.243778205128201</v>
       </c>
       <c r="D4">
-        <v>16.821233333333339</v>
+        <v>21.99512948717949</v>
       </c>
       <c r="E4">
-        <v>14.972788461538457</v>
+        <v>20.205403846153846</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>17.674528525641023</v>
+        <v>21.439887179487179</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9166,17 +9420,17 @@
         <v>21.493392307692314</v>
       </c>
       <c r="C5">
-        <v>17.288406410256414</v>
+        <v>22.433551282051287</v>
       </c>
       <c r="D5">
-        <v>16.512497435897437</v>
+        <v>22.360419230769228</v>
       </c>
       <c r="E5">
-        <v>14.638262820512818</v>
+        <v>20.364756410256401</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>17.483139743589746</v>
+        <v>21.663029807692308</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9187,17 +9441,17 @@
         <v>21.740725641025634</v>
       </c>
       <c r="C6">
-        <v>17.218420512820515</v>
+        <v>22.69340256410257</v>
       </c>
       <c r="D6">
-        <v>16.43530512820513</v>
+        <v>22.647628205128211</v>
       </c>
       <c r="E6">
-        <v>14.543138461538465</v>
+        <v>20.626933333333334</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>17.484397435897435</v>
+        <v>21.92717243589744</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9208,17 +9462,17 @@
         <v>21.658810256410259</v>
       </c>
       <c r="C7">
-        <v>17.177815384615382</v>
+        <v>22.625114102564105</v>
       </c>
       <c r="D7">
-        <v>16.397926923076916</v>
+        <v>22.58961923076923</v>
       </c>
       <c r="E7">
-        <v>14.508637179487183</v>
+        <v>20.547941025641027</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>17.435797435897435</v>
+        <v>21.855371153846153</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9229,17 +9483,17 @@
         <v>21.5603217948718</v>
       </c>
       <c r="C8">
-        <v>17.103538461538459</v>
+        <v>22.53406153846155</v>
       </c>
       <c r="D8">
-        <v>16.337212820512832</v>
+        <v>22.506678205128203</v>
       </c>
       <c r="E8">
-        <v>14.458505128205134</v>
+        <v>20.478361538461538</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>17.364894551282056</v>
+        <v>21.769855769230773</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9250,17 +9504,17 @@
         <v>21.710662820512823</v>
       </c>
       <c r="C9">
-        <v>17.177524358974356</v>
+        <v>22.737923076923067</v>
       </c>
       <c r="D9">
-        <v>16.414324358974358</v>
+        <v>22.68282692307692</v>
       </c>
       <c r="E9">
-        <v>14.526494871794872</v>
+        <v>20.659629487179494</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>17.457251602564099</v>
+        <v>21.947760576923073</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9271,17 +9525,17 @@
         <v>21.878466666666672</v>
       </c>
       <c r="C10">
-        <v>17.012524358974364</v>
+        <v>22.843938461538468</v>
       </c>
       <c r="D10">
-        <v>16.232675641025637</v>
+        <v>22.821032051282053</v>
       </c>
       <c r="E10">
-        <v>14.352141025641021</v>
+        <v>20.780524358974358</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>17.368951923076924</v>
+        <v>22.08099038461539</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9292,17 +9546,17 @@
         <v>21.973003846153844</v>
       </c>
       <c r="C11">
-        <v>17.181910256410259</v>
+        <v>22.940466666666666</v>
       </c>
       <c r="D11">
-        <v>16.405350000000002</v>
+        <v>22.92314871794872</v>
       </c>
       <c r="E11">
-        <v>14.507394871794876</v>
+        <v>20.884957692307694</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>17.516914743589744</v>
+        <v>22.180394230769231</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9313,17 +9567,17 @@
         <v>22.266983333333332</v>
       </c>
       <c r="C12">
-        <v>17.231365384615383</v>
+        <v>23.203615384615393</v>
       </c>
       <c r="D12">
-        <v>16.44677307692308</v>
+        <v>23.205491025641038</v>
       </c>
       <c r="E12">
-        <v>14.548025641025642</v>
+        <v>21.163338461538466</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>17.62328685897436</v>
+        <v>22.459857051282057</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9334,17 +9588,17 @@
         <v>22.151107692307693</v>
       </c>
       <c r="C13">
-        <v>17.240614102564102</v>
+        <v>23.127407692307699</v>
       </c>
       <c r="D13">
-        <v>16.459161538461533</v>
+        <v>23.121642307692298</v>
       </c>
       <c r="E13">
-        <v>14.559329487179488</v>
+        <v>21.076107692307694</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>17.602553205128203</v>
+        <v>22.369066346153843</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9355,17 +9609,17 @@
         <v>22.267656410256411</v>
       </c>
       <c r="C14">
-        <v>17.205155128205124</v>
+        <v>23.217880769230771</v>
       </c>
       <c r="D14">
-        <v>16.42400512820512</v>
+        <v>23.225807692307697</v>
       </c>
       <c r="E14">
-        <v>14.529280769230771</v>
+        <v>21.165238461538461</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>17.606524358974355</v>
+        <v>22.469145833333336</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9376,17 +9630,17 @@
         <v>22.176352564102562</v>
       </c>
       <c r="C15">
-        <v>17.163291025641026</v>
+        <v>23.145474358974354</v>
       </c>
       <c r="D15">
-        <v>16.385903846153841</v>
+        <v>23.14904743589744</v>
       </c>
       <c r="E15">
-        <v>14.489296153846153</v>
+        <v>21.079255128205126</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>17.553710897435895</v>
+        <v>22.387532371794869</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9397,17 +9651,17 @@
         <v>22.096076923076929</v>
       </c>
       <c r="C16">
-        <v>17.105619230769232</v>
+        <v>23.043626923076928</v>
       </c>
       <c r="D16">
-        <v>16.325987179487193</v>
+        <v>23.049167948717947</v>
       </c>
       <c r="E16">
-        <v>14.431364102564109</v>
+        <v>21.019832051282055</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>17.489761858974365</v>
+        <v>22.302175961538463</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9418,17 +9672,17 @@
         <v>22.189880769230765</v>
       </c>
       <c r="C17">
-        <v>17.172837179487175</v>
+        <v>23.131775641025634</v>
       </c>
       <c r="D17">
-        <v>16.396251282051278</v>
+        <v>23.144888461538461</v>
       </c>
       <c r="E17">
-        <v>14.498452564102564</v>
+        <v>21.094298717948714</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>17.564355448717947</v>
+        <v>22.390210897435892</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9439,17 +9693,17 @@
         <v>22.229271794871789</v>
       </c>
       <c r="C18">
-        <v>17.178092307692314</v>
+        <v>23.19945641025641</v>
       </c>
       <c r="D18">
-        <v>16.396514102564105</v>
+        <v>23.201835897435902</v>
       </c>
       <c r="E18">
-        <v>14.497950000000001</v>
+        <v>21.139011538461542</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>17.575457051282051</v>
+        <v>22.44239391025641</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9460,17 +9714,17 @@
         <v>22.247726923076929</v>
       </c>
       <c r="C19">
-        <v>17.181950000000001</v>
+        <v>23.231441025641026</v>
       </c>
       <c r="D19">
-        <v>16.401342307692296</v>
+        <v>23.225028205128201</v>
       </c>
       <c r="E19">
-        <v>14.501884615384615</v>
+        <v>21.158758974358985</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>17.58322596153846</v>
+        <v>22.465738782051286</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9481,17 +9735,17 @@
         <v>22.289937179487175</v>
       </c>
       <c r="C20">
-        <v>17.196919230769229</v>
+        <v>23.250396153846161</v>
       </c>
       <c r="D20">
-        <v>16.410265384615382</v>
+        <v>23.260007692307692</v>
       </c>
       <c r="E20">
-        <v>14.514288461538458</v>
+        <v>21.210773076923076</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>17.602852564102562</v>
+        <v>22.502778525641027</v>
       </c>
     </row>
   </sheetData>
@@ -9505,7 +9759,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9535,17 +9789,17 @@
         <v>17.424076923076921</v>
       </c>
       <c r="C2">
-        <v>16.610961538461535</v>
+        <v>18.70271923076923</v>
       </c>
       <c r="D2">
-        <v>15.799564102564096</v>
+        <v>18.176657692307693</v>
       </c>
       <c r="E2">
-        <v>14.159655128205131</v>
+        <v>16.504070512820515</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2:E2)</f>
-        <v>15.998564423076921</v>
+        <v>17.701881089743591</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9556,17 +9810,17 @@
         <v>19.524566666666665</v>
       </c>
       <c r="C3">
-        <v>17.056135897435905</v>
+        <v>20.604462820512815</v>
       </c>
       <c r="D3">
-        <v>16.207035897435894</v>
+        <v>20.182541025641029</v>
       </c>
       <c r="E3">
-        <v>14.486397435897437</v>
+        <v>18.458926923076913</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>16.818533974358974</v>
+        <v>19.692624358974356</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9577,17 +9831,17 @@
         <v>21.162324358974363</v>
       </c>
       <c r="C4">
-        <v>17.385602564102562</v>
+        <v>22.05299358974359</v>
       </c>
       <c r="D4">
-        <v>16.532669230769233</v>
+        <v>21.83807564102564</v>
       </c>
       <c r="E4">
-        <v>14.760524358974363</v>
+        <v>20.012076923076915</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>17.460280128205131</v>
+        <v>21.266367628205128</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9598,17 +9852,17 @@
         <v>21.356592307692306</v>
       </c>
       <c r="C5">
-        <v>17.108825641025632</v>
+        <v>22.2686358974359</v>
       </c>
       <c r="D5">
-        <v>16.254496153846155</v>
+        <v>22.219293589743586</v>
       </c>
       <c r="E5">
-        <v>14.430798717948713</v>
+        <v>20.185207692307692</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>17.287678205128202</v>
+        <v>21.50743237179487</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9619,17 +9873,17 @@
         <v>21.681301282051276</v>
       </c>
       <c r="C6">
-        <v>17.064541025641045</v>
+        <v>22.626719230769229</v>
       </c>
       <c r="D6">
-        <v>16.201048717948716</v>
+        <v>22.625742307692303</v>
       </c>
       <c r="E6">
-        <v>14.358848717948717</v>
+        <v>20.515771794871796</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>17.326434935897439</v>
+        <v>21.862383653846152</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9640,17 +9894,17 @@
         <v>21.610056410256405</v>
       </c>
       <c r="C7">
-        <v>17.036182051282051</v>
+        <v>22.577556410256406</v>
       </c>
       <c r="D7">
-        <v>16.169267948717945</v>
+        <v>22.581733333333332</v>
       </c>
       <c r="E7">
-        <v>14.328652564102558</v>
+        <v>20.457862820512815</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>17.28603974358974</v>
+        <v>21.80680224358974</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9661,17 +9915,17 @@
         <v>21.583179487179482</v>
       </c>
       <c r="C8">
-        <v>16.990988461538464</v>
+        <v>22.58837435897436</v>
       </c>
       <c r="D8">
-        <v>16.138521794871792</v>
+        <v>22.594756410256412</v>
       </c>
       <c r="E8">
-        <v>14.298049999999998</v>
+        <v>20.47591538461538</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>17.252684935897435</v>
+        <v>21.810556410256407</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9682,17 +9936,17 @@
         <v>21.685924358974351</v>
       </c>
       <c r="C9">
-        <v>17.042378205128212</v>
+        <v>22.715671794871803</v>
       </c>
       <c r="D9">
-        <v>16.196466666666662</v>
+        <v>22.712960256410256</v>
       </c>
       <c r="E9">
-        <v>14.349793589743589</v>
+        <v>20.584603846153847</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>17.318640705128203</v>
+        <v>21.924790064102567</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9703,17 +9957,17 @@
         <v>21.886028205128202</v>
       </c>
       <c r="C10">
-        <v>16.906071794871796</v>
+        <v>22.869305128205134</v>
       </c>
       <c r="D10">
-        <v>16.050488461538468</v>
+        <v>22.887567948717948</v>
       </c>
       <c r="E10">
-        <v>14.20370769230769</v>
+        <v>20.750475641025641</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>17.261574038461539</v>
+        <v>22.098344230769232</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9724,17 +9978,17 @@
         <v>21.907441025641017</v>
       </c>
       <c r="C11">
-        <v>17.03533205128204</v>
+        <v>22.866880769230768</v>
       </c>
       <c r="D11">
-        <v>16.179283333333331</v>
+        <v>22.896583333333336</v>
       </c>
       <c r="E11">
-        <v>14.326838461538465</v>
+        <v>20.769983333333325</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>17.362223717948716</v>
+        <v>22.110222115384612</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9745,17 +9999,17 @@
         <v>22.250744871794865</v>
       </c>
       <c r="C12">
-        <v>17.087752564102576</v>
+        <v>23.191111538461534</v>
       </c>
       <c r="D12">
-        <v>16.22352051282051</v>
+        <v>23.254017948717941</v>
       </c>
       <c r="E12">
-        <v>14.373206410256412</v>
+        <v>21.103058974358973</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>17.483806089743592</v>
+        <v>22.449733333333327</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9766,17 +10020,17 @@
         <v>22.09656923076923</v>
       </c>
       <c r="C13">
-        <v>17.091519230769233</v>
+        <v>23.057949999999998</v>
       </c>
       <c r="D13">
-        <v>16.225405128205125</v>
+        <v>23.108548717948729</v>
       </c>
       <c r="E13">
-        <v>14.378693589743589</v>
+        <v>20.965664102564109</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>17.448046794871793</v>
+        <v>22.307183012820513</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9787,17 +10041,17 @@
         <v>22.213021794871793</v>
       </c>
       <c r="C14">
-        <v>17.059835897435896</v>
+        <v>23.15691794871795</v>
       </c>
       <c r="D14">
-        <v>16.198399999999999</v>
+        <v>23.222307692307702</v>
       </c>
       <c r="E14">
-        <v>14.350542307692303</v>
+        <v>21.06035</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>17.455449999999999</v>
+        <v>22.413149358974358</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9808,17 +10062,17 @@
         <v>22.138048717948717</v>
       </c>
       <c r="C15">
-        <v>17.025419230769234</v>
+        <v>23.094370512820522</v>
       </c>
       <c r="D15">
-        <v>16.165744871794871</v>
+        <v>23.167364102564104</v>
       </c>
       <c r="E15">
-        <v>14.315370512820513</v>
+        <v>20.97567307692308</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>17.411145833333332</v>
+        <v>22.343864102564105</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9829,17 +10083,17 @@
         <v>22.132010256410247</v>
       </c>
       <c r="C16">
-        <v>16.990106410256406</v>
+        <v>23.102773076923068</v>
       </c>
       <c r="D16">
-        <v>16.127571794871784</v>
+        <v>23.159412820512831</v>
       </c>
       <c r="E16">
-        <v>14.273557692307687</v>
+        <v>21.018493589743585</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>17.380811538461533</v>
+        <v>22.353172435897431</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9850,17 +10104,17 @@
         <v>22.181011538461544</v>
       </c>
       <c r="C17">
-        <v>17.038064102564096</v>
+        <v>23.133152564102573</v>
       </c>
       <c r="D17">
-        <v>16.179748717948716</v>
+        <v>23.202380769230778</v>
       </c>
       <c r="E17">
-        <v>14.326788461538463</v>
+        <v>21.044294871794875</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>17.431403205128206</v>
+        <v>22.390209935897445</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9871,17 +10125,17 @@
         <v>22.230038461538459</v>
       </c>
       <c r="C18">
-        <v>17.0412717948718</v>
+        <v>23.201952564102573</v>
       </c>
       <c r="D18">
-        <v>16.179980769230767</v>
+        <v>23.274691025641022</v>
       </c>
       <c r="E18">
-        <v>14.325697435897432</v>
+        <v>21.087171794871789</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>17.444247115384613</v>
+        <v>22.448463461538463</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9892,17 +10146,17 @@
         <v>22.225641025641021</v>
       </c>
       <c r="C19">
-        <v>17.044283333333336</v>
+        <v>23.2016717948718</v>
       </c>
       <c r="D19">
-        <v>16.180355128205118</v>
+        <v>23.26261538461538</v>
       </c>
       <c r="E19">
-        <v>14.329602564102562</v>
+        <v>21.087108974358973</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>17.444970512820507</v>
+        <v>22.444259294871795</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9913,17 +10167,17 @@
         <v>22.269610256410253</v>
       </c>
       <c r="C20">
-        <v>17.055311538461542</v>
+        <v>23.235911538461547</v>
       </c>
       <c r="D20">
-        <v>16.189221794871795</v>
+        <v>23.304805128205128</v>
       </c>
       <c r="E20">
-        <v>14.339917948717945</v>
+        <v>21.144256410256407</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>17.463515384615384</v>
+        <v>22.488645833333333</v>
       </c>
     </row>
   </sheetData>

--- a/realsense/numbers/PSNR/prop-improve/by_real/detail/psnr-average_real_prop-improve-NxNy300_ptAll-nph_tileExpand.xlsx
+++ b/realsense/numbers/PSNR/prop-improve/by_real/detail/psnr-average_real_prop-improve-NxNy300_ptAll-nph_tileExpand.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\渡辺　哲生\source\repos\realsense\realsense\numbers\PSNR\prop-improve\by_real\detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC50C2AB-6A0E-44C6-8789-6D6A03AB6D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CD50B5-CFB8-4948-B381-5CA384A4E84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{787CAC4F-C68D-4530-9FDA-15BDCA93F7E1}"/>
   </bookViews>
@@ -1881,7 +1881,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
